--- a/Leetcode.xlsx
+++ b/Leetcode.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24526"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hootf_000\Documents\GitHub\Leetcode\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="280" yWindow="0" windowWidth="27920" windowHeight="15820" tabRatio="500"/>
+    <workbookView xWindow="276" yWindow="0" windowWidth="27924" windowHeight="15816" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -24,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="494" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="513" uniqueCount="224">
   <si>
     <t>Id</t>
   </si>
@@ -655,19 +660,72 @@
     <t>N*N matrix is given with input red or black. If 3 consecutive same color found, that color will get 1 point.</t>
   </si>
   <si>
-    <t>Question</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <t>Reverse Words in a String</t>
+  </si>
+  <si>
+    <t>Clone Graph</t>
+  </si>
+  <si>
+    <t>Gas Station</t>
+  </si>
+  <si>
+    <t>Candy</t>
+  </si>
+  <si>
+    <t>Single Number</t>
+  </si>
+  <si>
+    <t>Single Number II</t>
+  </si>
+  <si>
+    <t>Copy List with Random Pointer</t>
+  </si>
+  <si>
+    <t>Word Break</t>
+  </si>
+  <si>
+    <t>Word Break II</t>
+  </si>
+  <si>
+    <t>Linked List Cycle</t>
+  </si>
+  <si>
+    <t>Linked List Cycle II</t>
+  </si>
+  <si>
+    <t>Reorder List</t>
+  </si>
+  <si>
+    <t>Binary Tree Preorder Traversal</t>
+  </si>
+  <si>
+    <t>Binary Tree Postorder Traversal</t>
+  </si>
+  <si>
+    <t>LRU Cache</t>
+  </si>
+  <si>
+    <t>Insertion Sort List</t>
+  </si>
+  <si>
+    <t>Sort List</t>
+  </si>
+  <si>
+    <t>Max Points on a Line</t>
+  </si>
+  <si>
+    <t>Evaluate Reverse Polish Notation</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="14">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -685,7 +743,7 @@
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -718,7 +776,7 @@
     <font>
       <sz val="16"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -733,7 +791,7 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -747,7 +805,7 @@
       <u/>
       <sz val="12"/>
       <color theme="10"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -756,7 +814,7 @@
       <u/>
       <sz val="12"/>
       <color theme="11"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -814,21 +872,21 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="9">
-    <cellStyle name="普通" xfId="0" builtinId="0"/>
-    <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -1169,70 +1227,69 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1" enableFormatConditionsCalculation="0"/>
-  <dimension ref="A1:F307"/>
+  <dimension ref="A1:F345"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C283" sqref="C283:C284"/>
+      <pane ySplit="1" topLeftCell="A323" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B346" sqref="B346"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="19.1640625" style="14" customWidth="1"/>
-    <col min="2" max="2" width="46.33203125" style="14" customWidth="1"/>
-    <col min="3" max="3" width="17.1640625" style="14" customWidth="1"/>
-    <col min="4" max="4" width="25" style="14" customWidth="1"/>
-    <col min="5" max="5" width="26.33203125" style="14" customWidth="1"/>
-    <col min="6" max="6" width="28.1640625" style="14" customWidth="1"/>
-    <col min="7" max="16384" width="11" style="14"/>
+    <col min="1" max="1" width="19.19921875" style="12" customWidth="1"/>
+    <col min="2" max="2" width="46.296875" style="12" customWidth="1"/>
+    <col min="3" max="3" width="17.19921875" style="12" customWidth="1"/>
+    <col min="4" max="4" width="25" style="12" customWidth="1"/>
+    <col min="5" max="5" width="26.296875" style="12" customWidth="1"/>
+    <col min="6" max="6" width="28.19921875" style="12" customWidth="1"/>
+    <col min="7" max="16384" width="11" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="18">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:6" ht="19.2">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13" t="s">
-        <v>205</v>
-      </c>
-      <c r="C1" s="13" t="s">
+      <c r="B1" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="13" t="s">
+      <c r="D1" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="F1" s="11" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="18">
-      <c r="A2" s="11">
+    <row r="2" spans="1:6" ht="19.2">
+      <c r="A2" s="16">
         <v>1</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="11">
+      <c r="C2" s="16">
         <v>2</v>
       </c>
-      <c r="D2" s="11">
+      <c r="D2" s="16">
         <v>5</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="E2" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="15" t="s">
+      <c r="F2" s="13" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:6" customFormat="1" ht="19.5" hidden="1" customHeight="1">
-      <c r="A3" s="11"/>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
+    <row r="3" spans="1:6" customFormat="1" ht="19.5" customHeight="1">
+      <c r="A3" s="16"/>
+      <c r="B3" s="16"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
       <c r="E3" s="7" t="s">
         <v>8</v>
       </c>
@@ -1240,655 +1297,655 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:6" customFormat="1" ht="15.75" hidden="1" customHeight="1">
-      <c r="A4" s="11"/>
-      <c r="B4" s="11"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
+    <row r="4" spans="1:6" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A4" s="16"/>
+      <c r="B4" s="16"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
     </row>
     <row r="5" spans="1:6" ht="19.5" customHeight="1">
-      <c r="A5" s="11">
+      <c r="A5" s="16">
         <v>2</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="11">
-        <v>3</v>
-      </c>
-      <c r="D5" s="11">
+      <c r="C5" s="16">
+        <v>3</v>
+      </c>
+      <c r="D5" s="16">
         <v>4</v>
       </c>
-      <c r="E5" s="11" t="s">
+      <c r="E5" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="15" t="s">
+      <c r="F5" s="13" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:6" customFormat="1" ht="19.5" hidden="1" customHeight="1">
-      <c r="A6" s="11"/>
-      <c r="B6" s="11"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
+    <row r="6" spans="1:6" customFormat="1" ht="19.5" customHeight="1">
+      <c r="A6" s="16"/>
+      <c r="B6" s="16"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
       <c r="F6" s="7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:6" customFormat="1" ht="15.75" hidden="1" customHeight="1">
-      <c r="A7" s="11"/>
-      <c r="B7" s="11"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
+    <row r="7" spans="1:6" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A7" s="16"/>
+      <c r="B7" s="16"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
     </row>
     <row r="8" spans="1:6" ht="19.5" customHeight="1">
-      <c r="A8" s="11">
-        <v>3</v>
-      </c>
-      <c r="B8" s="11" t="s">
+      <c r="A8" s="16">
+        <v>3</v>
+      </c>
+      <c r="B8" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="11">
-        <v>3</v>
-      </c>
-      <c r="D8" s="11">
+      <c r="C8" s="16">
+        <v>3</v>
+      </c>
+      <c r="D8" s="16">
         <v>2</v>
       </c>
-      <c r="E8" s="15" t="s">
+      <c r="E8" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="F8" s="11" t="s">
+      <c r="F8" s="16" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:6" customFormat="1" ht="19.5" hidden="1" customHeight="1">
-      <c r="A9" s="11"/>
-      <c r="B9" s="11"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
+    <row r="9" spans="1:6" customFormat="1" ht="19.5" customHeight="1">
+      <c r="A9" s="16"/>
+      <c r="B9" s="16"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="16"/>
       <c r="E9" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="F9" s="11"/>
-    </row>
-    <row r="10" spans="1:6" customFormat="1" ht="15.75" hidden="1" customHeight="1">
-      <c r="A10" s="11"/>
-      <c r="B10" s="11"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
-      <c r="F10" s="11"/>
-    </row>
-    <row r="11" spans="1:6" customFormat="1" ht="15.75" hidden="1" customHeight="1">
-      <c r="A11" s="11">
+      <c r="F9" s="16"/>
+    </row>
+    <row r="10" spans="1:6" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A10" s="16"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="16"/>
+      <c r="F10" s="16"/>
+    </row>
+    <row r="11" spans="1:6" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A11" s="16">
         <v>4</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="11">
+      <c r="C11" s="16">
         <v>5</v>
       </c>
-      <c r="D11" s="11">
-        <v>3</v>
-      </c>
-      <c r="E11" s="11" t="s">
+      <c r="D11" s="16">
+        <v>3</v>
+      </c>
+      <c r="E11" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="F11" s="11" t="s">
+      <c r="F11" s="16" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:6" customFormat="1" ht="15.75" hidden="1" customHeight="1">
-      <c r="A12" s="11"/>
-      <c r="B12" s="11"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
-    </row>
-    <row r="13" spans="1:6" customFormat="1" ht="15.75" hidden="1" customHeight="1">
-      <c r="A13" s="11">
+    <row r="12" spans="1:6" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A12" s="16"/>
+      <c r="B12" s="16"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="16"/>
+    </row>
+    <row r="13" spans="1:6" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A13" s="16">
         <v>5</v>
       </c>
-      <c r="B13" s="11" t="s">
+      <c r="B13" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="C13" s="11">
+      <c r="C13" s="16">
         <v>4</v>
       </c>
-      <c r="D13" s="11">
+      <c r="D13" s="16">
         <v>2</v>
       </c>
-      <c r="E13" s="11" t="s">
+      <c r="E13" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="F13" s="11"/>
-    </row>
-    <row r="14" spans="1:6" customFormat="1" ht="15.75" hidden="1" customHeight="1">
-      <c r="A14" s="11"/>
-      <c r="B14" s="11"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
+      <c r="F13" s="16"/>
+    </row>
+    <row r="14" spans="1:6" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A14" s="16"/>
+      <c r="B14" s="16"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="16"/>
     </row>
     <row r="15" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A15" s="11">
+      <c r="A15" s="16">
         <v>6</v>
       </c>
-      <c r="B15" s="11" t="s">
+      <c r="B15" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="C15" s="11">
-        <v>3</v>
-      </c>
-      <c r="D15" s="11">
+      <c r="C15" s="16">
+        <v>3</v>
+      </c>
+      <c r="D15" s="16">
         <v>1</v>
       </c>
-      <c r="E15" s="11" t="s">
+      <c r="E15" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="F15" s="11"/>
-    </row>
-    <row r="16" spans="1:6" customFormat="1" ht="15.75" hidden="1" customHeight="1">
-      <c r="A16" s="11"/>
-      <c r="B16" s="11"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="11"/>
+      <c r="F15" s="16"/>
+    </row>
+    <row r="16" spans="1:6" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A16" s="16"/>
+      <c r="B16" s="16"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="16"/>
+      <c r="F16" s="16"/>
     </row>
     <row r="17" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A17" s="11">
+      <c r="A17" s="16">
         <v>7</v>
       </c>
-      <c r="B17" s="11" t="s">
+      <c r="B17" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="C17" s="11">
+      <c r="C17" s="16">
         <v>2</v>
       </c>
-      <c r="D17" s="11">
-        <v>3</v>
-      </c>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11" t="s">
+      <c r="D17" s="16">
+        <v>3</v>
+      </c>
+      <c r="E17" s="16"/>
+      <c r="F17" s="16" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:6" customFormat="1" ht="15.75" hidden="1" customHeight="1">
-      <c r="A18" s="11"/>
-      <c r="B18" s="11"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11"/>
+    <row r="18" spans="1:6" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A18" s="16"/>
+      <c r="B18" s="16"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="16"/>
     </row>
     <row r="19" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A19" s="11">
+      <c r="A19" s="16">
         <v>8</v>
       </c>
-      <c r="B19" s="11" t="s">
+      <c r="B19" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="C19" s="11">
+      <c r="C19" s="16">
         <v>2</v>
       </c>
-      <c r="D19" s="11">
+      <c r="D19" s="16">
         <v>5</v>
       </c>
-      <c r="E19" s="11" t="s">
+      <c r="E19" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="F19" s="11" t="s">
+      <c r="F19" s="16" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:6" customFormat="1" ht="15.75" hidden="1" customHeight="1">
-      <c r="A20" s="11"/>
-      <c r="B20" s="11"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="11"/>
+    <row r="20" spans="1:6" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A20" s="16"/>
+      <c r="B20" s="16"/>
+      <c r="C20" s="16"/>
+      <c r="D20" s="16"/>
+      <c r="E20" s="16"/>
+      <c r="F20" s="16"/>
     </row>
     <row r="21" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A21" s="11">
+      <c r="A21" s="16">
         <v>9</v>
       </c>
-      <c r="B21" s="11" t="s">
+      <c r="B21" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="C21" s="11">
+      <c r="C21" s="16">
         <v>2</v>
       </c>
-      <c r="D21" s="11">
+      <c r="D21" s="16">
         <v>2</v>
       </c>
-      <c r="E21" s="11"/>
-      <c r="F21" s="11" t="s">
+      <c r="E21" s="16"/>
+      <c r="F21" s="16" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:6" customFormat="1" ht="15.75" hidden="1" customHeight="1">
-      <c r="A22" s="11"/>
-      <c r="B22" s="11"/>
-      <c r="C22" s="11"/>
-      <c r="D22" s="11"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="11"/>
-    </row>
-    <row r="23" spans="1:6" customFormat="1" ht="19.5" hidden="1" customHeight="1">
-      <c r="A23" s="11">
+    <row r="22" spans="1:6" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A22" s="16"/>
+      <c r="B22" s="16"/>
+      <c r="C22" s="16"/>
+      <c r="D22" s="16"/>
+      <c r="E22" s="16"/>
+      <c r="F22" s="16"/>
+    </row>
+    <row r="23" spans="1:6" customFormat="1" ht="19.5" customHeight="1">
+      <c r="A23" s="16">
         <v>10</v>
       </c>
-      <c r="B23" s="11" t="s">
+      <c r="B23" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="C23" s="11">
+      <c r="C23" s="16">
         <v>5</v>
       </c>
-      <c r="D23" s="11">
-        <v>3</v>
-      </c>
-      <c r="E23" s="11" t="s">
+      <c r="D23" s="16">
+        <v>3</v>
+      </c>
+      <c r="E23" s="16" t="s">
         <v>15</v>
       </c>
       <c r="F23" s="7" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="24" spans="1:6" customFormat="1" ht="19.5" hidden="1" customHeight="1">
-      <c r="A24" s="11"/>
-      <c r="B24" s="11"/>
-      <c r="C24" s="11"/>
-      <c r="D24" s="11"/>
-      <c r="E24" s="11"/>
+    <row r="24" spans="1:6" customFormat="1" ht="19.5" customHeight="1">
+      <c r="A24" s="16"/>
+      <c r="B24" s="16"/>
+      <c r="C24" s="16"/>
+      <c r="D24" s="16"/>
+      <c r="E24" s="16"/>
       <c r="F24" s="7" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="25" spans="1:6" customFormat="1" ht="15.75" hidden="1" customHeight="1">
-      <c r="A25" s="11"/>
-      <c r="B25" s="11"/>
-      <c r="C25" s="11"/>
-      <c r="D25" s="11"/>
-      <c r="E25" s="11"/>
+    <row r="25" spans="1:6" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A25" s="16"/>
+      <c r="B25" s="16"/>
+      <c r="C25" s="16"/>
+      <c r="D25" s="16"/>
+      <c r="E25" s="16"/>
     </row>
     <row r="26" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A26" s="11">
+      <c r="A26" s="16">
         <v>11</v>
       </c>
-      <c r="B26" s="11" t="s">
+      <c r="B26" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="C26" s="11">
-        <v>3</v>
-      </c>
-      <c r="D26" s="11">
+      <c r="C26" s="16">
+        <v>3</v>
+      </c>
+      <c r="D26" s="16">
         <v>2</v>
       </c>
-      <c r="E26" s="11" t="s">
+      <c r="E26" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="F26" s="11" t="s">
+      <c r="F26" s="16" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="1:6" customFormat="1" ht="15.75" hidden="1" customHeight="1">
-      <c r="A27" s="11"/>
-      <c r="B27" s="11"/>
-      <c r="C27" s="11"/>
-      <c r="D27" s="11"/>
-      <c r="E27" s="11"/>
-      <c r="F27" s="11"/>
+    <row r="27" spans="1:6" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A27" s="16"/>
+      <c r="B27" s="16"/>
+      <c r="C27" s="16"/>
+      <c r="D27" s="16"/>
+      <c r="E27" s="16"/>
+      <c r="F27" s="16"/>
     </row>
     <row r="28" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A28" s="11">
+      <c r="A28" s="16">
         <v>12</v>
       </c>
-      <c r="B28" s="11" t="s">
+      <c r="B28" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="C28" s="11">
-        <v>3</v>
-      </c>
-      <c r="D28" s="11">
+      <c r="C28" s="16">
+        <v>3</v>
+      </c>
+      <c r="D28" s="16">
         <v>4</v>
       </c>
-      <c r="E28" s="11"/>
-      <c r="F28" s="11" t="s">
+      <c r="E28" s="16"/>
+      <c r="F28" s="16" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="29" spans="1:6" customFormat="1" ht="15.75" hidden="1" customHeight="1">
-      <c r="A29" s="11"/>
-      <c r="B29" s="11"/>
-      <c r="C29" s="11"/>
-      <c r="D29" s="11"/>
-      <c r="E29" s="11"/>
-      <c r="F29" s="11"/>
+    <row r="29" spans="1:6" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A29" s="16"/>
+      <c r="B29" s="16"/>
+      <c r="C29" s="16"/>
+      <c r="D29" s="16"/>
+      <c r="E29" s="16"/>
+      <c r="F29" s="16"/>
     </row>
     <row r="30" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A30" s="11">
+      <c r="A30" s="16">
         <v>13</v>
       </c>
-      <c r="B30" s="11" t="s">
+      <c r="B30" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="C30" s="11">
+      <c r="C30" s="16">
         <v>2</v>
       </c>
-      <c r="D30" s="11">
+      <c r="D30" s="16">
         <v>4</v>
       </c>
-      <c r="E30" s="11"/>
-      <c r="F30" s="11" t="s">
+      <c r="E30" s="16"/>
+      <c r="F30" s="16" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="31" spans="1:6" customFormat="1" ht="15.75" hidden="1" customHeight="1">
-      <c r="A31" s="11"/>
-      <c r="B31" s="11"/>
-      <c r="C31" s="11"/>
-      <c r="D31" s="11"/>
-      <c r="E31" s="11"/>
-      <c r="F31" s="11"/>
+    <row r="31" spans="1:6" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A31" s="16"/>
+      <c r="B31" s="16"/>
+      <c r="C31" s="16"/>
+      <c r="D31" s="16"/>
+      <c r="E31" s="16"/>
+      <c r="F31" s="16"/>
     </row>
     <row r="32" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A32" s="11">
+      <c r="A32" s="16">
         <v>14</v>
       </c>
-      <c r="B32" s="11" t="s">
+      <c r="B32" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="C32" s="11">
+      <c r="C32" s="16">
         <v>2</v>
       </c>
-      <c r="D32" s="11">
+      <c r="D32" s="16">
         <v>1</v>
       </c>
-      <c r="E32" s="11" t="s">
+      <c r="E32" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="F32" s="11"/>
-    </row>
-    <row r="33" spans="1:6" customFormat="1" ht="15.75" hidden="1" customHeight="1">
-      <c r="A33" s="11"/>
-      <c r="B33" s="11"/>
-      <c r="C33" s="11"/>
-      <c r="D33" s="11"/>
-      <c r="E33" s="11"/>
-      <c r="F33" s="11"/>
+      <c r="F32" s="16"/>
+    </row>
+    <row r="33" spans="1:6" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A33" s="16"/>
+      <c r="B33" s="16"/>
+      <c r="C33" s="16"/>
+      <c r="D33" s="16"/>
+      <c r="E33" s="16"/>
+      <c r="F33" s="16"/>
     </row>
     <row r="34" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A34" s="11">
+      <c r="A34" s="16">
         <v>15</v>
       </c>
-      <c r="B34" s="11" t="s">
+      <c r="B34" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="C34" s="11">
-        <v>3</v>
-      </c>
-      <c r="D34" s="11">
+      <c r="C34" s="16">
+        <v>3</v>
+      </c>
+      <c r="D34" s="16">
         <v>5</v>
       </c>
-      <c r="E34" s="11" t="s">
+      <c r="E34" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="F34" s="11" t="s">
+      <c r="F34" s="16" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="35" spans="1:6" customFormat="1" ht="15.75" hidden="1" customHeight="1">
-      <c r="A35" s="11"/>
-      <c r="B35" s="11"/>
-      <c r="C35" s="11"/>
-      <c r="D35" s="11"/>
-      <c r="E35" s="11"/>
-      <c r="F35" s="11"/>
+    <row r="35" spans="1:6" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A35" s="16"/>
+      <c r="B35" s="16"/>
+      <c r="C35" s="16"/>
+      <c r="D35" s="16"/>
+      <c r="E35" s="16"/>
+      <c r="F35" s="16"/>
     </row>
     <row r="36" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A36" s="11">
+      <c r="A36" s="16">
         <v>16</v>
       </c>
-      <c r="B36" s="11" t="s">
+      <c r="B36" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="C36" s="11">
-        <v>3</v>
-      </c>
-      <c r="D36" s="11">
+      <c r="C36" s="16">
+        <v>3</v>
+      </c>
+      <c r="D36" s="16">
         <v>1</v>
       </c>
-      <c r="E36" s="11" t="s">
+      <c r="E36" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="F36" s="11" t="s">
+      <c r="F36" s="16" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="37" spans="1:6" customFormat="1" ht="15.75" hidden="1" customHeight="1">
-      <c r="A37" s="11"/>
-      <c r="B37" s="11"/>
-      <c r="C37" s="11"/>
-      <c r="D37" s="11"/>
-      <c r="E37" s="11"/>
-      <c r="F37" s="11"/>
+    <row r="37" spans="1:6" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A37" s="16"/>
+      <c r="B37" s="16"/>
+      <c r="C37" s="16"/>
+      <c r="D37" s="16"/>
+      <c r="E37" s="16"/>
+      <c r="F37" s="16"/>
     </row>
     <row r="38" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A38" s="11">
+      <c r="A38" s="16">
         <v>17</v>
       </c>
-      <c r="B38" s="11" t="s">
+      <c r="B38" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="C38" s="11">
-        <v>3</v>
-      </c>
-      <c r="D38" s="11">
-        <v>3</v>
-      </c>
-      <c r="E38" s="11" t="s">
+      <c r="C38" s="16">
+        <v>3</v>
+      </c>
+      <c r="D38" s="16">
+        <v>3</v>
+      </c>
+      <c r="E38" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="F38" s="11" t="s">
+      <c r="F38" s="16" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="39" spans="1:6" customFormat="1" ht="15.75" hidden="1" customHeight="1">
-      <c r="A39" s="11"/>
-      <c r="B39" s="11"/>
-      <c r="C39" s="11"/>
-      <c r="D39" s="11"/>
-      <c r="E39" s="11"/>
-      <c r="F39" s="11"/>
+    <row r="39" spans="1:6" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A39" s="16"/>
+      <c r="B39" s="16"/>
+      <c r="C39" s="16"/>
+      <c r="D39" s="16"/>
+      <c r="E39" s="16"/>
+      <c r="F39" s="16"/>
     </row>
     <row r="40" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A40" s="11">
+      <c r="A40" s="16">
         <v>18</v>
       </c>
-      <c r="B40" s="11" t="s">
+      <c r="B40" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="C40" s="11">
-        <v>3</v>
-      </c>
-      <c r="D40" s="11">
+      <c r="C40" s="16">
+        <v>3</v>
+      </c>
+      <c r="D40" s="16">
         <v>2</v>
       </c>
-      <c r="E40" s="11" t="s">
+      <c r="E40" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="F40" s="11"/>
-    </row>
-    <row r="41" spans="1:6" customFormat="1" ht="15.75" hidden="1" customHeight="1">
-      <c r="A41" s="11"/>
-      <c r="B41" s="11"/>
-      <c r="C41" s="11"/>
-      <c r="D41" s="11"/>
-      <c r="E41" s="11"/>
-      <c r="F41" s="11"/>
+      <c r="F40" s="16"/>
+    </row>
+    <row r="41" spans="1:6" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A41" s="16"/>
+      <c r="B41" s="16"/>
+      <c r="C41" s="16"/>
+      <c r="D41" s="16"/>
+      <c r="E41" s="16"/>
+      <c r="F41" s="16"/>
     </row>
     <row r="42" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A42" s="11">
+      <c r="A42" s="16">
         <v>19</v>
       </c>
-      <c r="B42" s="11" t="s">
+      <c r="B42" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="C42" s="11">
+      <c r="C42" s="16">
         <v>2</v>
       </c>
-      <c r="D42" s="11">
-        <v>3</v>
-      </c>
-      <c r="E42" s="11" t="s">
+      <c r="D42" s="16">
+        <v>3</v>
+      </c>
+      <c r="E42" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="F42" s="11" t="s">
+      <c r="F42" s="16" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="43" spans="1:6" customFormat="1" ht="15.75" hidden="1" customHeight="1">
-      <c r="A43" s="11"/>
-      <c r="B43" s="11"/>
-      <c r="C43" s="11"/>
-      <c r="D43" s="11"/>
-      <c r="E43" s="11"/>
-      <c r="F43" s="11"/>
+    <row r="43" spans="1:6" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A43" s="16"/>
+      <c r="B43" s="16"/>
+      <c r="C43" s="16"/>
+      <c r="D43" s="16"/>
+      <c r="E43" s="16"/>
+      <c r="F43" s="16"/>
     </row>
     <row r="44" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A44" s="11">
+      <c r="A44" s="16">
         <v>20</v>
       </c>
-      <c r="B44" s="11" t="s">
+      <c r="B44" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="C44" s="11">
+      <c r="C44" s="16">
         <v>2</v>
       </c>
-      <c r="D44" s="11">
+      <c r="D44" s="16">
         <v>5</v>
       </c>
-      <c r="E44" s="11" t="s">
+      <c r="E44" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="F44" s="11" t="s">
+      <c r="F44" s="16" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="45" spans="1:6" customFormat="1" ht="15.75" hidden="1" customHeight="1">
-      <c r="A45" s="11"/>
-      <c r="B45" s="11"/>
-      <c r="C45" s="11"/>
-      <c r="D45" s="11"/>
-      <c r="E45" s="11"/>
-      <c r="F45" s="11"/>
-    </row>
-    <row r="46" spans="1:6" ht="18">
-      <c r="A46" s="11">
+    <row r="45" spans="1:6" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A45" s="16"/>
+      <c r="B45" s="16"/>
+      <c r="C45" s="16"/>
+      <c r="D45" s="16"/>
+      <c r="E45" s="16"/>
+      <c r="F45" s="16"/>
+    </row>
+    <row r="46" spans="1:6" ht="19.2">
+      <c r="A46" s="16">
         <v>21</v>
       </c>
-      <c r="B46" s="11" t="s">
+      <c r="B46" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="C46" s="11">
+      <c r="C46" s="16">
         <v>2</v>
       </c>
-      <c r="D46" s="11">
+      <c r="D46" s="16">
         <v>5</v>
       </c>
-      <c r="E46" s="11" t="s">
+      <c r="E46" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="F46" s="15" t="s">
+      <c r="F46" s="13" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="47" spans="1:6" customFormat="1" ht="19.5" hidden="1" customHeight="1">
-      <c r="A47" s="11"/>
-      <c r="B47" s="11"/>
-      <c r="C47" s="11"/>
-      <c r="D47" s="11"/>
-      <c r="E47" s="11"/>
+    <row r="47" spans="1:6" customFormat="1" ht="19.5" customHeight="1">
+      <c r="A47" s="16"/>
+      <c r="B47" s="16"/>
+      <c r="C47" s="16"/>
+      <c r="D47" s="16"/>
+      <c r="E47" s="16"/>
       <c r="F47" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="48" spans="1:6" customFormat="1" ht="19.5" hidden="1" customHeight="1">
-      <c r="A48" s="11"/>
-      <c r="B48" s="11"/>
-      <c r="C48" s="11"/>
-      <c r="D48" s="11"/>
-      <c r="E48" s="11"/>
+    <row r="48" spans="1:6" customFormat="1" ht="19.5" customHeight="1">
+      <c r="A48" s="16"/>
+      <c r="B48" s="16"/>
+      <c r="C48" s="16"/>
+      <c r="D48" s="16"/>
+      <c r="E48" s="16"/>
       <c r="F48" s="7" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="49" spans="1:6" customFormat="1" ht="15.75" hidden="1" customHeight="1">
-      <c r="A49" s="11"/>
-      <c r="B49" s="11"/>
-      <c r="C49" s="11"/>
-      <c r="D49" s="11"/>
-      <c r="E49" s="11"/>
+    <row r="49" spans="1:6" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A49" s="16"/>
+      <c r="B49" s="16"/>
+      <c r="C49" s="16"/>
+      <c r="D49" s="16"/>
+      <c r="E49" s="16"/>
     </row>
     <row r="50" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A50" s="11">
+      <c r="A50" s="16">
         <v>22</v>
       </c>
-      <c r="B50" s="11" t="s">
+      <c r="B50" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="C50" s="11">
-        <v>3</v>
-      </c>
-      <c r="D50" s="11">
+      <c r="C50" s="16">
+        <v>3</v>
+      </c>
+      <c r="D50" s="16">
         <v>4</v>
       </c>
-      <c r="E50" s="11" t="s">
+      <c r="E50" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="F50" s="11" t="s">
+      <c r="F50" s="16" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="51" spans="1:6" customFormat="1" ht="15.75" hidden="1" customHeight="1">
-      <c r="A51" s="11"/>
-      <c r="B51" s="11"/>
-      <c r="C51" s="11"/>
-      <c r="D51" s="11"/>
-      <c r="E51" s="11"/>
-      <c r="F51" s="11"/>
+    <row r="51" spans="1:6" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A51" s="16"/>
+      <c r="B51" s="16"/>
+      <c r="C51" s="16"/>
+      <c r="D51" s="16"/>
+      <c r="E51" s="16"/>
+      <c r="F51" s="16"/>
     </row>
     <row r="52" spans="1:6" ht="19.5" customHeight="1">
-      <c r="A52" s="11">
+      <c r="A52" s="16">
         <v>23</v>
       </c>
-      <c r="B52" s="11" t="s">
+      <c r="B52" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="C52" s="11">
-        <v>3</v>
-      </c>
-      <c r="D52" s="11">
+      <c r="C52" s="16">
+        <v>3</v>
+      </c>
+      <c r="D52" s="16">
         <v>4</v>
       </c>
-      <c r="E52" s="15" t="s">
+      <c r="E52" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="F52" s="15" t="s">
+      <c r="F52" s="13" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="53" spans="1:6" customFormat="1" ht="19.5" hidden="1" customHeight="1">
-      <c r="A53" s="11"/>
-      <c r="B53" s="11"/>
-      <c r="C53" s="11"/>
-      <c r="D53" s="11"/>
+    <row r="53" spans="1:6" customFormat="1" ht="19.5" customHeight="1">
+      <c r="A53" s="16"/>
+      <c r="B53" s="16"/>
+      <c r="C53" s="16"/>
+      <c r="D53" s="16"/>
       <c r="E53" s="7" t="s">
         <v>43</v>
       </c>
@@ -1896,1000 +1953,1000 @@
         <v>10</v>
       </c>
     </row>
-    <row r="54" spans="1:6" customFormat="1" ht="19.5" hidden="1" customHeight="1">
-      <c r="A54" s="11"/>
-      <c r="B54" s="11"/>
-      <c r="C54" s="11"/>
-      <c r="D54" s="11"/>
+    <row r="54" spans="1:6" customFormat="1" ht="19.5" customHeight="1">
+      <c r="A54" s="16"/>
+      <c r="B54" s="16"/>
+      <c r="C54" s="16"/>
+      <c r="D54" s="16"/>
       <c r="F54" s="7" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="55" spans="1:6" customFormat="1" ht="15.75" hidden="1" customHeight="1">
-      <c r="A55" s="11"/>
-      <c r="B55" s="11"/>
-      <c r="C55" s="11"/>
-      <c r="D55" s="11"/>
+    <row r="55" spans="1:6" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A55" s="16"/>
+      <c r="B55" s="16"/>
+      <c r="C55" s="16"/>
+      <c r="D55" s="16"/>
     </row>
     <row r="56" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A56" s="11">
+      <c r="A56" s="16">
         <v>24</v>
       </c>
-      <c r="B56" s="11" t="s">
+      <c r="B56" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="C56" s="11">
+      <c r="C56" s="16">
         <v>2</v>
       </c>
-      <c r="D56" s="11">
+      <c r="D56" s="16">
         <v>4</v>
       </c>
-      <c r="E56" s="11" t="s">
+      <c r="E56" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="F56" s="11"/>
-    </row>
-    <row r="57" spans="1:6" customFormat="1" ht="15.75" hidden="1" customHeight="1">
-      <c r="A57" s="11"/>
-      <c r="B57" s="11"/>
-      <c r="C57" s="11"/>
-      <c r="D57" s="11"/>
-      <c r="E57" s="11"/>
-      <c r="F57" s="11"/>
-    </row>
-    <row r="58" spans="1:6" customFormat="1" ht="19.5" hidden="1" customHeight="1">
-      <c r="A58" s="11">
+      <c r="F56" s="16"/>
+    </row>
+    <row r="57" spans="1:6" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A57" s="16"/>
+      <c r="B57" s="16"/>
+      <c r="C57" s="16"/>
+      <c r="D57" s="16"/>
+      <c r="E57" s="16"/>
+      <c r="F57" s="16"/>
+    </row>
+    <row r="58" spans="1:6" customFormat="1" ht="19.5" customHeight="1">
+      <c r="A58" s="16">
         <v>25</v>
       </c>
-      <c r="B58" s="11" t="s">
+      <c r="B58" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="C58" s="11">
+      <c r="C58" s="16">
         <v>4</v>
       </c>
-      <c r="D58" s="11">
+      <c r="D58" s="16">
         <v>2</v>
       </c>
-      <c r="E58" s="11" t="s">
+      <c r="E58" s="16" t="s">
         <v>12</v>
       </c>
       <c r="F58" s="7" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="59" spans="1:6" customFormat="1" ht="19.5" hidden="1" customHeight="1">
-      <c r="A59" s="11"/>
-      <c r="B59" s="11"/>
-      <c r="C59" s="11"/>
-      <c r="D59" s="11"/>
-      <c r="E59" s="11"/>
+    <row r="59" spans="1:6" customFormat="1" ht="19.5" customHeight="1">
+      <c r="A59" s="16"/>
+      <c r="B59" s="16"/>
+      <c r="C59" s="16"/>
+      <c r="D59" s="16"/>
+      <c r="E59" s="16"/>
       <c r="F59" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="60" spans="1:6" customFormat="1" ht="15.75" hidden="1" customHeight="1">
-      <c r="A60" s="11"/>
-      <c r="B60" s="11"/>
-      <c r="C60" s="11"/>
-      <c r="D60" s="11"/>
-      <c r="E60" s="11"/>
-    </row>
-    <row r="61" spans="1:6" ht="38" customHeight="1">
-      <c r="A61" s="11">
+    <row r="60" spans="1:6" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A60" s="16"/>
+      <c r="B60" s="16"/>
+      <c r="C60" s="16"/>
+      <c r="D60" s="16"/>
+      <c r="E60" s="16"/>
+    </row>
+    <row r="61" spans="1:6" ht="37.950000000000003" customHeight="1">
+      <c r="A61" s="16">
         <v>26</v>
       </c>
-      <c r="B61" s="11" t="s">
+      <c r="B61" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="C61" s="11">
+      <c r="C61" s="16">
         <v>1</v>
       </c>
-      <c r="D61" s="11">
-        <v>3</v>
-      </c>
-      <c r="E61" s="11" t="s">
+      <c r="D61" s="16">
+        <v>3</v>
+      </c>
+      <c r="E61" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="F61" s="11" t="s">
+      <c r="F61" s="16" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="62" spans="1:6" customFormat="1" ht="15.75" hidden="1" customHeight="1">
-      <c r="A62" s="11"/>
-      <c r="B62" s="11"/>
-      <c r="C62" s="11"/>
-      <c r="D62" s="11"/>
-      <c r="E62" s="11"/>
-      <c r="F62" s="11"/>
+    <row r="62" spans="1:6" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A62" s="16"/>
+      <c r="B62" s="16"/>
+      <c r="C62" s="16"/>
+      <c r="D62" s="16"/>
+      <c r="E62" s="16"/>
+      <c r="F62" s="16"/>
     </row>
     <row r="63" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A63" s="11">
+      <c r="A63" s="16">
         <v>27</v>
       </c>
-      <c r="B63" s="11" t="s">
+      <c r="B63" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="C63" s="11">
+      <c r="C63" s="16">
         <v>1</v>
       </c>
-      <c r="D63" s="11">
+      <c r="D63" s="16">
         <v>4</v>
       </c>
-      <c r="E63" s="11" t="s">
+      <c r="E63" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="F63" s="11" t="s">
+      <c r="F63" s="16" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="64" spans="1:6" customFormat="1" ht="15.75" hidden="1" customHeight="1">
-      <c r="A64" s="11"/>
-      <c r="B64" s="11"/>
-      <c r="C64" s="11"/>
-      <c r="D64" s="11"/>
-      <c r="E64" s="11"/>
-      <c r="F64" s="11"/>
-    </row>
-    <row r="65" spans="1:6" customFormat="1" ht="19.5" hidden="1" customHeight="1">
-      <c r="A65" s="11">
+    <row r="64" spans="1:6" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A64" s="16"/>
+      <c r="B64" s="16"/>
+      <c r="C64" s="16"/>
+      <c r="D64" s="16"/>
+      <c r="E64" s="16"/>
+      <c r="F64" s="16"/>
+    </row>
+    <row r="65" spans="1:6" customFormat="1" ht="19.5" customHeight="1">
+      <c r="A65" s="16">
         <v>28</v>
       </c>
-      <c r="B65" s="11" t="s">
+      <c r="B65" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="C65" s="11">
+      <c r="C65" s="16">
         <v>4</v>
       </c>
-      <c r="D65" s="11">
+      <c r="D65" s="16">
         <v>5</v>
       </c>
-      <c r="E65" s="11" t="s">
+      <c r="E65" s="16" t="s">
         <v>15</v>
       </c>
       <c r="F65" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="66" spans="1:6" customFormat="1" ht="19.5" hidden="1" customHeight="1">
-      <c r="A66" s="11"/>
-      <c r="B66" s="11"/>
-      <c r="C66" s="11"/>
-      <c r="D66" s="11"/>
-      <c r="E66" s="11"/>
+    <row r="66" spans="1:6" customFormat="1" ht="19.5" customHeight="1">
+      <c r="A66" s="16"/>
+      <c r="B66" s="16"/>
+      <c r="C66" s="16"/>
+      <c r="D66" s="16"/>
+      <c r="E66" s="16"/>
       <c r="F66" s="7" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="67" spans="1:6" customFormat="1" ht="19.5" hidden="1" customHeight="1">
-      <c r="A67" s="11"/>
-      <c r="B67" s="11"/>
-      <c r="C67" s="11"/>
-      <c r="D67" s="11"/>
-      <c r="E67" s="11"/>
+    <row r="67" spans="1:6" customFormat="1" ht="19.5" customHeight="1">
+      <c r="A67" s="16"/>
+      <c r="B67" s="16"/>
+      <c r="C67" s="16"/>
+      <c r="D67" s="16"/>
+      <c r="E67" s="16"/>
       <c r="F67" s="7" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="68" spans="1:6" customFormat="1" ht="15.75" hidden="1" customHeight="1">
-      <c r="A68" s="11"/>
-      <c r="B68" s="11"/>
-      <c r="C68" s="11"/>
-      <c r="D68" s="11"/>
-      <c r="E68" s="11"/>
-    </row>
-    <row r="69" spans="1:6" customFormat="1" ht="19.5" hidden="1" customHeight="1">
-      <c r="A69" s="11">
+    <row r="68" spans="1:6" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A68" s="16"/>
+      <c r="B68" s="16"/>
+      <c r="C68" s="16"/>
+      <c r="D68" s="16"/>
+      <c r="E68" s="16"/>
+    </row>
+    <row r="69" spans="1:6" customFormat="1" ht="19.5" customHeight="1">
+      <c r="A69" s="16">
         <v>29</v>
       </c>
-      <c r="B69" s="11" t="s">
+      <c r="B69" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="C69" s="11">
+      <c r="C69" s="16">
         <v>4</v>
       </c>
-      <c r="D69" s="11">
-        <v>3</v>
-      </c>
-      <c r="E69" s="11"/>
+      <c r="D69" s="16">
+        <v>3</v>
+      </c>
+      <c r="E69" s="16"/>
       <c r="F69" s="7" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="70" spans="1:6" customFormat="1" ht="19.5" hidden="1" customHeight="1">
-      <c r="A70" s="11"/>
-      <c r="B70" s="11"/>
-      <c r="C70" s="11"/>
-      <c r="D70" s="11"/>
-      <c r="E70" s="11"/>
+    <row r="70" spans="1:6" customFormat="1" ht="19.5" customHeight="1">
+      <c r="A70" s="16"/>
+      <c r="B70" s="16"/>
+      <c r="C70" s="16"/>
+      <c r="D70" s="16"/>
+      <c r="E70" s="16"/>
       <c r="F70" s="7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="71" spans="1:6" customFormat="1" ht="15.75" hidden="1" customHeight="1">
-      <c r="A71" s="11"/>
-      <c r="B71" s="11"/>
-      <c r="C71" s="11"/>
-      <c r="D71" s="11"/>
-      <c r="E71" s="11"/>
+    <row r="71" spans="1:6" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A71" s="16"/>
+      <c r="B71" s="16"/>
+      <c r="C71" s="16"/>
+      <c r="D71" s="16"/>
+      <c r="E71" s="16"/>
     </row>
     <row r="72" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A72" s="11">
+      <c r="A72" s="16">
         <v>30</v>
       </c>
-      <c r="B72" s="11" t="s">
+      <c r="B72" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="C72" s="11">
-        <v>3</v>
-      </c>
-      <c r="D72" s="11">
+      <c r="C72" s="16">
+        <v>3</v>
+      </c>
+      <c r="D72" s="16">
         <v>1</v>
       </c>
-      <c r="E72" s="11" t="s">
+      <c r="E72" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="F72" s="11" t="s">
+      <c r="F72" s="16" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="73" spans="1:6" customFormat="1" ht="15.75" hidden="1" customHeight="1">
-      <c r="A73" s="11"/>
-      <c r="B73" s="11"/>
-      <c r="C73" s="11"/>
-      <c r="D73" s="11"/>
-      <c r="E73" s="11"/>
-      <c r="F73" s="11"/>
-    </row>
-    <row r="74" spans="1:6" customFormat="1" ht="15.75" hidden="1" customHeight="1">
-      <c r="A74" s="11">
+    <row r="73" spans="1:6" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A73" s="16"/>
+      <c r="B73" s="16"/>
+      <c r="C73" s="16"/>
+      <c r="D73" s="16"/>
+      <c r="E73" s="16"/>
+      <c r="F73" s="16"/>
+    </row>
+    <row r="74" spans="1:6" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A74" s="16">
         <v>31</v>
       </c>
-      <c r="B74" s="11" t="s">
+      <c r="B74" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="C74" s="11">
+      <c r="C74" s="16">
         <v>5</v>
       </c>
-      <c r="D74" s="11">
+      <c r="D74" s="16">
         <v>2</v>
       </c>
-      <c r="E74" s="11" t="s">
+      <c r="E74" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="F74" s="11" t="s">
+      <c r="F74" s="16" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="75" spans="1:6" customFormat="1" ht="15.75" hidden="1" customHeight="1">
-      <c r="A75" s="11"/>
-      <c r="B75" s="11"/>
-      <c r="C75" s="11"/>
-      <c r="D75" s="11"/>
-      <c r="E75" s="11"/>
-      <c r="F75" s="11"/>
-    </row>
-    <row r="76" spans="1:6" customFormat="1" ht="15.75" hidden="1" customHeight="1">
-      <c r="A76" s="11">
+    <row r="75" spans="1:6" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A75" s="16"/>
+      <c r="B75" s="16"/>
+      <c r="C75" s="16"/>
+      <c r="D75" s="16"/>
+      <c r="E75" s="16"/>
+      <c r="F75" s="16"/>
+    </row>
+    <row r="76" spans="1:6" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A76" s="16">
         <v>32</v>
       </c>
-      <c r="B76" s="11" t="s">
+      <c r="B76" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="C76" s="11">
+      <c r="C76" s="16">
         <v>4</v>
       </c>
-      <c r="D76" s="11">
+      <c r="D76" s="16">
         <v>1</v>
       </c>
-      <c r="E76" s="11" t="s">
+      <c r="E76" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="F76" s="11" t="s">
+      <c r="F76" s="16" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="77" spans="1:6" customFormat="1" ht="15.75" hidden="1" customHeight="1">
-      <c r="A77" s="11"/>
-      <c r="B77" s="11"/>
-      <c r="C77" s="11"/>
-      <c r="D77" s="11"/>
-      <c r="E77" s="11"/>
-      <c r="F77" s="11"/>
-    </row>
-    <row r="78" spans="1:6" customFormat="1" ht="15.75" hidden="1" customHeight="1">
-      <c r="A78" s="11">
+    <row r="77" spans="1:6" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A77" s="16"/>
+      <c r="B77" s="16"/>
+      <c r="C77" s="16"/>
+      <c r="D77" s="16"/>
+      <c r="E77" s="16"/>
+      <c r="F77" s="16"/>
+    </row>
+    <row r="78" spans="1:6" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A78" s="16">
         <v>33</v>
       </c>
-      <c r="B78" s="11" t="s">
+      <c r="B78" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="C78" s="11">
+      <c r="C78" s="16">
         <v>4</v>
       </c>
-      <c r="D78" s="11">
-        <v>3</v>
-      </c>
-      <c r="E78" s="11" t="s">
+      <c r="D78" s="16">
+        <v>3</v>
+      </c>
+      <c r="E78" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="F78" s="11" t="s">
+      <c r="F78" s="16" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="79" spans="1:6" customFormat="1" ht="15.75" hidden="1" customHeight="1">
-      <c r="A79" s="11"/>
-      <c r="B79" s="11"/>
-      <c r="C79" s="11"/>
-      <c r="D79" s="11"/>
-      <c r="E79" s="11"/>
-      <c r="F79" s="11"/>
-    </row>
-    <row r="80" spans="1:6" customFormat="1" ht="15.75" hidden="1" customHeight="1">
-      <c r="A80" s="11">
+    <row r="79" spans="1:6" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A79" s="16"/>
+      <c r="B79" s="16"/>
+      <c r="C79" s="16"/>
+      <c r="D79" s="16"/>
+      <c r="E79" s="16"/>
+      <c r="F79" s="16"/>
+    </row>
+    <row r="80" spans="1:6" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A80" s="16">
         <v>34</v>
       </c>
-      <c r="B80" s="11" t="s">
+      <c r="B80" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="C80" s="11">
+      <c r="C80" s="16">
         <v>4</v>
       </c>
-      <c r="D80" s="11">
-        <v>3</v>
-      </c>
-      <c r="E80" s="11" t="s">
+      <c r="D80" s="16">
+        <v>3</v>
+      </c>
+      <c r="E80" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="F80" s="11" t="s">
+      <c r="F80" s="16" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="81" spans="1:6" customFormat="1" ht="15.75" hidden="1" customHeight="1">
-      <c r="A81" s="11"/>
-      <c r="B81" s="11"/>
-      <c r="C81" s="11"/>
-      <c r="D81" s="11"/>
-      <c r="E81" s="11"/>
-      <c r="F81" s="11"/>
+    <row r="81" spans="1:6" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A81" s="16"/>
+      <c r="B81" s="16"/>
+      <c r="C81" s="16"/>
+      <c r="D81" s="16"/>
+      <c r="E81" s="16"/>
+      <c r="F81" s="16"/>
     </row>
     <row r="82" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A82" s="11">
+      <c r="A82" s="16">
         <v>35</v>
       </c>
-      <c r="B82" s="11" t="s">
+      <c r="B82" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="C82" s="11">
+      <c r="C82" s="16">
         <v>2</v>
       </c>
-      <c r="D82" s="11">
+      <c r="D82" s="16">
         <v>2</v>
       </c>
-      <c r="E82" s="11" t="s">
+      <c r="E82" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="F82" s="11"/>
-    </row>
-    <row r="83" spans="1:6" customFormat="1" ht="15.75" hidden="1" customHeight="1">
-      <c r="A83" s="11"/>
-      <c r="B83" s="11"/>
-      <c r="C83" s="11"/>
-      <c r="D83" s="11"/>
-      <c r="E83" s="11"/>
-      <c r="F83" s="11"/>
+      <c r="F82" s="16"/>
+    </row>
+    <row r="83" spans="1:6" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A83" s="16"/>
+      <c r="B83" s="16"/>
+      <c r="C83" s="16"/>
+      <c r="D83" s="16"/>
+      <c r="E83" s="16"/>
+      <c r="F83" s="16"/>
     </row>
     <row r="84" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A84" s="11">
+      <c r="A84" s="16">
         <v>36</v>
       </c>
-      <c r="B84" s="11" t="s">
+      <c r="B84" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="C84" s="11">
+      <c r="C84" s="16">
         <v>2</v>
       </c>
-      <c r="D84" s="11">
+      <c r="D84" s="16">
         <v>2</v>
       </c>
-      <c r="E84" s="11" t="s">
+      <c r="E84" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="F84" s="11"/>
-    </row>
-    <row r="85" spans="1:6" customFormat="1" ht="15.75" hidden="1" customHeight="1">
-      <c r="A85" s="11"/>
-      <c r="B85" s="11"/>
-      <c r="C85" s="11"/>
-      <c r="D85" s="11"/>
-      <c r="E85" s="11"/>
-      <c r="F85" s="11"/>
-    </row>
-    <row r="86" spans="1:6" customFormat="1" ht="15.75" hidden="1" customHeight="1">
-      <c r="A86" s="11">
+      <c r="F84" s="16"/>
+    </row>
+    <row r="85" spans="1:6" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A85" s="16"/>
+      <c r="B85" s="16"/>
+      <c r="C85" s="16"/>
+      <c r="D85" s="16"/>
+      <c r="E85" s="16"/>
+      <c r="F85" s="16"/>
+    </row>
+    <row r="86" spans="1:6" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A86" s="16">
         <v>37</v>
       </c>
-      <c r="B86" s="11" t="s">
+      <c r="B86" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="C86" s="11">
+      <c r="C86" s="16">
         <v>4</v>
       </c>
-      <c r="D86" s="11">
+      <c r="D86" s="16">
         <v>2</v>
       </c>
-      <c r="E86" s="11" t="s">
+      <c r="E86" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="F86" s="11" t="s">
+      <c r="F86" s="16" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="87" spans="1:6" customFormat="1" ht="15.75" hidden="1" customHeight="1">
-      <c r="A87" s="11"/>
-      <c r="B87" s="11"/>
-      <c r="C87" s="11"/>
-      <c r="D87" s="11"/>
-      <c r="E87" s="11"/>
-      <c r="F87" s="11"/>
+    <row r="87" spans="1:6" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A87" s="16"/>
+      <c r="B87" s="16"/>
+      <c r="C87" s="16"/>
+      <c r="D87" s="16"/>
+      <c r="E87" s="16"/>
+      <c r="F87" s="16"/>
     </row>
     <row r="88" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A88" s="11">
+      <c r="A88" s="16">
         <v>38</v>
       </c>
-      <c r="B88" s="11" t="s">
+      <c r="B88" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="C88" s="11">
+      <c r="C88" s="16">
         <v>2</v>
       </c>
-      <c r="D88" s="11">
+      <c r="D88" s="16">
         <v>2</v>
       </c>
-      <c r="E88" s="11" t="s">
+      <c r="E88" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="F88" s="11" t="s">
+      <c r="F88" s="16" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="89" spans="1:6" customFormat="1" ht="15.75" hidden="1" customHeight="1">
-      <c r="A89" s="11"/>
-      <c r="B89" s="11"/>
-      <c r="C89" s="11"/>
-      <c r="D89" s="11"/>
-      <c r="E89" s="11"/>
-      <c r="F89" s="11"/>
+    <row r="89" spans="1:6" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A89" s="16"/>
+      <c r="B89" s="16"/>
+      <c r="C89" s="16"/>
+      <c r="D89" s="16"/>
+      <c r="E89" s="16"/>
+      <c r="F89" s="16"/>
     </row>
     <row r="90" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A90" s="11">
+      <c r="A90" s="16">
         <v>39</v>
       </c>
-      <c r="B90" s="11" t="s">
+      <c r="B90" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="C90" s="11">
-        <v>3</v>
-      </c>
-      <c r="D90" s="11">
-        <v>3</v>
-      </c>
-      <c r="E90" s="11" t="s">
+      <c r="C90" s="16">
+        <v>3</v>
+      </c>
+      <c r="D90" s="16">
+        <v>3</v>
+      </c>
+      <c r="E90" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="F90" s="11" t="s">
+      <c r="F90" s="16" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="91" spans="1:6" customFormat="1" ht="15.75" hidden="1" customHeight="1">
-      <c r="A91" s="11"/>
-      <c r="B91" s="11"/>
-      <c r="C91" s="11"/>
-      <c r="D91" s="11"/>
-      <c r="E91" s="11"/>
-      <c r="F91" s="11"/>
-    </row>
-    <row r="92" spans="1:6" customFormat="1" ht="15.75" hidden="1" customHeight="1">
-      <c r="A92" s="11">
+    <row r="91" spans="1:6" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A91" s="16"/>
+      <c r="B91" s="16"/>
+      <c r="C91" s="16"/>
+      <c r="D91" s="16"/>
+      <c r="E91" s="16"/>
+      <c r="F91" s="16"/>
+    </row>
+    <row r="92" spans="1:6" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A92" s="16">
         <v>40</v>
       </c>
-      <c r="B92" s="11" t="s">
+      <c r="B92" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="C92" s="11">
+      <c r="C92" s="16">
         <v>4</v>
       </c>
-      <c r="D92" s="11">
+      <c r="D92" s="16">
         <v>2</v>
       </c>
-      <c r="E92" s="11" t="s">
+      <c r="E92" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="F92" s="11" t="s">
+      <c r="F92" s="16" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="93" spans="1:6" customFormat="1" ht="15.75" hidden="1" customHeight="1">
-      <c r="A93" s="11"/>
-      <c r="B93" s="11"/>
-      <c r="C93" s="11"/>
-      <c r="D93" s="11"/>
-      <c r="E93" s="11"/>
-      <c r="F93" s="11"/>
-    </row>
-    <row r="94" spans="1:6" customFormat="1" ht="15.75" hidden="1" customHeight="1">
-      <c r="A94" s="11">
+    <row r="93" spans="1:6" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A93" s="16"/>
+      <c r="B93" s="16"/>
+      <c r="C93" s="16"/>
+      <c r="D93" s="16"/>
+      <c r="E93" s="16"/>
+      <c r="F93" s="16"/>
+    </row>
+    <row r="94" spans="1:6" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A94" s="16">
         <v>41</v>
       </c>
-      <c r="B94" s="11" t="s">
+      <c r="B94" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="C94" s="11">
+      <c r="C94" s="16">
         <v>5</v>
       </c>
-      <c r="D94" s="11">
+      <c r="D94" s="16">
         <v>2</v>
       </c>
-      <c r="E94" s="11" t="s">
+      <c r="E94" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="F94" s="11" t="s">
+      <c r="F94" s="16" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="95" spans="1:6" customFormat="1" ht="15.75" hidden="1" customHeight="1">
-      <c r="A95" s="11"/>
-      <c r="B95" s="11"/>
-      <c r="C95" s="11"/>
-      <c r="D95" s="11"/>
-      <c r="E95" s="11"/>
-      <c r="F95" s="11"/>
-    </row>
-    <row r="96" spans="1:6" customFormat="1" ht="19.5" hidden="1" customHeight="1">
-      <c r="A96" s="11">
+    <row r="95" spans="1:6" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A95" s="16"/>
+      <c r="B95" s="16"/>
+      <c r="C95" s="16"/>
+      <c r="D95" s="16"/>
+      <c r="E95" s="16"/>
+      <c r="F95" s="16"/>
+    </row>
+    <row r="96" spans="1:6" customFormat="1" ht="19.5" customHeight="1">
+      <c r="A96" s="16">
         <v>42</v>
       </c>
-      <c r="B96" s="11" t="s">
+      <c r="B96" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="C96" s="11">
+      <c r="C96" s="16">
         <v>4</v>
       </c>
-      <c r="D96" s="11">
+      <c r="D96" s="16">
         <v>2</v>
       </c>
-      <c r="E96" s="11" t="s">
+      <c r="E96" s="16" t="s">
         <v>7</v>
       </c>
       <c r="F96" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="97" spans="1:6" customFormat="1" ht="19.5" hidden="1" customHeight="1">
-      <c r="A97" s="11"/>
-      <c r="B97" s="11"/>
-      <c r="C97" s="11"/>
-      <c r="D97" s="11"/>
-      <c r="E97" s="11"/>
+    <row r="97" spans="1:6" customFormat="1" ht="19.5" customHeight="1">
+      <c r="A97" s="16"/>
+      <c r="B97" s="16"/>
+      <c r="C97" s="16"/>
+      <c r="D97" s="16"/>
+      <c r="E97" s="16"/>
       <c r="F97" s="7" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="98" spans="1:6" customFormat="1" ht="15.75" hidden="1" customHeight="1">
-      <c r="A98" s="11"/>
-      <c r="B98" s="11"/>
-      <c r="C98" s="11"/>
-      <c r="D98" s="11"/>
-      <c r="E98" s="11"/>
-    </row>
-    <row r="99" spans="1:6" customFormat="1" ht="19.5" hidden="1" customHeight="1">
-      <c r="A99" s="11">
+    <row r="98" spans="1:6" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A98" s="16"/>
+      <c r="B98" s="16"/>
+      <c r="C98" s="16"/>
+      <c r="D98" s="16"/>
+      <c r="E98" s="16"/>
+    </row>
+    <row r="99" spans="1:6" customFormat="1" ht="19.5" customHeight="1">
+      <c r="A99" s="16">
         <v>43</v>
       </c>
-      <c r="B99" s="11" t="s">
+      <c r="B99" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="C99" s="11">
+      <c r="C99" s="16">
         <v>4</v>
       </c>
-      <c r="D99" s="11">
-        <v>3</v>
-      </c>
-      <c r="E99" s="11" t="s">
+      <c r="D99" s="16">
+        <v>3</v>
+      </c>
+      <c r="E99" s="16" t="s">
         <v>15</v>
       </c>
       <c r="F99" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="100" spans="1:6" customFormat="1" ht="19.5" hidden="1" customHeight="1">
-      <c r="A100" s="11"/>
-      <c r="B100" s="11"/>
-      <c r="C100" s="11"/>
-      <c r="D100" s="11"/>
-      <c r="E100" s="11"/>
+    <row r="100" spans="1:6" customFormat="1" ht="19.5" customHeight="1">
+      <c r="A100" s="16"/>
+      <c r="B100" s="16"/>
+      <c r="C100" s="16"/>
+      <c r="D100" s="16"/>
+      <c r="E100" s="16"/>
       <c r="F100" s="7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="101" spans="1:6" customFormat="1" ht="15.75" hidden="1" customHeight="1">
-      <c r="A101" s="11"/>
-      <c r="B101" s="11"/>
-      <c r="C101" s="11"/>
-      <c r="D101" s="11"/>
-      <c r="E101" s="11"/>
-    </row>
-    <row r="102" spans="1:6" customFormat="1" ht="19.5" hidden="1" customHeight="1">
-      <c r="A102" s="11">
+    <row r="101" spans="1:6" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A101" s="16"/>
+      <c r="B101" s="16"/>
+      <c r="C101" s="16"/>
+      <c r="D101" s="16"/>
+      <c r="E101" s="16"/>
+    </row>
+    <row r="102" spans="1:6" customFormat="1" ht="19.5" customHeight="1">
+      <c r="A102" s="16">
         <v>44</v>
       </c>
-      <c r="B102" s="11" t="s">
+      <c r="B102" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="C102" s="11">
+      <c r="C102" s="16">
         <v>5</v>
       </c>
-      <c r="D102" s="11">
-        <v>3</v>
-      </c>
-      <c r="E102" s="11" t="s">
+      <c r="D102" s="16">
+        <v>3</v>
+      </c>
+      <c r="E102" s="16" t="s">
         <v>15</v>
       </c>
       <c r="F102" s="7" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="103" spans="1:6" customFormat="1" ht="19.5" hidden="1" customHeight="1">
-      <c r="A103" s="11"/>
-      <c r="B103" s="11"/>
-      <c r="C103" s="11"/>
-      <c r="D103" s="11"/>
-      <c r="E103" s="11"/>
+    <row r="103" spans="1:6" customFormat="1" ht="19.5" customHeight="1">
+      <c r="A103" s="16"/>
+      <c r="B103" s="16"/>
+      <c r="C103" s="16"/>
+      <c r="D103" s="16"/>
+      <c r="E103" s="16"/>
       <c r="F103" s="7" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="104" spans="1:6" customFormat="1" ht="19.5" hidden="1" customHeight="1">
-      <c r="A104" s="11"/>
-      <c r="B104" s="11"/>
-      <c r="C104" s="11"/>
-      <c r="D104" s="11"/>
-      <c r="E104" s="11"/>
+    <row r="104" spans="1:6" customFormat="1" ht="19.5" customHeight="1">
+      <c r="A104" s="16"/>
+      <c r="B104" s="16"/>
+      <c r="C104" s="16"/>
+      <c r="D104" s="16"/>
+      <c r="E104" s="16"/>
       <c r="F104" s="7" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="105" spans="1:6" customFormat="1" ht="15.75" hidden="1" customHeight="1">
-      <c r="A105" s="11"/>
-      <c r="B105" s="11"/>
-      <c r="C105" s="11"/>
-      <c r="D105" s="11"/>
-      <c r="E105" s="11"/>
-    </row>
-    <row r="106" spans="1:6" customFormat="1" ht="15.75" hidden="1" customHeight="1">
-      <c r="A106" s="11">
+    <row r="105" spans="1:6" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A105" s="16"/>
+      <c r="B105" s="16"/>
+      <c r="C105" s="16"/>
+      <c r="D105" s="16"/>
+      <c r="E105" s="16"/>
+    </row>
+    <row r="106" spans="1:6" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A106" s="16">
         <v>45</v>
       </c>
-      <c r="B106" s="11" t="s">
+      <c r="B106" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="C106" s="11">
+      <c r="C106" s="16">
         <v>4</v>
       </c>
-      <c r="D106" s="11">
+      <c r="D106" s="16">
         <v>2</v>
       </c>
-      <c r="E106" s="11" t="s">
+      <c r="E106" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="F106" s="11"/>
-    </row>
-    <row r="107" spans="1:6" customFormat="1" ht="15.75" hidden="1" customHeight="1">
-      <c r="A107" s="11"/>
-      <c r="B107" s="11"/>
-      <c r="C107" s="11"/>
-      <c r="D107" s="11"/>
-      <c r="E107" s="11"/>
-      <c r="F107" s="11"/>
+      <c r="F106" s="16"/>
+    </row>
+    <row r="107" spans="1:6" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A107" s="16"/>
+      <c r="B107" s="16"/>
+      <c r="C107" s="16"/>
+      <c r="D107" s="16"/>
+      <c r="E107" s="16"/>
+      <c r="F107" s="16"/>
     </row>
     <row r="108" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A108" s="11">
+      <c r="A108" s="16">
         <v>46</v>
       </c>
-      <c r="B108" s="11" t="s">
+      <c r="B108" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="C108" s="11">
-        <v>3</v>
-      </c>
-      <c r="D108" s="11">
+      <c r="C108" s="16">
+        <v>3</v>
+      </c>
+      <c r="D108" s="16">
         <v>4</v>
       </c>
-      <c r="E108" s="11" t="s">
+      <c r="E108" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="F108" s="11" t="s">
+      <c r="F108" s="16" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="109" spans="1:6" customFormat="1" ht="15.75" hidden="1" customHeight="1">
-      <c r="A109" s="11"/>
-      <c r="B109" s="11"/>
-      <c r="C109" s="11"/>
-      <c r="D109" s="11"/>
-      <c r="E109" s="11"/>
-      <c r="F109" s="11"/>
-    </row>
-    <row r="110" spans="1:6" customFormat="1" ht="15.75" hidden="1" customHeight="1">
-      <c r="A110" s="11">
+    <row r="109" spans="1:6" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A109" s="16"/>
+      <c r="B109" s="16"/>
+      <c r="C109" s="16"/>
+      <c r="D109" s="16"/>
+      <c r="E109" s="16"/>
+      <c r="F109" s="16"/>
+    </row>
+    <row r="110" spans="1:6" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A110" s="16">
         <v>47</v>
       </c>
-      <c r="B110" s="11" t="s">
+      <c r="B110" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="C110" s="11">
+      <c r="C110" s="16">
         <v>4</v>
       </c>
-      <c r="D110" s="11">
+      <c r="D110" s="16">
         <v>2</v>
       </c>
-      <c r="E110" s="11" t="s">
+      <c r="E110" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="F110" s="11" t="s">
+      <c r="F110" s="16" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="111" spans="1:6" customFormat="1" ht="15.75" hidden="1" customHeight="1">
-      <c r="A111" s="11"/>
-      <c r="B111" s="11"/>
-      <c r="C111" s="11"/>
-      <c r="D111" s="11"/>
-      <c r="E111" s="11"/>
-      <c r="F111" s="11"/>
-    </row>
-    <row r="112" spans="1:6" customFormat="1" ht="15.75" hidden="1" customHeight="1">
-      <c r="A112" s="11">
+    <row r="111" spans="1:6" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A111" s="16"/>
+      <c r="B111" s="16"/>
+      <c r="C111" s="16"/>
+      <c r="D111" s="16"/>
+      <c r="E111" s="16"/>
+      <c r="F111" s="16"/>
+    </row>
+    <row r="112" spans="1:6" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A112" s="16">
         <v>48</v>
       </c>
-      <c r="B112" s="11" t="s">
+      <c r="B112" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="C112" s="11">
+      <c r="C112" s="16">
         <v>4</v>
       </c>
-      <c r="D112" s="11">
+      <c r="D112" s="16">
         <v>2</v>
       </c>
-      <c r="E112" s="11" t="s">
+      <c r="E112" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="F112" s="11"/>
-    </row>
-    <row r="113" spans="1:6" customFormat="1" ht="15.75" hidden="1" customHeight="1">
-      <c r="A113" s="11"/>
-      <c r="B113" s="11"/>
-      <c r="C113" s="11"/>
-      <c r="D113" s="11"/>
-      <c r="E113" s="11"/>
-      <c r="F113" s="11"/>
-    </row>
-    <row r="114" spans="1:6" s="17" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A114" s="18">
+      <c r="F112" s="16"/>
+    </row>
+    <row r="113" spans="1:6" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A113" s="16"/>
+      <c r="B113" s="16"/>
+      <c r="C113" s="16"/>
+      <c r="D113" s="16"/>
+      <c r="E113" s="16"/>
+      <c r="F113" s="16"/>
+    </row>
+    <row r="114" spans="1:6" s="15" customFormat="1" ht="19.5" customHeight="1">
+      <c r="A114" s="17">
         <v>49</v>
       </c>
-      <c r="B114" s="18" t="s">
+      <c r="B114" s="17" t="s">
         <v>74</v>
       </c>
-      <c r="C114" s="18">
-        <v>3</v>
-      </c>
-      <c r="D114" s="18">
+      <c r="C114" s="17">
+        <v>3</v>
+      </c>
+      <c r="D114" s="17">
         <v>4</v>
       </c>
-      <c r="E114" s="16" t="s">
+      <c r="E114" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="F114" s="18"/>
-    </row>
-    <row r="115" spans="1:6" customFormat="1" ht="19.5" hidden="1" customHeight="1">
-      <c r="A115" s="11"/>
-      <c r="B115" s="11"/>
-      <c r="C115" s="11"/>
-      <c r="D115" s="11"/>
+      <c r="F114" s="17"/>
+    </row>
+    <row r="115" spans="1:6" customFormat="1" ht="19.5" customHeight="1">
+      <c r="A115" s="16"/>
+      <c r="B115" s="16"/>
+      <c r="C115" s="16"/>
+      <c r="D115" s="16"/>
       <c r="E115" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="F115" s="11"/>
-    </row>
-    <row r="116" spans="1:6" customFormat="1" ht="15.75" hidden="1" customHeight="1">
-      <c r="A116" s="11"/>
-      <c r="B116" s="11"/>
-      <c r="C116" s="11"/>
-      <c r="D116" s="11"/>
-      <c r="F116" s="11"/>
+      <c r="F115" s="16"/>
+    </row>
+    <row r="116" spans="1:6" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A116" s="16"/>
+      <c r="B116" s="16"/>
+      <c r="C116" s="16"/>
+      <c r="D116" s="16"/>
+      <c r="F116" s="16"/>
     </row>
     <row r="117" spans="1:6" ht="19.5" customHeight="1">
-      <c r="A117" s="11">
+      <c r="A117" s="16">
         <v>50</v>
       </c>
-      <c r="B117" s="11" t="s">
+      <c r="B117" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="C117" s="11">
-        <v>3</v>
-      </c>
-      <c r="D117" s="11">
+      <c r="C117" s="16">
+        <v>3</v>
+      </c>
+      <c r="D117" s="16">
         <v>5</v>
       </c>
-      <c r="E117" s="11"/>
-      <c r="F117" s="15" t="s">
+      <c r="E117" s="16"/>
+      <c r="F117" s="13" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="118" spans="1:6" customFormat="1" ht="19.5" hidden="1" customHeight="1">
-      <c r="A118" s="11"/>
-      <c r="B118" s="11"/>
-      <c r="C118" s="11"/>
-      <c r="D118" s="11"/>
-      <c r="E118" s="11"/>
+    <row r="118" spans="1:6" customFormat="1" ht="19.5" customHeight="1">
+      <c r="A118" s="16"/>
+      <c r="B118" s="16"/>
+      <c r="C118" s="16"/>
+      <c r="D118" s="16"/>
+      <c r="E118" s="16"/>
       <c r="F118" s="7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="119" spans="1:6" customFormat="1" ht="15.75" hidden="1" customHeight="1">
-      <c r="A119" s="11"/>
-      <c r="B119" s="11"/>
-      <c r="C119" s="11"/>
-      <c r="D119" s="11"/>
-      <c r="E119" s="11"/>
-    </row>
-    <row r="120" spans="1:6" customFormat="1" ht="15.75" hidden="1" customHeight="1">
-      <c r="A120" s="11">
+    <row r="119" spans="1:6" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A119" s="16"/>
+      <c r="B119" s="16"/>
+      <c r="C119" s="16"/>
+      <c r="D119" s="16"/>
+      <c r="E119" s="16"/>
+    </row>
+    <row r="120" spans="1:6" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A120" s="16">
         <v>51</v>
       </c>
-      <c r="B120" s="11" t="s">
+      <c r="B120" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="C120" s="11">
+      <c r="C120" s="16">
         <v>4</v>
       </c>
-      <c r="D120" s="11">
-        <v>3</v>
-      </c>
-      <c r="E120" s="11" t="s">
+      <c r="D120" s="16">
+        <v>3</v>
+      </c>
+      <c r="E120" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="F120" s="11" t="s">
+      <c r="F120" s="16" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="121" spans="1:6" customFormat="1" ht="15.75" hidden="1" customHeight="1">
-      <c r="A121" s="11"/>
-      <c r="B121" s="11"/>
-      <c r="C121" s="11"/>
-      <c r="D121" s="11"/>
-      <c r="E121" s="11"/>
-      <c r="F121" s="11"/>
-    </row>
-    <row r="122" spans="1:6" customFormat="1" ht="15.75" hidden="1" customHeight="1">
-      <c r="A122" s="11">
+    <row r="121" spans="1:6" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A121" s="16"/>
+      <c r="B121" s="16"/>
+      <c r="C121" s="16"/>
+      <c r="D121" s="16"/>
+      <c r="E121" s="16"/>
+      <c r="F121" s="16"/>
+    </row>
+    <row r="122" spans="1:6" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A122" s="16">
         <v>52</v>
       </c>
-      <c r="B122" s="11" t="s">
+      <c r="B122" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="C122" s="11">
+      <c r="C122" s="16">
         <v>4</v>
       </c>
-      <c r="D122" s="11">
-        <v>3</v>
-      </c>
-      <c r="E122" s="11" t="s">
+      <c r="D122" s="16">
+        <v>3</v>
+      </c>
+      <c r="E122" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="F122" s="11" t="s">
+      <c r="F122" s="16" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="123" spans="1:6" customFormat="1" ht="15.75" hidden="1" customHeight="1">
-      <c r="A123" s="11"/>
-      <c r="B123" s="11"/>
-      <c r="C123" s="11"/>
-      <c r="D123" s="11"/>
-      <c r="E123" s="11"/>
-      <c r="F123" s="11"/>
+    <row r="123" spans="1:6" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A123" s="16"/>
+      <c r="B123" s="16"/>
+      <c r="C123" s="16"/>
+      <c r="D123" s="16"/>
+      <c r="E123" s="16"/>
+      <c r="F123" s="16"/>
     </row>
     <row r="124" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A124" s="11">
+      <c r="A124" s="16">
         <v>53</v>
       </c>
-      <c r="B124" s="11" t="s">
+      <c r="B124" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="C124" s="11">
-        <v>3</v>
-      </c>
-      <c r="D124" s="11">
-        <v>3</v>
-      </c>
-      <c r="E124" s="11" t="s">
+      <c r="C124" s="16">
+        <v>3</v>
+      </c>
+      <c r="D124" s="16">
+        <v>3</v>
+      </c>
+      <c r="E124" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="F124" s="11" t="s">
+      <c r="F124" s="16" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="125" spans="1:6" customFormat="1" ht="15.75" hidden="1" customHeight="1">
-      <c r="A125" s="11"/>
-      <c r="B125" s="11"/>
-      <c r="C125" s="11"/>
-      <c r="D125" s="11"/>
-      <c r="E125" s="11"/>
-      <c r="F125" s="11"/>
-    </row>
-    <row r="126" spans="1:6" customFormat="1" ht="15.75" hidden="1" customHeight="1">
-      <c r="A126" s="11">
+    <row r="125" spans="1:6" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A125" s="16"/>
+      <c r="B125" s="16"/>
+      <c r="C125" s="16"/>
+      <c r="D125" s="16"/>
+      <c r="E125" s="16"/>
+      <c r="F125" s="16"/>
+    </row>
+    <row r="126" spans="1:6" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A126" s="16">
         <v>54</v>
       </c>
-      <c r="B126" s="11" t="s">
+      <c r="B126" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="C126" s="11">
+      <c r="C126" s="16">
         <v>4</v>
       </c>
-      <c r="D126" s="11">
+      <c r="D126" s="16">
         <v>2</v>
       </c>
-      <c r="E126" s="11" t="s">
+      <c r="E126" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="F126" s="11"/>
-    </row>
-    <row r="127" spans="1:6" customFormat="1" ht="15.75" hidden="1" customHeight="1">
-      <c r="A127" s="11"/>
-      <c r="B127" s="11"/>
-      <c r="C127" s="11"/>
-      <c r="D127" s="11"/>
-      <c r="E127" s="11"/>
-      <c r="F127" s="11"/>
+      <c r="F126" s="16"/>
+    </row>
+    <row r="127" spans="1:6" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A127" s="16"/>
+      <c r="B127" s="16"/>
+      <c r="C127" s="16"/>
+      <c r="D127" s="16"/>
+      <c r="E127" s="16"/>
+      <c r="F127" s="16"/>
     </row>
     <row r="128" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A128" s="11">
+      <c r="A128" s="16">
         <v>55</v>
       </c>
-      <c r="B128" s="11" t="s">
+      <c r="B128" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="C128" s="11">
-        <v>3</v>
-      </c>
-      <c r="D128" s="11">
+      <c r="C128" s="16">
+        <v>3</v>
+      </c>
+      <c r="D128" s="16">
         <v>2</v>
       </c>
-      <c r="E128" s="11" t="s">
+      <c r="E128" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="F128" s="11"/>
-    </row>
-    <row r="129" spans="1:6" customFormat="1" ht="15.75" hidden="1" customHeight="1">
-      <c r="A129" s="11"/>
-      <c r="B129" s="11"/>
-      <c r="C129" s="11"/>
-      <c r="D129" s="11"/>
-      <c r="E129" s="11"/>
-      <c r="F129" s="11"/>
-    </row>
-    <row r="130" spans="1:6" customFormat="1" ht="19.5" hidden="1" customHeight="1">
-      <c r="A130" s="11">
+      <c r="F128" s="16"/>
+    </row>
+    <row r="129" spans="1:6" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A129" s="16"/>
+      <c r="B129" s="16"/>
+      <c r="C129" s="16"/>
+      <c r="D129" s="16"/>
+      <c r="E129" s="16"/>
+      <c r="F129" s="16"/>
+    </row>
+    <row r="130" spans="1:6" customFormat="1" ht="19.5" customHeight="1">
+      <c r="A130" s="16">
         <v>56</v>
       </c>
-      <c r="B130" s="11" t="s">
+      <c r="B130" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="C130" s="11">
+      <c r="C130" s="16">
         <v>4</v>
       </c>
-      <c r="D130" s="11">
+      <c r="D130" s="16">
         <v>5</v>
       </c>
       <c r="E130" s="7" t="s">
@@ -2899,11 +2956,11 @@
         <v>9</v>
       </c>
     </row>
-    <row r="131" spans="1:6" customFormat="1" ht="19.5" hidden="1" customHeight="1">
-      <c r="A131" s="11"/>
-      <c r="B131" s="11"/>
-      <c r="C131" s="11"/>
-      <c r="D131" s="11"/>
+    <row r="131" spans="1:6" customFormat="1" ht="19.5" customHeight="1">
+      <c r="A131" s="16"/>
+      <c r="B131" s="16"/>
+      <c r="C131" s="16"/>
+      <c r="D131" s="16"/>
       <c r="E131" s="7" t="s">
         <v>12</v>
       </c>
@@ -2911,32 +2968,32 @@
         <v>40</v>
       </c>
     </row>
-    <row r="132" spans="1:6" customFormat="1" ht="19.5" hidden="1" customHeight="1">
-      <c r="A132" s="11"/>
-      <c r="B132" s="11"/>
-      <c r="C132" s="11"/>
-      <c r="D132" s="11"/>
+    <row r="132" spans="1:6" customFormat="1" ht="19.5" customHeight="1">
+      <c r="A132" s="16"/>
+      <c r="B132" s="16"/>
+      <c r="C132" s="16"/>
+      <c r="D132" s="16"/>
       <c r="E132" s="7" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="133" spans="1:6" customFormat="1" ht="15.75" hidden="1" customHeight="1">
-      <c r="A133" s="11"/>
-      <c r="B133" s="11"/>
-      <c r="C133" s="11"/>
-      <c r="D133" s="11"/>
-    </row>
-    <row r="134" spans="1:6" customFormat="1" ht="19.5" hidden="1" customHeight="1">
-      <c r="A134" s="11">
+    <row r="133" spans="1:6" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A133" s="16"/>
+      <c r="B133" s="16"/>
+      <c r="C133" s="16"/>
+      <c r="D133" s="16"/>
+    </row>
+    <row r="134" spans="1:6" customFormat="1" ht="19.5" customHeight="1">
+      <c r="A134" s="16">
         <v>57</v>
       </c>
-      <c r="B134" s="11" t="s">
+      <c r="B134" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="C134" s="11">
+      <c r="C134" s="16">
         <v>4</v>
       </c>
-      <c r="D134" s="11">
+      <c r="D134" s="16">
         <v>5</v>
       </c>
       <c r="E134" s="7" t="s">
@@ -2946,11 +3003,11 @@
         <v>9</v>
       </c>
     </row>
-    <row r="135" spans="1:6" customFormat="1" ht="19.5" hidden="1" customHeight="1">
-      <c r="A135" s="11"/>
-      <c r="B135" s="11"/>
-      <c r="C135" s="11"/>
-      <c r="D135" s="11"/>
+    <row r="135" spans="1:6" customFormat="1" ht="19.5" customHeight="1">
+      <c r="A135" s="16"/>
+      <c r="B135" s="16"/>
+      <c r="C135" s="16"/>
+      <c r="D135" s="16"/>
       <c r="E135" s="7" t="s">
         <v>12</v>
       </c>
@@ -2958,1110 +3015,1110 @@
         <v>40</v>
       </c>
     </row>
-    <row r="136" spans="1:6" customFormat="1" ht="19.5" hidden="1" customHeight="1">
-      <c r="A136" s="11"/>
-      <c r="B136" s="11"/>
-      <c r="C136" s="11"/>
-      <c r="D136" s="11"/>
+    <row r="136" spans="1:6" customFormat="1" ht="19.5" customHeight="1">
+      <c r="A136" s="16"/>
+      <c r="B136" s="16"/>
+      <c r="C136" s="16"/>
+      <c r="D136" s="16"/>
       <c r="E136" s="7" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="137" spans="1:6" customFormat="1" ht="15.75" hidden="1" customHeight="1">
-      <c r="A137" s="11"/>
-      <c r="B137" s="11"/>
-      <c r="C137" s="11"/>
-      <c r="D137" s="11"/>
+    <row r="137" spans="1:6" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A137" s="16"/>
+      <c r="B137" s="16"/>
+      <c r="C137" s="16"/>
+      <c r="D137" s="16"/>
     </row>
     <row r="138" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A138" s="11">
+      <c r="A138" s="16">
         <v>58</v>
       </c>
-      <c r="B138" s="11" t="s">
+      <c r="B138" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="C138" s="11">
+      <c r="C138" s="16">
         <v>1</v>
       </c>
-      <c r="D138" s="11">
+      <c r="D138" s="16">
         <v>1</v>
       </c>
-      <c r="E138" s="11" t="s">
+      <c r="E138" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="F138" s="11"/>
-    </row>
-    <row r="139" spans="1:6" customFormat="1" ht="15.75" hidden="1" customHeight="1">
-      <c r="A139" s="11"/>
-      <c r="B139" s="11"/>
-      <c r="C139" s="11"/>
-      <c r="D139" s="11"/>
-      <c r="E139" s="11"/>
-      <c r="F139" s="11"/>
+      <c r="F138" s="16"/>
+    </row>
+    <row r="139" spans="1:6" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A139" s="16"/>
+      <c r="B139" s="16"/>
+      <c r="C139" s="16"/>
+      <c r="D139" s="16"/>
+      <c r="E139" s="16"/>
+      <c r="F139" s="16"/>
     </row>
     <row r="140" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A140" s="11">
+      <c r="A140" s="16">
         <v>59</v>
       </c>
-      <c r="B140" s="11" t="s">
+      <c r="B140" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="C140" s="11">
-        <v>3</v>
-      </c>
-      <c r="D140" s="11">
+      <c r="C140" s="16">
+        <v>3</v>
+      </c>
+      <c r="D140" s="16">
         <v>2</v>
       </c>
-      <c r="E140" s="11" t="s">
+      <c r="E140" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="F140" s="11"/>
-    </row>
-    <row r="141" spans="1:6" customFormat="1" ht="15.75" hidden="1" customHeight="1">
-      <c r="A141" s="11"/>
-      <c r="B141" s="11"/>
-      <c r="C141" s="11"/>
-      <c r="D141" s="11"/>
-      <c r="E141" s="11"/>
-      <c r="F141" s="11"/>
-    </row>
-    <row r="142" spans="1:6" customFormat="1" ht="19.5" hidden="1" customHeight="1">
-      <c r="A142" s="11">
+      <c r="F140" s="16"/>
+    </row>
+    <row r="141" spans="1:6" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A141" s="16"/>
+      <c r="B141" s="16"/>
+      <c r="C141" s="16"/>
+      <c r="D141" s="16"/>
+      <c r="E141" s="16"/>
+      <c r="F141" s="16"/>
+    </row>
+    <row r="142" spans="1:6" customFormat="1" ht="19.5" customHeight="1">
+      <c r="A142" s="16">
         <v>60</v>
       </c>
-      <c r="B142" s="11" t="s">
+      <c r="B142" s="16" t="s">
         <v>86</v>
       </c>
-      <c r="C142" s="11">
+      <c r="C142" s="16">
         <v>5</v>
       </c>
-      <c r="D142" s="11">
+      <c r="D142" s="16">
         <v>1</v>
       </c>
-      <c r="E142" s="11"/>
+      <c r="E142" s="16"/>
       <c r="F142" s="7" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="143" spans="1:6" customFormat="1" ht="19.5" hidden="1" customHeight="1">
-      <c r="A143" s="11"/>
-      <c r="B143" s="11"/>
-      <c r="C143" s="11"/>
-      <c r="D143" s="11"/>
-      <c r="E143" s="11"/>
+    <row r="143" spans="1:6" customFormat="1" ht="19.5" customHeight="1">
+      <c r="A143" s="16"/>
+      <c r="B143" s="16"/>
+      <c r="C143" s="16"/>
+      <c r="D143" s="16"/>
+      <c r="E143" s="16"/>
       <c r="F143" s="7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="144" spans="1:6" customFormat="1" ht="15.75" hidden="1" customHeight="1">
-      <c r="A144" s="11"/>
-      <c r="B144" s="11"/>
-      <c r="C144" s="11"/>
-      <c r="D144" s="11"/>
-      <c r="E144" s="11"/>
+    <row r="144" spans="1:6" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A144" s="16"/>
+      <c r="B144" s="16"/>
+      <c r="C144" s="16"/>
+      <c r="D144" s="16"/>
+      <c r="E144" s="16"/>
     </row>
     <row r="145" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A145" s="11">
+      <c r="A145" s="16">
         <v>61</v>
       </c>
-      <c r="B145" s="11" t="s">
+      <c r="B145" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="C145" s="11">
-        <v>3</v>
-      </c>
-      <c r="D145" s="11">
+      <c r="C145" s="16">
+        <v>3</v>
+      </c>
+      <c r="D145" s="16">
         <v>2</v>
       </c>
-      <c r="E145" s="11" t="s">
+      <c r="E145" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="F145" s="11" t="s">
+      <c r="F145" s="16" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="146" spans="1:6" customFormat="1" ht="15.75" hidden="1" customHeight="1">
-      <c r="A146" s="11"/>
-      <c r="B146" s="11"/>
-      <c r="C146" s="11"/>
-      <c r="D146" s="11"/>
-      <c r="E146" s="11"/>
-      <c r="F146" s="11"/>
+    <row r="146" spans="1:6" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A146" s="16"/>
+      <c r="B146" s="16"/>
+      <c r="C146" s="16"/>
+      <c r="D146" s="16"/>
+      <c r="E146" s="16"/>
+      <c r="F146" s="16"/>
     </row>
     <row r="147" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A147" s="11">
+      <c r="A147" s="16">
         <v>62</v>
       </c>
-      <c r="B147" s="11" t="s">
+      <c r="B147" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="C147" s="11">
+      <c r="C147" s="16">
         <v>2</v>
       </c>
-      <c r="D147" s="11">
-        <v>3</v>
-      </c>
-      <c r="E147" s="11" t="s">
+      <c r="D147" s="16">
+        <v>3</v>
+      </c>
+      <c r="E147" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="F147" s="11" t="s">
+      <c r="F147" s="16" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="148" spans="1:6" customFormat="1" ht="15.75" hidden="1" customHeight="1">
-      <c r="A148" s="11"/>
-      <c r="B148" s="11"/>
-      <c r="C148" s="11"/>
-      <c r="D148" s="11"/>
-      <c r="E148" s="11"/>
-      <c r="F148" s="11"/>
+    <row r="148" spans="1:6" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A148" s="16"/>
+      <c r="B148" s="16"/>
+      <c r="C148" s="16"/>
+      <c r="D148" s="16"/>
+      <c r="E148" s="16"/>
+      <c r="F148" s="16"/>
     </row>
     <row r="149" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A149" s="11">
+      <c r="A149" s="16">
         <v>63</v>
       </c>
-      <c r="B149" s="11" t="s">
+      <c r="B149" s="16" t="s">
         <v>89</v>
       </c>
-      <c r="C149" s="11">
-        <v>3</v>
-      </c>
-      <c r="D149" s="11">
-        <v>3</v>
-      </c>
-      <c r="E149" s="11" t="s">
+      <c r="C149" s="16">
+        <v>3</v>
+      </c>
+      <c r="D149" s="16">
+        <v>3</v>
+      </c>
+      <c r="E149" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="F149" s="11" t="s">
+      <c r="F149" s="16" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="150" spans="1:6" customFormat="1" ht="15.75" hidden="1" customHeight="1">
-      <c r="A150" s="11"/>
-      <c r="B150" s="11"/>
-      <c r="C150" s="11"/>
-      <c r="D150" s="11"/>
-      <c r="E150" s="11"/>
-      <c r="F150" s="11"/>
+    <row r="150" spans="1:6" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A150" s="16"/>
+      <c r="B150" s="16"/>
+      <c r="C150" s="16"/>
+      <c r="D150" s="16"/>
+      <c r="E150" s="16"/>
+      <c r="F150" s="16"/>
     </row>
     <row r="151" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A151" s="11">
+      <c r="A151" s="16">
         <v>64</v>
       </c>
-      <c r="B151" s="11" t="s">
+      <c r="B151" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="C151" s="11">
-        <v>3</v>
-      </c>
-      <c r="D151" s="11">
-        <v>3</v>
-      </c>
-      <c r="E151" s="11" t="s">
+      <c r="C151" s="16">
+        <v>3</v>
+      </c>
+      <c r="D151" s="16">
+        <v>3</v>
+      </c>
+      <c r="E151" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="F151" s="11" t="s">
+      <c r="F151" s="16" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="152" spans="1:6" customFormat="1" ht="15.75" hidden="1" customHeight="1">
-      <c r="A152" s="11"/>
-      <c r="B152" s="11"/>
-      <c r="C152" s="11"/>
-      <c r="D152" s="11"/>
-      <c r="E152" s="11"/>
-      <c r="F152" s="11"/>
+    <row r="152" spans="1:6" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A152" s="16"/>
+      <c r="B152" s="16"/>
+      <c r="C152" s="16"/>
+      <c r="D152" s="16"/>
+      <c r="E152" s="16"/>
+      <c r="F152" s="16"/>
     </row>
     <row r="153" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A153" s="11">
+      <c r="A153" s="16">
         <v>65</v>
       </c>
-      <c r="B153" s="11" t="s">
+      <c r="B153" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="C153" s="11">
+      <c r="C153" s="16">
         <v>2</v>
       </c>
-      <c r="D153" s="11">
+      <c r="D153" s="16">
         <v>5</v>
       </c>
-      <c r="E153" s="11" t="s">
+      <c r="E153" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="F153" s="11" t="s">
+      <c r="F153" s="16" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="154" spans="1:6" customFormat="1" ht="15.75" hidden="1" customHeight="1">
-      <c r="A154" s="11"/>
-      <c r="B154" s="11"/>
-      <c r="C154" s="11"/>
-      <c r="D154" s="11"/>
-      <c r="E154" s="11"/>
-      <c r="F154" s="11"/>
+    <row r="154" spans="1:6" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A154" s="16"/>
+      <c r="B154" s="16"/>
+      <c r="C154" s="16"/>
+      <c r="D154" s="16"/>
+      <c r="E154" s="16"/>
+      <c r="F154" s="16"/>
     </row>
     <row r="155" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A155" s="11">
+      <c r="A155" s="16">
         <v>66</v>
       </c>
-      <c r="B155" s="11" t="s">
+      <c r="B155" s="16" t="s">
         <v>92</v>
       </c>
-      <c r="C155" s="11">
+      <c r="C155" s="16">
         <v>1</v>
       </c>
-      <c r="D155" s="11">
+      <c r="D155" s="16">
         <v>2</v>
       </c>
-      <c r="E155" s="11" t="s">
+      <c r="E155" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="F155" s="11" t="s">
+      <c r="F155" s="16" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="156" spans="1:6" customFormat="1" ht="15.75" hidden="1" customHeight="1">
-      <c r="A156" s="11"/>
-      <c r="B156" s="11"/>
-      <c r="C156" s="11"/>
-      <c r="D156" s="11"/>
-      <c r="E156" s="11"/>
-      <c r="F156" s="11"/>
-    </row>
-    <row r="157" spans="1:6" ht="18">
-      <c r="A157" s="11">
+    <row r="156" spans="1:6" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A156" s="16"/>
+      <c r="B156" s="16"/>
+      <c r="C156" s="16"/>
+      <c r="D156" s="16"/>
+      <c r="E156" s="16"/>
+      <c r="F156" s="16"/>
+    </row>
+    <row r="157" spans="1:6" ht="19.2">
+      <c r="A157" s="16">
         <v>67</v>
       </c>
-      <c r="B157" s="11" t="s">
+      <c r="B157" s="16" t="s">
         <v>93</v>
       </c>
-      <c r="C157" s="11">
+      <c r="C157" s="16">
         <v>2</v>
       </c>
-      <c r="D157" s="11">
+      <c r="D157" s="16">
         <v>4</v>
       </c>
-      <c r="E157" s="11" t="s">
+      <c r="E157" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="F157" s="15" t="s">
+      <c r="F157" s="13" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="158" spans="1:6" customFormat="1" ht="19.5" hidden="1" customHeight="1">
-      <c r="A158" s="11"/>
-      <c r="B158" s="11"/>
-      <c r="C158" s="11"/>
-      <c r="D158" s="11"/>
-      <c r="E158" s="11"/>
+    <row r="158" spans="1:6" customFormat="1" ht="19.5" customHeight="1">
+      <c r="A158" s="16"/>
+      <c r="B158" s="16"/>
+      <c r="C158" s="16"/>
+      <c r="D158" s="16"/>
+      <c r="E158" s="16"/>
       <c r="F158" s="7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="159" spans="1:6" customFormat="1" ht="15.75" hidden="1" customHeight="1">
-      <c r="A159" s="11"/>
-      <c r="B159" s="11"/>
-      <c r="C159" s="11"/>
-      <c r="D159" s="11"/>
-      <c r="E159" s="11"/>
-    </row>
-    <row r="160" spans="1:6" customFormat="1" ht="15.75" hidden="1" customHeight="1">
-      <c r="A160" s="11">
+    <row r="159" spans="1:6" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A159" s="16"/>
+      <c r="B159" s="16"/>
+      <c r="C159" s="16"/>
+      <c r="D159" s="16"/>
+      <c r="E159" s="16"/>
+    </row>
+    <row r="160" spans="1:6" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A160" s="16">
         <v>68</v>
       </c>
-      <c r="B160" s="11" t="s">
+      <c r="B160" s="16" t="s">
         <v>94</v>
       </c>
-      <c r="C160" s="11">
+      <c r="C160" s="16">
         <v>4</v>
       </c>
-      <c r="D160" s="11">
+      <c r="D160" s="16">
         <v>2</v>
       </c>
-      <c r="E160" s="11" t="s">
+      <c r="E160" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="F160" s="11"/>
-    </row>
-    <row r="161" spans="1:6" customFormat="1" ht="15.75" hidden="1" customHeight="1">
-      <c r="A161" s="11"/>
-      <c r="B161" s="11"/>
-      <c r="C161" s="11"/>
-      <c r="D161" s="11"/>
-      <c r="E161" s="11"/>
-      <c r="F161" s="11"/>
-    </row>
-    <row r="162" spans="1:6" customFormat="1" ht="15.75" hidden="1" customHeight="1">
-      <c r="A162" s="11">
+      <c r="F160" s="16"/>
+    </row>
+    <row r="161" spans="1:6" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A161" s="16"/>
+      <c r="B161" s="16"/>
+      <c r="C161" s="16"/>
+      <c r="D161" s="16"/>
+      <c r="E161" s="16"/>
+      <c r="F161" s="16"/>
+    </row>
+    <row r="162" spans="1:6" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A162" s="16">
         <v>69</v>
       </c>
-      <c r="B162" s="11" t="s">
+      <c r="B162" s="16" t="s">
         <v>95</v>
       </c>
-      <c r="C162" s="11">
+      <c r="C162" s="16">
         <v>4</v>
       </c>
-      <c r="D162" s="11">
+      <c r="D162" s="16">
         <v>4</v>
       </c>
-      <c r="E162" s="11"/>
-      <c r="F162" s="11" t="s">
+      <c r="E162" s="16"/>
+      <c r="F162" s="16" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="163" spans="1:6" customFormat="1" ht="15.75" hidden="1" customHeight="1">
-      <c r="A163" s="11"/>
-      <c r="B163" s="11"/>
-      <c r="C163" s="11"/>
-      <c r="D163" s="11"/>
-      <c r="E163" s="11"/>
-      <c r="F163" s="11"/>
+    <row r="163" spans="1:6" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A163" s="16"/>
+      <c r="B163" s="16"/>
+      <c r="C163" s="16"/>
+      <c r="D163" s="16"/>
+      <c r="E163" s="16"/>
+      <c r="F163" s="16"/>
     </row>
     <row r="164" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A164" s="11">
+      <c r="A164" s="16">
         <v>70</v>
       </c>
-      <c r="B164" s="11" t="s">
+      <c r="B164" s="16" t="s">
         <v>96</v>
       </c>
-      <c r="C164" s="11">
+      <c r="C164" s="16">
         <v>2</v>
       </c>
-      <c r="D164" s="11">
+      <c r="D164" s="16">
         <v>5</v>
       </c>
-      <c r="E164" s="11"/>
-      <c r="F164" s="11" t="s">
+      <c r="E164" s="16"/>
+      <c r="F164" s="16" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="165" spans="1:6" customFormat="1" ht="15.75" hidden="1" customHeight="1">
-      <c r="A165" s="11"/>
-      <c r="B165" s="11"/>
-      <c r="C165" s="11"/>
-      <c r="D165" s="11"/>
-      <c r="E165" s="11"/>
-      <c r="F165" s="11"/>
+    <row r="165" spans="1:6" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A165" s="16"/>
+      <c r="B165" s="16"/>
+      <c r="C165" s="16"/>
+      <c r="D165" s="16"/>
+      <c r="E165" s="16"/>
+      <c r="F165" s="16"/>
     </row>
     <row r="166" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A166" s="11">
+      <c r="A166" s="16">
         <v>71</v>
       </c>
-      <c r="B166" s="11" t="s">
+      <c r="B166" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="C166" s="11">
-        <v>3</v>
-      </c>
-      <c r="D166" s="11">
+      <c r="C166" s="16">
+        <v>3</v>
+      </c>
+      <c r="D166" s="16">
         <v>1</v>
       </c>
-      <c r="E166" s="11" t="s">
+      <c r="E166" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="F166" s="11" t="s">
+      <c r="F166" s="16" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="167" spans="1:6" customFormat="1" ht="15.75" hidden="1" customHeight="1">
-      <c r="A167" s="11"/>
-      <c r="B167" s="11"/>
-      <c r="C167" s="11"/>
-      <c r="D167" s="11"/>
-      <c r="E167" s="11"/>
-      <c r="F167" s="11"/>
-    </row>
-    <row r="168" spans="1:6" customFormat="1" ht="15.75" hidden="1" customHeight="1">
-      <c r="A168" s="11">
+    <row r="167" spans="1:6" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A167" s="16"/>
+      <c r="B167" s="16"/>
+      <c r="C167" s="16"/>
+      <c r="D167" s="16"/>
+      <c r="E167" s="16"/>
+      <c r="F167" s="16"/>
+    </row>
+    <row r="168" spans="1:6" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A168" s="16">
         <v>72</v>
       </c>
-      <c r="B168" s="11" t="s">
+      <c r="B168" s="16" t="s">
         <v>98</v>
       </c>
-      <c r="C168" s="11">
+      <c r="C168" s="16">
         <v>4</v>
       </c>
-      <c r="D168" s="11">
-        <v>3</v>
-      </c>
-      <c r="E168" s="11" t="s">
+      <c r="D168" s="16">
+        <v>3</v>
+      </c>
+      <c r="E168" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="F168" s="11" t="s">
+      <c r="F168" s="16" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="169" spans="1:6" customFormat="1" ht="15.75" hidden="1" customHeight="1">
-      <c r="A169" s="11"/>
-      <c r="B169" s="11"/>
-      <c r="C169" s="11"/>
-      <c r="D169" s="11"/>
-      <c r="E169" s="11"/>
-      <c r="F169" s="11"/>
+    <row r="169" spans="1:6" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A169" s="16"/>
+      <c r="B169" s="16"/>
+      <c r="C169" s="16"/>
+      <c r="D169" s="16"/>
+      <c r="E169" s="16"/>
+      <c r="F169" s="16"/>
     </row>
     <row r="170" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A170" s="11">
+      <c r="A170" s="16">
         <v>73</v>
       </c>
-      <c r="B170" s="11" t="s">
+      <c r="B170" s="16" t="s">
         <v>99</v>
       </c>
-      <c r="C170" s="11">
-        <v>3</v>
-      </c>
-      <c r="D170" s="11">
+      <c r="C170" s="16">
+        <v>3</v>
+      </c>
+      <c r="D170" s="16">
         <v>5</v>
       </c>
-      <c r="E170" s="11" t="s">
+      <c r="E170" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="F170" s="11"/>
-    </row>
-    <row r="171" spans="1:6" customFormat="1" ht="15.75" hidden="1" customHeight="1">
-      <c r="A171" s="11"/>
-      <c r="B171" s="11"/>
-      <c r="C171" s="11"/>
-      <c r="D171" s="11"/>
-      <c r="E171" s="11"/>
-      <c r="F171" s="11"/>
+      <c r="F170" s="16"/>
+    </row>
+    <row r="171" spans="1:6" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A171" s="16"/>
+      <c r="B171" s="16"/>
+      <c r="C171" s="16"/>
+      <c r="D171" s="16"/>
+      <c r="E171" s="16"/>
+      <c r="F171" s="16"/>
     </row>
     <row r="172" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A172" s="11">
+      <c r="A172" s="16">
         <v>74</v>
       </c>
-      <c r="B172" s="11" t="s">
+      <c r="B172" s="16" t="s">
         <v>100</v>
       </c>
-      <c r="C172" s="11">
-        <v>3</v>
-      </c>
-      <c r="D172" s="11">
-        <v>3</v>
-      </c>
-      <c r="E172" s="11" t="s">
+      <c r="C172" s="16">
+        <v>3</v>
+      </c>
+      <c r="D172" s="16">
+        <v>3</v>
+      </c>
+      <c r="E172" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="F172" s="11" t="s">
+      <c r="F172" s="16" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="173" spans="1:6" customFormat="1" ht="15.75" hidden="1" customHeight="1">
-      <c r="A173" s="11"/>
-      <c r="B173" s="11"/>
-      <c r="C173" s="11"/>
-      <c r="D173" s="11"/>
-      <c r="E173" s="11"/>
-      <c r="F173" s="11"/>
-    </row>
-    <row r="174" spans="1:6" customFormat="1" ht="19.5" hidden="1" customHeight="1">
-      <c r="A174" s="11">
+    <row r="173" spans="1:6" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A173" s="16"/>
+      <c r="B173" s="16"/>
+      <c r="C173" s="16"/>
+      <c r="D173" s="16"/>
+      <c r="E173" s="16"/>
+      <c r="F173" s="16"/>
+    </row>
+    <row r="174" spans="1:6" customFormat="1" ht="19.5" customHeight="1">
+      <c r="A174" s="16">
         <v>75</v>
       </c>
-      <c r="B174" s="11" t="s">
+      <c r="B174" s="16" t="s">
         <v>101</v>
       </c>
-      <c r="C174" s="11">
+      <c r="C174" s="16">
         <v>4</v>
       </c>
-      <c r="D174" s="11">
+      <c r="D174" s="16">
         <v>2</v>
       </c>
-      <c r="E174" s="11" t="s">
+      <c r="E174" s="16" t="s">
         <v>7</v>
       </c>
       <c r="F174" s="7" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="175" spans="1:6" customFormat="1" ht="19.5" hidden="1" customHeight="1">
-      <c r="A175" s="11"/>
-      <c r="B175" s="11"/>
-      <c r="C175" s="11"/>
-      <c r="D175" s="11"/>
-      <c r="E175" s="11"/>
+    <row r="175" spans="1:6" customFormat="1" ht="19.5" customHeight="1">
+      <c r="A175" s="16"/>
+      <c r="B175" s="16"/>
+      <c r="C175" s="16"/>
+      <c r="D175" s="16"/>
+      <c r="E175" s="16"/>
       <c r="F175" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="176" spans="1:6" customFormat="1" ht="15.75" hidden="1" customHeight="1">
-      <c r="A176" s="11"/>
-      <c r="B176" s="11"/>
-      <c r="C176" s="11"/>
-      <c r="D176" s="11"/>
-      <c r="E176" s="11"/>
-    </row>
-    <row r="177" spans="1:6" customFormat="1" ht="15.75" hidden="1" customHeight="1">
-      <c r="A177" s="11">
+    <row r="176" spans="1:6" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A176" s="16"/>
+      <c r="B176" s="16"/>
+      <c r="C176" s="16"/>
+      <c r="D176" s="16"/>
+      <c r="E176" s="16"/>
+    </row>
+    <row r="177" spans="1:6" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A177" s="16">
         <v>76</v>
       </c>
-      <c r="B177" s="11" t="s">
+      <c r="B177" s="16" t="s">
         <v>102</v>
       </c>
-      <c r="C177" s="11">
+      <c r="C177" s="16">
         <v>4</v>
       </c>
-      <c r="D177" s="11">
+      <c r="D177" s="16">
         <v>2</v>
       </c>
-      <c r="E177" s="11" t="s">
+      <c r="E177" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="F177" s="11" t="s">
+      <c r="F177" s="16" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="178" spans="1:6" customFormat="1" ht="15.75" hidden="1" customHeight="1">
-      <c r="A178" s="11"/>
-      <c r="B178" s="11"/>
-      <c r="C178" s="11"/>
-      <c r="D178" s="11"/>
-      <c r="E178" s="11"/>
-      <c r="F178" s="11"/>
+    <row r="178" spans="1:6" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A178" s="16"/>
+      <c r="B178" s="16"/>
+      <c r="C178" s="16"/>
+      <c r="D178" s="16"/>
+      <c r="E178" s="16"/>
+      <c r="F178" s="16"/>
     </row>
     <row r="179" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A179" s="11">
+      <c r="A179" s="16">
         <v>77</v>
       </c>
-      <c r="B179" s="11" t="s">
+      <c r="B179" s="16" t="s">
         <v>103</v>
       </c>
-      <c r="C179" s="11">
-        <v>3</v>
-      </c>
-      <c r="D179" s="11">
+      <c r="C179" s="16">
+        <v>3</v>
+      </c>
+      <c r="D179" s="16">
         <v>4</v>
       </c>
-      <c r="E179" s="11"/>
-      <c r="F179" s="11" t="s">
+      <c r="E179" s="16"/>
+      <c r="F179" s="16" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="180" spans="1:6" customFormat="1" ht="15.75" hidden="1" customHeight="1">
-      <c r="A180" s="11"/>
-      <c r="B180" s="11"/>
-      <c r="C180" s="11"/>
-      <c r="D180" s="11"/>
-      <c r="E180" s="11"/>
-      <c r="F180" s="11"/>
+    <row r="180" spans="1:6" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A180" s="16"/>
+      <c r="B180" s="16"/>
+      <c r="C180" s="16"/>
+      <c r="D180" s="16"/>
+      <c r="E180" s="16"/>
+      <c r="F180" s="16"/>
     </row>
     <row r="181" spans="1:6" ht="19.5" customHeight="1">
-      <c r="A181" s="18">
+      <c r="A181" s="17">
         <v>78</v>
       </c>
-      <c r="B181" s="18" t="s">
+      <c r="B181" s="17" t="s">
         <v>104</v>
       </c>
-      <c r="C181" s="18">
-        <v>3</v>
-      </c>
-      <c r="D181" s="18">
+      <c r="C181" s="17">
+        <v>3</v>
+      </c>
+      <c r="D181" s="17">
         <v>4</v>
       </c>
-      <c r="E181" s="18" t="s">
+      <c r="E181" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="F181" s="15" t="s">
+      <c r="F181" s="13" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="182" spans="1:6" customFormat="1" ht="19.5" hidden="1" customHeight="1">
-      <c r="A182" s="11"/>
-      <c r="B182" s="11"/>
-      <c r="C182" s="11"/>
-      <c r="D182" s="11"/>
-      <c r="E182" s="11"/>
+    <row r="182" spans="1:6" customFormat="1" ht="19.5" customHeight="1">
+      <c r="A182" s="16"/>
+      <c r="B182" s="16"/>
+      <c r="C182" s="16"/>
+      <c r="D182" s="16"/>
+      <c r="E182" s="16"/>
       <c r="F182" s="7" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="183" spans="1:6" customFormat="1" ht="15.75" hidden="1" customHeight="1">
-      <c r="A183" s="11"/>
-      <c r="B183" s="11"/>
-      <c r="C183" s="11"/>
-      <c r="D183" s="11"/>
-      <c r="E183" s="11"/>
+    <row r="183" spans="1:6" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A183" s="16"/>
+      <c r="B183" s="16"/>
+      <c r="C183" s="16"/>
+      <c r="D183" s="16"/>
+      <c r="E183" s="16"/>
     </row>
     <row r="184" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A184" s="11">
+      <c r="A184" s="16">
         <v>79</v>
       </c>
-      <c r="B184" s="11" t="s">
+      <c r="B184" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="C184" s="11">
-        <v>3</v>
-      </c>
-      <c r="D184" s="11">
+      <c r="C184" s="16">
+        <v>3</v>
+      </c>
+      <c r="D184" s="16">
         <v>4</v>
       </c>
-      <c r="E184" s="11" t="s">
+      <c r="E184" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="F184" s="11" t="s">
+      <c r="F184" s="16" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="185" spans="1:6" customFormat="1" ht="15.75" hidden="1" customHeight="1">
-      <c r="A185" s="11"/>
-      <c r="B185" s="11"/>
-      <c r="C185" s="11"/>
-      <c r="D185" s="11"/>
-      <c r="E185" s="11"/>
-      <c r="F185" s="11"/>
+    <row r="185" spans="1:6" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A185" s="16"/>
+      <c r="B185" s="16"/>
+      <c r="C185" s="16"/>
+      <c r="D185" s="16"/>
+      <c r="E185" s="16"/>
+      <c r="F185" s="16"/>
     </row>
     <row r="186" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A186" s="11">
+      <c r="A186" s="16">
         <v>80</v>
       </c>
-      <c r="B186" s="11" t="s">
+      <c r="B186" s="16" t="s">
         <v>106</v>
       </c>
-      <c r="C186" s="11">
+      <c r="C186" s="16">
         <v>2</v>
       </c>
-      <c r="D186" s="11">
+      <c r="D186" s="16">
         <v>2</v>
       </c>
-      <c r="E186" s="11" t="s">
+      <c r="E186" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="F186" s="11" t="s">
+      <c r="F186" s="16" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="187" spans="1:6" customFormat="1" ht="15.75" hidden="1" customHeight="1">
-      <c r="A187" s="11"/>
-      <c r="B187" s="11"/>
-      <c r="C187" s="11"/>
-      <c r="D187" s="11"/>
-      <c r="E187" s="11"/>
-      <c r="F187" s="11"/>
-    </row>
-    <row r="188" spans="1:6" customFormat="1" ht="15.75" hidden="1" customHeight="1">
-      <c r="A188" s="11">
+    <row r="187" spans="1:6" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A187" s="16"/>
+      <c r="B187" s="16"/>
+      <c r="C187" s="16"/>
+      <c r="D187" s="16"/>
+      <c r="E187" s="16"/>
+      <c r="F187" s="16"/>
+    </row>
+    <row r="188" spans="1:6" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A188" s="16">
         <v>81</v>
       </c>
-      <c r="B188" s="11" t="s">
+      <c r="B188" s="16" t="s">
         <v>107</v>
       </c>
-      <c r="C188" s="11">
+      <c r="C188" s="16">
         <v>5</v>
       </c>
-      <c r="D188" s="11">
-        <v>3</v>
-      </c>
-      <c r="E188" s="11" t="s">
+      <c r="D188" s="16">
+        <v>3</v>
+      </c>
+      <c r="E188" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="F188" s="11" t="s">
+      <c r="F188" s="16" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="189" spans="1:6" customFormat="1" ht="15.75" hidden="1" customHeight="1">
-      <c r="A189" s="11"/>
-      <c r="B189" s="11"/>
-      <c r="C189" s="11"/>
-      <c r="D189" s="11"/>
-      <c r="E189" s="11"/>
-      <c r="F189" s="11"/>
+    <row r="189" spans="1:6" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A189" s="16"/>
+      <c r="B189" s="16"/>
+      <c r="C189" s="16"/>
+      <c r="D189" s="16"/>
+      <c r="E189" s="16"/>
+      <c r="F189" s="16"/>
     </row>
     <row r="190" spans="1:6" ht="19.5" customHeight="1">
-      <c r="A190" s="11">
+      <c r="A190" s="16">
         <v>82</v>
       </c>
-      <c r="B190" s="11" t="s">
+      <c r="B190" s="16" t="s">
         <v>108</v>
       </c>
-      <c r="C190" s="11">
-        <v>3</v>
-      </c>
-      <c r="D190" s="11">
-        <v>3</v>
-      </c>
-      <c r="E190" s="11" t="s">
+      <c r="C190" s="16">
+        <v>3</v>
+      </c>
+      <c r="D190" s="16">
+        <v>3</v>
+      </c>
+      <c r="E190" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="F190" s="15" t="s">
+      <c r="F190" s="13" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="191" spans="1:6" customFormat="1" ht="19.5" hidden="1" customHeight="1">
-      <c r="A191" s="11"/>
-      <c r="B191" s="11"/>
-      <c r="C191" s="11"/>
-      <c r="D191" s="11"/>
-      <c r="E191" s="11"/>
+    <row r="191" spans="1:6" customFormat="1" ht="19.5" customHeight="1">
+      <c r="A191" s="16"/>
+      <c r="B191" s="16"/>
+      <c r="C191" s="16"/>
+      <c r="D191" s="16"/>
+      <c r="E191" s="16"/>
       <c r="F191" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="192" spans="1:6" customFormat="1" ht="15.75" hidden="1" customHeight="1">
-      <c r="A192" s="11"/>
-      <c r="B192" s="11"/>
-      <c r="C192" s="11"/>
-      <c r="D192" s="11"/>
-      <c r="E192" s="11"/>
+    <row r="192" spans="1:6" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A192" s="16"/>
+      <c r="B192" s="16"/>
+      <c r="C192" s="16"/>
+      <c r="D192" s="16"/>
+      <c r="E192" s="16"/>
     </row>
     <row r="193" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A193" s="11">
+      <c r="A193" s="16">
         <v>83</v>
       </c>
-      <c r="B193" s="11" t="s">
+      <c r="B193" s="16" t="s">
         <v>109</v>
       </c>
-      <c r="C193" s="11">
+      <c r="C193" s="16">
         <v>1</v>
       </c>
-      <c r="D193" s="11">
-        <v>3</v>
-      </c>
-      <c r="E193" s="11" t="s">
+      <c r="D193" s="16">
+        <v>3</v>
+      </c>
+      <c r="E193" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="F193" s="11"/>
-    </row>
-    <row r="194" spans="1:6" customFormat="1" ht="15.75" hidden="1" customHeight="1">
-      <c r="A194" s="11"/>
-      <c r="B194" s="11"/>
-      <c r="C194" s="11"/>
-      <c r="D194" s="11"/>
-      <c r="E194" s="11"/>
-      <c r="F194" s="11"/>
-    </row>
-    <row r="195" spans="1:6" customFormat="1" ht="15.75" hidden="1" customHeight="1">
-      <c r="A195" s="11">
+      <c r="F193" s="16"/>
+    </row>
+    <row r="194" spans="1:6" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A194" s="16"/>
+      <c r="B194" s="16"/>
+      <c r="C194" s="16"/>
+      <c r="D194" s="16"/>
+      <c r="E194" s="16"/>
+      <c r="F194" s="16"/>
+    </row>
+    <row r="195" spans="1:6" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A195" s="16">
         <v>84</v>
       </c>
-      <c r="B195" s="11" t="s">
+      <c r="B195" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="C195" s="11">
+      <c r="C195" s="16">
         <v>5</v>
       </c>
-      <c r="D195" s="11">
+      <c r="D195" s="16">
         <v>2</v>
       </c>
-      <c r="E195" s="11" t="s">
+      <c r="E195" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="F195" s="11" t="s">
+      <c r="F195" s="16" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="196" spans="1:6" customFormat="1" ht="15.75" hidden="1" customHeight="1">
-      <c r="A196" s="11"/>
-      <c r="B196" s="11"/>
-      <c r="C196" s="11"/>
-      <c r="D196" s="11"/>
-      <c r="E196" s="11"/>
-      <c r="F196" s="11"/>
-    </row>
-    <row r="197" spans="1:6" customFormat="1" ht="19.5" hidden="1" customHeight="1">
-      <c r="A197" s="11">
+    <row r="196" spans="1:6" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A196" s="16"/>
+      <c r="B196" s="16"/>
+      <c r="C196" s="16"/>
+      <c r="D196" s="16"/>
+      <c r="E196" s="16"/>
+      <c r="F196" s="16"/>
+    </row>
+    <row r="197" spans="1:6" customFormat="1" ht="19.5" customHeight="1">
+      <c r="A197" s="16">
         <v>85</v>
       </c>
-      <c r="B197" s="11" t="s">
+      <c r="B197" s="16" t="s">
         <v>111</v>
       </c>
-      <c r="C197" s="11">
+      <c r="C197" s="16">
         <v>5</v>
       </c>
-      <c r="D197" s="11">
+      <c r="D197" s="16">
         <v>1</v>
       </c>
-      <c r="E197" s="11" t="s">
+      <c r="E197" s="16" t="s">
         <v>7</v>
       </c>
       <c r="F197" s="7" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="198" spans="1:6" customFormat="1" ht="19.5" hidden="1" customHeight="1">
-      <c r="A198" s="11"/>
-      <c r="B198" s="11"/>
-      <c r="C198" s="11"/>
-      <c r="D198" s="11"/>
-      <c r="E198" s="11"/>
+    <row r="198" spans="1:6" customFormat="1" ht="19.5" customHeight="1">
+      <c r="A198" s="16"/>
+      <c r="B198" s="16"/>
+      <c r="C198" s="16"/>
+      <c r="D198" s="16"/>
+      <c r="E198" s="16"/>
       <c r="F198" s="7" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="199" spans="1:6" customFormat="1" ht="15.75" hidden="1" customHeight="1">
-      <c r="A199" s="11"/>
-      <c r="B199" s="11"/>
-      <c r="C199" s="11"/>
-      <c r="D199" s="11"/>
-      <c r="E199" s="11"/>
+    <row r="199" spans="1:6" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A199" s="16"/>
+      <c r="B199" s="16"/>
+      <c r="C199" s="16"/>
+      <c r="D199" s="16"/>
+      <c r="E199" s="16"/>
     </row>
     <row r="200" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A200" s="11">
+      <c r="A200" s="16">
         <v>86</v>
       </c>
-      <c r="B200" s="11" t="s">
+      <c r="B200" s="16" t="s">
         <v>112</v>
       </c>
-      <c r="C200" s="11">
-        <v>3</v>
-      </c>
-      <c r="D200" s="11">
-        <v>3</v>
-      </c>
-      <c r="E200" s="11" t="s">
+      <c r="C200" s="16">
+        <v>3</v>
+      </c>
+      <c r="D200" s="16">
+        <v>3</v>
+      </c>
+      <c r="E200" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="F200" s="11" t="s">
+      <c r="F200" s="16" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="201" spans="1:6" customFormat="1" ht="15.75" hidden="1" customHeight="1">
-      <c r="A201" s="11"/>
-      <c r="B201" s="11"/>
-      <c r="C201" s="11"/>
-      <c r="D201" s="11"/>
-      <c r="E201" s="11"/>
-      <c r="F201" s="11"/>
-    </row>
-    <row r="202" spans="1:6" customFormat="1" ht="19.5" hidden="1" customHeight="1">
-      <c r="A202" s="11">
+    <row r="201" spans="1:6" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A201" s="16"/>
+      <c r="B201" s="16"/>
+      <c r="C201" s="16"/>
+      <c r="D201" s="16"/>
+      <c r="E201" s="16"/>
+      <c r="F201" s="16"/>
+    </row>
+    <row r="202" spans="1:6" customFormat="1" ht="19.5" customHeight="1">
+      <c r="A202" s="16">
         <v>87</v>
       </c>
-      <c r="B202" s="11" t="s">
+      <c r="B202" s="16" t="s">
         <v>113</v>
       </c>
-      <c r="C202" s="11">
+      <c r="C202" s="16">
         <v>5</v>
       </c>
-      <c r="D202" s="11">
+      <c r="D202" s="16">
         <v>2</v>
       </c>
-      <c r="E202" s="11" t="s">
+      <c r="E202" s="16" t="s">
         <v>15</v>
       </c>
       <c r="F202" s="7" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="203" spans="1:6" customFormat="1" ht="19.5" hidden="1" customHeight="1">
-      <c r="A203" s="11"/>
-      <c r="B203" s="11"/>
-      <c r="C203" s="11"/>
-      <c r="D203" s="11"/>
-      <c r="E203" s="11"/>
+    <row r="203" spans="1:6" customFormat="1" ht="19.5" customHeight="1">
+      <c r="A203" s="16"/>
+      <c r="B203" s="16"/>
+      <c r="C203" s="16"/>
+      <c r="D203" s="16"/>
+      <c r="E203" s="16"/>
       <c r="F203" s="7" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="204" spans="1:6" customFormat="1" ht="15.75" hidden="1" customHeight="1">
-      <c r="A204" s="11"/>
-      <c r="B204" s="11"/>
-      <c r="C204" s="11"/>
-      <c r="D204" s="11"/>
-      <c r="E204" s="11"/>
-    </row>
-    <row r="205" spans="1:6" ht="18">
-      <c r="A205" s="11">
+    <row r="204" spans="1:6" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A204" s="16"/>
+      <c r="B204" s="16"/>
+      <c r="C204" s="16"/>
+      <c r="D204" s="16"/>
+      <c r="E204" s="16"/>
+    </row>
+    <row r="205" spans="1:6" ht="19.2">
+      <c r="A205" s="16">
         <v>88</v>
       </c>
-      <c r="B205" s="11" t="s">
+      <c r="B205" s="16" t="s">
         <v>114</v>
       </c>
-      <c r="C205" s="11">
+      <c r="C205" s="16">
         <v>2</v>
       </c>
-      <c r="D205" s="11">
+      <c r="D205" s="16">
         <v>5</v>
       </c>
-      <c r="E205" s="11" t="s">
+      <c r="E205" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="F205" s="15" t="s">
+      <c r="F205" s="13" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="206" spans="1:6" customFormat="1" ht="19.5" hidden="1" customHeight="1">
-      <c r="A206" s="11"/>
-      <c r="B206" s="11"/>
-      <c r="C206" s="11"/>
-      <c r="D206" s="11"/>
-      <c r="E206" s="11"/>
+    <row r="206" spans="1:6" customFormat="1" ht="19.5" customHeight="1">
+      <c r="A206" s="16"/>
+      <c r="B206" s="16"/>
+      <c r="C206" s="16"/>
+      <c r="D206" s="16"/>
+      <c r="E206" s="16"/>
       <c r="F206" s="7" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="207" spans="1:6" customFormat="1" ht="15.75" hidden="1" customHeight="1">
-      <c r="A207" s="11"/>
-      <c r="B207" s="11"/>
-      <c r="C207" s="11"/>
-      <c r="D207" s="11"/>
-      <c r="E207" s="11"/>
-    </row>
-    <row r="208" spans="1:6" customFormat="1" ht="15.75" hidden="1" customHeight="1">
-      <c r="A208" s="11">
+    <row r="207" spans="1:6" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A207" s="16"/>
+      <c r="B207" s="16"/>
+      <c r="C207" s="16"/>
+      <c r="D207" s="16"/>
+      <c r="E207" s="16"/>
+    </row>
+    <row r="208" spans="1:6" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A208" s="16">
         <v>89</v>
       </c>
-      <c r="B208" s="11" t="s">
+      <c r="B208" s="16" t="s">
         <v>115</v>
       </c>
-      <c r="C208" s="11">
+      <c r="C208" s="16">
         <v>4</v>
       </c>
-      <c r="D208" s="11">
+      <c r="D208" s="16">
         <v>2</v>
       </c>
-      <c r="E208" s="11"/>
-      <c r="F208" s="11" t="s">
+      <c r="E208" s="16"/>
+      <c r="F208" s="16" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="209" spans="1:6" customFormat="1" ht="15.75" hidden="1" customHeight="1">
-      <c r="A209" s="11"/>
-      <c r="B209" s="11"/>
-      <c r="C209" s="11"/>
-      <c r="D209" s="11"/>
-      <c r="E209" s="11"/>
-      <c r="F209" s="11"/>
-    </row>
-    <row r="210" spans="1:6" customFormat="1" ht="19.5" hidden="1" customHeight="1">
-      <c r="A210" s="11">
+    <row r="209" spans="1:6" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A209" s="16"/>
+      <c r="B209" s="16"/>
+      <c r="C209" s="16"/>
+      <c r="D209" s="16"/>
+      <c r="E209" s="16"/>
+      <c r="F209" s="16"/>
+    </row>
+    <row r="210" spans="1:6" customFormat="1" ht="19.5" customHeight="1">
+      <c r="A210" s="16">
         <v>90</v>
       </c>
-      <c r="B210" s="11" t="s">
+      <c r="B210" s="16" t="s">
         <v>116</v>
       </c>
-      <c r="C210" s="11">
+      <c r="C210" s="16">
         <v>4</v>
       </c>
-      <c r="D210" s="11">
+      <c r="D210" s="16">
         <v>2</v>
       </c>
-      <c r="E210" s="11" t="s">
+      <c r="E210" s="16" t="s">
         <v>7</v>
       </c>
       <c r="F210" s="7" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="211" spans="1:6" customFormat="1" ht="19.5" hidden="1" customHeight="1">
-      <c r="A211" s="11"/>
-      <c r="B211" s="11"/>
-      <c r="C211" s="11"/>
-      <c r="D211" s="11"/>
-      <c r="E211" s="11"/>
+    <row r="211" spans="1:6" customFormat="1" ht="19.5" customHeight="1">
+      <c r="A211" s="16"/>
+      <c r="B211" s="16"/>
+      <c r="C211" s="16"/>
+      <c r="D211" s="16"/>
+      <c r="E211" s="16"/>
       <c r="F211" s="7" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="212" spans="1:6" customFormat="1" ht="15.75" hidden="1" customHeight="1">
-      <c r="A212" s="11"/>
-      <c r="B212" s="11"/>
-      <c r="C212" s="11"/>
-      <c r="D212" s="11"/>
-      <c r="E212" s="11"/>
+    <row r="212" spans="1:6" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A212" s="16"/>
+      <c r="B212" s="16"/>
+      <c r="C212" s="16"/>
+      <c r="D212" s="16"/>
+      <c r="E212" s="16"/>
     </row>
     <row r="213" spans="1:6" ht="19.5" customHeight="1">
-      <c r="A213" s="11">
+      <c r="A213" s="16">
         <v>91</v>
       </c>
-      <c r="B213" s="11" t="s">
+      <c r="B213" s="16" t="s">
         <v>117</v>
       </c>
-      <c r="C213" s="11">
-        <v>3</v>
-      </c>
-      <c r="D213" s="11">
+      <c r="C213" s="16">
+        <v>3</v>
+      </c>
+      <c r="D213" s="16">
         <v>4</v>
       </c>
-      <c r="E213" s="11" t="s">
+      <c r="E213" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="F213" s="15" t="s">
+      <c r="F213" s="13" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="214" spans="1:6" customFormat="1" ht="19.5" hidden="1" customHeight="1">
-      <c r="A214" s="11"/>
-      <c r="B214" s="11"/>
-      <c r="C214" s="11"/>
-      <c r="D214" s="11"/>
-      <c r="E214" s="11"/>
+    <row r="214" spans="1:6" customFormat="1" ht="19.5" customHeight="1">
+      <c r="A214" s="16"/>
+      <c r="B214" s="16"/>
+      <c r="C214" s="16"/>
+      <c r="D214" s="16"/>
+      <c r="E214" s="16"/>
       <c r="F214" s="7" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="215" spans="1:6" customFormat="1" ht="15.75" hidden="1" customHeight="1">
-      <c r="A215" s="11"/>
-      <c r="B215" s="11"/>
-      <c r="C215" s="11"/>
-      <c r="D215" s="11"/>
-      <c r="E215" s="11"/>
+    <row r="215" spans="1:6" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A215" s="16"/>
+      <c r="B215" s="16"/>
+      <c r="C215" s="16"/>
+      <c r="D215" s="16"/>
+      <c r="E215" s="16"/>
     </row>
     <row r="216" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A216" s="11">
+      <c r="A216" s="16">
         <v>92</v>
       </c>
-      <c r="B216" s="11" t="s">
+      <c r="B216" s="16" t="s">
         <v>118</v>
       </c>
-      <c r="C216" s="11">
-        <v>3</v>
-      </c>
-      <c r="D216" s="11">
+      <c r="C216" s="16">
+        <v>3</v>
+      </c>
+      <c r="D216" s="16">
         <v>2</v>
       </c>
-      <c r="E216" s="11" t="s">
+      <c r="E216" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="F216" s="11" t="s">
+      <c r="F216" s="16" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="217" spans="1:6" customFormat="1" ht="15.75" hidden="1" customHeight="1">
-      <c r="A217" s="11"/>
-      <c r="B217" s="11"/>
-      <c r="C217" s="11"/>
-      <c r="D217" s="11"/>
-      <c r="E217" s="11"/>
-      <c r="F217" s="11"/>
+    <row r="217" spans="1:6" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A217" s="16"/>
+      <c r="B217" s="16"/>
+      <c r="C217" s="16"/>
+      <c r="D217" s="16"/>
+      <c r="E217" s="16"/>
+      <c r="F217" s="16"/>
     </row>
     <row r="218" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A218" s="11">
+      <c r="A218" s="16">
         <v>93</v>
       </c>
-      <c r="B218" s="11" t="s">
+      <c r="B218" s="16" t="s">
         <v>119</v>
       </c>
-      <c r="C218" s="11">
-        <v>3</v>
-      </c>
-      <c r="D218" s="11">
-        <v>3</v>
-      </c>
-      <c r="E218" s="11" t="s">
+      <c r="C218" s="16">
+        <v>3</v>
+      </c>
+      <c r="D218" s="16">
+        <v>3</v>
+      </c>
+      <c r="E218" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="F218" s="11" t="s">
+      <c r="F218" s="16" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="219" spans="1:6" customFormat="1" ht="15.75" hidden="1" customHeight="1">
-      <c r="A219" s="11"/>
-      <c r="B219" s="11"/>
-      <c r="C219" s="11"/>
-      <c r="D219" s="11"/>
-      <c r="E219" s="11"/>
-      <c r="F219" s="11"/>
-    </row>
-    <row r="220" spans="1:6" customFormat="1" ht="19.5" hidden="1" customHeight="1">
-      <c r="A220" s="11">
+    <row r="219" spans="1:6" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A219" s="16"/>
+      <c r="B219" s="16"/>
+      <c r="C219" s="16"/>
+      <c r="D219" s="16"/>
+      <c r="E219" s="16"/>
+      <c r="F219" s="16"/>
+    </row>
+    <row r="220" spans="1:6" customFormat="1" ht="19.5" customHeight="1">
+      <c r="A220" s="16">
         <v>94</v>
       </c>
-      <c r="B220" s="11" t="s">
+      <c r="B220" s="16" t="s">
         <v>120</v>
       </c>
-      <c r="C220" s="11">
+      <c r="C220" s="16">
         <v>4</v>
       </c>
-      <c r="D220" s="11">
+      <c r="D220" s="16">
         <v>3</v>
       </c>
       <c r="E220" s="7" t="s">
@@ -4071,11 +4128,11 @@
         <v>25</v>
       </c>
     </row>
-    <row r="221" spans="1:6" customFormat="1" ht="19.5" hidden="1" customHeight="1">
-      <c r="A221" s="11"/>
-      <c r="B221" s="11"/>
-      <c r="C221" s="11"/>
-      <c r="D221" s="11"/>
+    <row r="221" spans="1:6" customFormat="1" ht="19.5" customHeight="1">
+      <c r="A221" s="16"/>
+      <c r="B221" s="16"/>
+      <c r="C221" s="16"/>
+      <c r="D221" s="16"/>
       <c r="E221" s="7" t="s">
         <v>16</v>
       </c>
@@ -4083,274 +4140,274 @@
         <v>122</v>
       </c>
     </row>
-    <row r="222" spans="1:6" customFormat="1" ht="19.5" hidden="1" customHeight="1">
-      <c r="A222" s="11"/>
-      <c r="B222" s="11"/>
-      <c r="C222" s="11"/>
-      <c r="D222" s="11"/>
+    <row r="222" spans="1:6" customFormat="1" ht="19.5" customHeight="1">
+      <c r="A222" s="16"/>
+      <c r="B222" s="16"/>
+      <c r="C222" s="16"/>
+      <c r="D222" s="16"/>
       <c r="F222" s="7" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="223" spans="1:6" customFormat="1" ht="15.75" hidden="1" customHeight="1">
-      <c r="A223" s="11"/>
-      <c r="B223" s="11"/>
-      <c r="C223" s="11"/>
-      <c r="D223" s="11"/>
-    </row>
-    <row r="224" spans="1:6" customFormat="1" ht="19.5" hidden="1" customHeight="1">
-      <c r="A224" s="11">
+    <row r="223" spans="1:6" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A223" s="16"/>
+      <c r="B223" s="16"/>
+      <c r="C223" s="16"/>
+      <c r="D223" s="16"/>
+    </row>
+    <row r="224" spans="1:6" customFormat="1" ht="19.5" customHeight="1">
+      <c r="A224" s="16">
         <v>95</v>
       </c>
-      <c r="B224" s="11" t="s">
+      <c r="B224" s="16" t="s">
         <v>123</v>
       </c>
-      <c r="C224" s="11">
+      <c r="C224" s="16">
         <v>4</v>
       </c>
-      <c r="D224" s="11">
+      <c r="D224" s="16">
         <v>1</v>
       </c>
-      <c r="E224" s="11" t="s">
+      <c r="E224" s="16" t="s">
         <v>121</v>
       </c>
       <c r="F224" s="7" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="225" spans="1:6" customFormat="1" ht="19.5" hidden="1" customHeight="1">
-      <c r="A225" s="11"/>
-      <c r="B225" s="11"/>
-      <c r="C225" s="11"/>
-      <c r="D225" s="11"/>
-      <c r="E225" s="11"/>
+    <row r="225" spans="1:6" customFormat="1" ht="19.5" customHeight="1">
+      <c r="A225" s="16"/>
+      <c r="B225" s="16"/>
+      <c r="C225" s="16"/>
+      <c r="D225" s="16"/>
+      <c r="E225" s="16"/>
       <c r="F225" s="7" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="226" spans="1:6" customFormat="1" ht="15.75" hidden="1" customHeight="1">
-      <c r="A226" s="11"/>
-      <c r="B226" s="11"/>
-      <c r="C226" s="11"/>
-      <c r="D226" s="11"/>
-      <c r="E226" s="11"/>
+    <row r="226" spans="1:6" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A226" s="16"/>
+      <c r="B226" s="16"/>
+      <c r="C226" s="16"/>
+      <c r="D226" s="16"/>
+      <c r="E226" s="16"/>
     </row>
     <row r="227" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A227" s="11">
+      <c r="A227" s="16">
         <v>96</v>
       </c>
-      <c r="B227" s="18" t="s">
+      <c r="B227" s="17" t="s">
         <v>124</v>
       </c>
-      <c r="C227" s="11">
-        <v>3</v>
-      </c>
-      <c r="D227" s="11">
+      <c r="C227" s="16">
+        <v>3</v>
+      </c>
+      <c r="D227" s="16">
         <v>1</v>
       </c>
-      <c r="E227" s="11" t="s">
+      <c r="E227" s="16" t="s">
         <v>121</v>
       </c>
-      <c r="F227" s="11" t="s">
+      <c r="F227" s="16" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="228" spans="1:6" customFormat="1" ht="15.75" hidden="1" customHeight="1">
-      <c r="A228" s="11"/>
-      <c r="B228" s="11"/>
-      <c r="C228" s="11"/>
-      <c r="D228" s="11"/>
-      <c r="E228" s="11"/>
-      <c r="F228" s="11"/>
-    </row>
-    <row r="229" spans="1:6" customFormat="1" ht="19.5" hidden="1" customHeight="1">
-      <c r="A229" s="11">
+    <row r="228" spans="1:6" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A228" s="16"/>
+      <c r="B228" s="16"/>
+      <c r="C228" s="16"/>
+      <c r="D228" s="16"/>
+      <c r="E228" s="16"/>
+      <c r="F228" s="16"/>
+    </row>
+    <row r="229" spans="1:6" customFormat="1" ht="19.5" customHeight="1">
+      <c r="A229" s="16">
         <v>97</v>
       </c>
-      <c r="B229" s="11" t="s">
+      <c r="B229" s="16" t="s">
         <v>125</v>
       </c>
-      <c r="C229" s="11">
+      <c r="C229" s="16">
         <v>5</v>
       </c>
-      <c r="D229" s="11">
+      <c r="D229" s="16">
         <v>2</v>
       </c>
-      <c r="E229" s="11" t="s">
+      <c r="E229" s="16" t="s">
         <v>15</v>
       </c>
       <c r="F229" s="7" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="230" spans="1:6" customFormat="1" ht="19.5" hidden="1" customHeight="1">
-      <c r="A230" s="11"/>
-      <c r="B230" s="11"/>
-      <c r="C230" s="11"/>
-      <c r="D230" s="11"/>
-      <c r="E230" s="11"/>
+    <row r="230" spans="1:6" customFormat="1" ht="19.5" customHeight="1">
+      <c r="A230" s="16"/>
+      <c r="B230" s="16"/>
+      <c r="C230" s="16"/>
+      <c r="D230" s="16"/>
+      <c r="E230" s="16"/>
       <c r="F230" s="7" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="231" spans="1:6" customFormat="1" ht="15.75" hidden="1" customHeight="1">
-      <c r="A231" s="11"/>
-      <c r="B231" s="11"/>
-      <c r="C231" s="11"/>
-      <c r="D231" s="11"/>
-      <c r="E231" s="11"/>
+    <row r="231" spans="1:6" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A231" s="16"/>
+      <c r="B231" s="16"/>
+      <c r="C231" s="16"/>
+      <c r="D231" s="16"/>
+      <c r="E231" s="16"/>
     </row>
     <row r="232" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A232" s="11">
+      <c r="A232" s="16">
         <v>98</v>
       </c>
-      <c r="B232" s="18" t="s">
+      <c r="B232" s="17" t="s">
         <v>126</v>
       </c>
-      <c r="C232" s="11">
-        <v>3</v>
-      </c>
-      <c r="D232" s="11">
+      <c r="C232" s="16">
+        <v>3</v>
+      </c>
+      <c r="D232" s="16">
         <v>5</v>
       </c>
-      <c r="E232" s="11" t="s">
+      <c r="E232" s="16" t="s">
         <v>121</v>
       </c>
-      <c r="F232" s="11" t="s">
+      <c r="F232" s="16" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="233" spans="1:6" customFormat="1" ht="15.75" hidden="1" customHeight="1">
-      <c r="A233" s="11"/>
-      <c r="B233" s="11"/>
-      <c r="C233" s="11"/>
-      <c r="D233" s="11"/>
-      <c r="E233" s="11"/>
-      <c r="F233" s="11"/>
-    </row>
-    <row r="234" spans="1:6" customFormat="1" ht="15.75" hidden="1" customHeight="1">
-      <c r="A234" s="11">
+    <row r="233" spans="1:6" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A233" s="16"/>
+      <c r="B233" s="16"/>
+      <c r="C233" s="16"/>
+      <c r="D233" s="16"/>
+      <c r="E233" s="16"/>
+      <c r="F233" s="16"/>
+    </row>
+    <row r="234" spans="1:6" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A234" s="16">
         <v>99</v>
       </c>
-      <c r="B234" s="11" t="s">
+      <c r="B234" s="16" t="s">
         <v>127</v>
       </c>
-      <c r="C234" s="11">
+      <c r="C234" s="16">
         <v>4</v>
       </c>
-      <c r="D234" s="11">
+      <c r="D234" s="16">
         <v>2</v>
       </c>
-      <c r="E234" s="11" t="s">
+      <c r="E234" s="16" t="s">
         <v>121</v>
       </c>
-      <c r="F234" s="11" t="s">
+      <c r="F234" s="16" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="235" spans="1:6" customFormat="1" ht="15.75" hidden="1" customHeight="1">
-      <c r="A235" s="11"/>
-      <c r="B235" s="11"/>
-      <c r="C235" s="11"/>
-      <c r="D235" s="11"/>
-      <c r="E235" s="11"/>
-      <c r="F235" s="11"/>
+    <row r="235" spans="1:6" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A235" s="16"/>
+      <c r="B235" s="16"/>
+      <c r="C235" s="16"/>
+      <c r="D235" s="16"/>
+      <c r="E235" s="16"/>
+      <c r="F235" s="16"/>
     </row>
     <row r="236" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A236" s="11">
+      <c r="A236" s="16">
         <v>100</v>
       </c>
-      <c r="B236" s="18" t="s">
+      <c r="B236" s="17" t="s">
         <v>128</v>
       </c>
-      <c r="C236" s="11">
+      <c r="C236" s="16">
         <v>1</v>
       </c>
-      <c r="D236" s="11">
+      <c r="D236" s="16">
         <v>1</v>
       </c>
-      <c r="E236" s="11" t="s">
+      <c r="E236" s="16" t="s">
         <v>121</v>
       </c>
-      <c r="F236" s="11" t="s">
+      <c r="F236" s="16" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="237" spans="1:6" customFormat="1" ht="3.75" hidden="1" customHeight="1">
-      <c r="A237" s="11"/>
-      <c r="B237" s="11"/>
-      <c r="C237" s="11"/>
-      <c r="D237" s="11"/>
-      <c r="E237" s="11"/>
-      <c r="F237" s="11"/>
+    <row r="237" spans="1:6" customFormat="1" ht="3.75" customHeight="1">
+      <c r="A237" s="16"/>
+      <c r="B237" s="16"/>
+      <c r="C237" s="16"/>
+      <c r="D237" s="16"/>
+      <c r="E237" s="16"/>
+      <c r="F237" s="16"/>
     </row>
     <row r="238" spans="1:6" ht="20.25" customHeight="1">
-      <c r="A238" s="11">
+      <c r="A238" s="16">
         <v>101</v>
       </c>
-      <c r="B238" s="18" t="s">
+      <c r="B238" s="17" t="s">
         <v>129</v>
       </c>
-      <c r="C238" s="11">
+      <c r="C238" s="16">
         <v>1</v>
       </c>
-      <c r="D238" s="11">
+      <c r="D238" s="16">
         <v>2</v>
       </c>
-      <c r="E238" s="11" t="s">
+      <c r="E238" s="16" t="s">
         <v>121</v>
       </c>
-      <c r="F238" s="11" t="s">
+      <c r="F238" s="16" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="239" spans="1:6" customFormat="1" ht="15.75" hidden="1" customHeight="1">
-      <c r="A239" s="11"/>
-      <c r="B239" s="11"/>
-      <c r="C239" s="11"/>
-      <c r="D239" s="11"/>
-      <c r="E239" s="11"/>
-      <c r="F239" s="11"/>
+    <row r="239" spans="1:6" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A239" s="16"/>
+      <c r="B239" s="16"/>
+      <c r="C239" s="16"/>
+      <c r="D239" s="16"/>
+      <c r="E239" s="16"/>
+      <c r="F239" s="16"/>
     </row>
     <row r="240" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A240" s="11">
+      <c r="A240" s="16">
         <v>102</v>
       </c>
-      <c r="B240" s="18" t="s">
+      <c r="B240" s="17" t="s">
         <v>130</v>
       </c>
-      <c r="C240" s="11">
-        <v>3</v>
-      </c>
-      <c r="D240" s="11">
+      <c r="C240" s="16">
+        <v>3</v>
+      </c>
+      <c r="D240" s="16">
         <v>4</v>
       </c>
-      <c r="E240" s="11" t="s">
+      <c r="E240" s="16" t="s">
         <v>121</v>
       </c>
-      <c r="F240" s="11" t="s">
+      <c r="F240" s="16" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="241" spans="1:6" customFormat="1" ht="15.75" hidden="1" customHeight="1">
-      <c r="A241" s="11"/>
-      <c r="B241" s="11"/>
-      <c r="C241" s="11"/>
-      <c r="D241" s="11"/>
-      <c r="E241" s="11"/>
-      <c r="F241" s="11"/>
-    </row>
-    <row r="242" spans="1:6" customFormat="1" ht="19.5" hidden="1" customHeight="1">
-      <c r="A242" s="11">
+    <row r="241" spans="1:6" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A241" s="16"/>
+      <c r="B241" s="16"/>
+      <c r="C241" s="16"/>
+      <c r="D241" s="16"/>
+      <c r="E241" s="16"/>
+      <c r="F241" s="16"/>
+    </row>
+    <row r="242" spans="1:6" customFormat="1" ht="19.5" customHeight="1">
+      <c r="A242" s="16">
         <v>103</v>
       </c>
-      <c r="B242" s="11" t="s">
+      <c r="B242" s="16" t="s">
         <v>132</v>
       </c>
-      <c r="C242" s="11">
+      <c r="C242" s="16">
         <v>4</v>
       </c>
-      <c r="D242" s="11">
+      <c r="D242" s="16">
         <v>3</v>
       </c>
       <c r="E242" s="7" t="s">
@@ -4360,11 +4417,11 @@
         <v>131</v>
       </c>
     </row>
-    <row r="243" spans="1:6" customFormat="1" ht="19.5" hidden="1" customHeight="1">
-      <c r="A243" s="11"/>
-      <c r="B243" s="11"/>
-      <c r="C243" s="11"/>
-      <c r="D243" s="11"/>
+    <row r="243" spans="1:6" customFormat="1" ht="19.5" customHeight="1">
+      <c r="A243" s="16"/>
+      <c r="B243" s="16"/>
+      <c r="C243" s="16"/>
+      <c r="D243" s="16"/>
       <c r="E243" s="7" t="s">
         <v>121</v>
       </c>
@@ -4372,921 +4429,1806 @@
         <v>38</v>
       </c>
     </row>
-    <row r="244" spans="1:6" customFormat="1" ht="15.75" hidden="1" customHeight="1">
-      <c r="A244" s="11"/>
-      <c r="B244" s="11"/>
-      <c r="C244" s="11"/>
-      <c r="D244" s="11"/>
+    <row r="244" spans="1:6" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A244" s="16"/>
+      <c r="B244" s="16"/>
+      <c r="C244" s="16"/>
+      <c r="D244" s="16"/>
     </row>
     <row r="245" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A245" s="11">
+      <c r="A245" s="16">
         <v>104</v>
       </c>
-      <c r="B245" s="18" t="s">
+      <c r="B245" s="17" t="s">
         <v>134</v>
       </c>
-      <c r="C245" s="11">
+      <c r="C245" s="16">
         <v>1</v>
       </c>
-      <c r="D245" s="11">
+      <c r="D245" s="16">
         <v>1</v>
       </c>
-      <c r="E245" s="11" t="s">
+      <c r="E245" s="16" t="s">
         <v>121</v>
       </c>
-      <c r="F245" s="11" t="s">
+      <c r="F245" s="16" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="246" spans="1:6" customFormat="1" ht="15.75" hidden="1" customHeight="1">
-      <c r="A246" s="11"/>
-      <c r="B246" s="11"/>
-      <c r="C246" s="11"/>
-      <c r="D246" s="11"/>
-      <c r="E246" s="11"/>
-      <c r="F246" s="11"/>
+    <row r="246" spans="1:6" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A246" s="16"/>
+      <c r="B246" s="16"/>
+      <c r="C246" s="16"/>
+      <c r="D246" s="16"/>
+      <c r="E246" s="16"/>
+      <c r="F246" s="16"/>
     </row>
     <row r="247" spans="1:6" ht="19.5" customHeight="1">
-      <c r="A247" s="11">
+      <c r="A247" s="16">
         <v>105</v>
       </c>
-      <c r="B247" s="18" t="s">
+      <c r="B247" s="17" t="s">
         <v>135</v>
       </c>
-      <c r="C247" s="11">
-        <v>3</v>
-      </c>
-      <c r="D247" s="11">
-        <v>3</v>
-      </c>
-      <c r="E247" s="15" t="s">
+      <c r="C247" s="16">
+        <v>3</v>
+      </c>
+      <c r="D247" s="16">
+        <v>3</v>
+      </c>
+      <c r="E247" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="F247" s="11" t="s">
+      <c r="F247" s="16" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="248" spans="1:6" customFormat="1" ht="19.5" hidden="1" customHeight="1">
-      <c r="A248" s="11"/>
-      <c r="B248" s="11"/>
-      <c r="C248" s="11"/>
-      <c r="D248" s="11"/>
+    <row r="248" spans="1:6" customFormat="1" ht="19.5" customHeight="1">
+      <c r="A248" s="16"/>
+      <c r="B248" s="16"/>
+      <c r="C248" s="16"/>
+      <c r="D248" s="16"/>
       <c r="E248" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="F248" s="11"/>
-    </row>
-    <row r="249" spans="1:6" customFormat="1" ht="15.75" hidden="1" customHeight="1">
-      <c r="A249" s="11"/>
-      <c r="B249" s="11"/>
-      <c r="C249" s="11"/>
-      <c r="D249" s="11"/>
-      <c r="F249" s="11"/>
+      <c r="F248" s="16"/>
+    </row>
+    <row r="249" spans="1:6" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A249" s="16"/>
+      <c r="B249" s="16"/>
+      <c r="C249" s="16"/>
+      <c r="D249" s="16"/>
+      <c r="F249" s="16"/>
     </row>
     <row r="250" spans="1:6" ht="19.5" customHeight="1">
-      <c r="A250" s="11">
+      <c r="A250" s="16">
         <v>106</v>
       </c>
-      <c r="B250" s="18" t="s">
+      <c r="B250" s="17" t="s">
         <v>136</v>
       </c>
-      <c r="C250" s="11">
-        <v>3</v>
-      </c>
-      <c r="D250" s="11">
-        <v>3</v>
-      </c>
-      <c r="E250" s="15" t="s">
+      <c r="C250" s="16">
+        <v>3</v>
+      </c>
+      <c r="D250" s="16">
+        <v>3</v>
+      </c>
+      <c r="E250" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="F250" s="11" t="s">
+      <c r="F250" s="16" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="251" spans="1:6" customFormat="1" ht="19.5" hidden="1" customHeight="1">
-      <c r="A251" s="11"/>
-      <c r="B251" s="11"/>
-      <c r="C251" s="11"/>
-      <c r="D251" s="11"/>
+    <row r="251" spans="1:6" customFormat="1" ht="19.5" customHeight="1">
+      <c r="A251" s="16"/>
+      <c r="B251" s="16"/>
+      <c r="C251" s="16"/>
+      <c r="D251" s="16"/>
       <c r="E251" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="F251" s="11"/>
-    </row>
-    <row r="252" spans="1:6" customFormat="1" ht="15.75" hidden="1" customHeight="1">
-      <c r="A252" s="11"/>
-      <c r="B252" s="11"/>
-      <c r="C252" s="11"/>
-      <c r="D252" s="11"/>
-      <c r="F252" s="11"/>
+      <c r="F251" s="16"/>
+    </row>
+    <row r="252" spans="1:6" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A252" s="16"/>
+      <c r="B252" s="16"/>
+      <c r="C252" s="16"/>
+      <c r="D252" s="16"/>
+      <c r="F252" s="16"/>
     </row>
     <row r="253" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A253" s="11">
+      <c r="A253" s="16">
         <v>107</v>
       </c>
-      <c r="B253" s="18" t="s">
+      <c r="B253" s="17" t="s">
         <v>137</v>
       </c>
-      <c r="C253" s="11">
-        <v>3</v>
-      </c>
-      <c r="D253" s="11">
+      <c r="C253" s="16">
+        <v>3</v>
+      </c>
+      <c r="D253" s="16">
         <v>1</v>
       </c>
-      <c r="E253" s="11" t="s">
+      <c r="E253" s="16" t="s">
         <v>121</v>
       </c>
-      <c r="F253" s="11" t="s">
+      <c r="F253" s="16" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="254" spans="1:6" customFormat="1" ht="15.75" hidden="1" customHeight="1">
-      <c r="A254" s="11"/>
-      <c r="B254" s="11"/>
-      <c r="C254" s="11"/>
-      <c r="D254" s="11"/>
-      <c r="E254" s="11"/>
-      <c r="F254" s="11"/>
+    <row r="254" spans="1:6" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A254" s="16"/>
+      <c r="B254" s="16"/>
+      <c r="C254" s="16"/>
+      <c r="D254" s="16"/>
+      <c r="E254" s="16"/>
+      <c r="F254" s="16"/>
     </row>
     <row r="255" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A255" s="11">
+      <c r="A255" s="16">
         <v>108</v>
       </c>
-      <c r="B255" s="18" t="s">
+      <c r="B255" s="17" t="s">
         <v>138</v>
       </c>
-      <c r="C255" s="11">
+      <c r="C255" s="16">
         <v>2</v>
       </c>
-      <c r="D255" s="11">
-        <v>3</v>
-      </c>
-      <c r="E255" s="11" t="s">
+      <c r="D255" s="16">
+        <v>3</v>
+      </c>
+      <c r="E255" s="16" t="s">
         <v>121</v>
       </c>
-      <c r="F255" s="11" t="s">
+      <c r="F255" s="16" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="256" spans="1:6" customFormat="1" ht="15.75" hidden="1" customHeight="1">
-      <c r="A256" s="11"/>
-      <c r="B256" s="11"/>
-      <c r="C256" s="11"/>
-      <c r="D256" s="11"/>
-      <c r="E256" s="11"/>
-      <c r="F256" s="11"/>
-    </row>
-    <row r="257" spans="1:6" customFormat="1" ht="18" hidden="1" customHeight="1">
-      <c r="A257" s="11">
+    <row r="256" spans="1:6" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A256" s="16"/>
+      <c r="B256" s="16"/>
+      <c r="C256" s="16"/>
+      <c r="D256" s="16"/>
+      <c r="E256" s="16"/>
+      <c r="F256" s="16"/>
+    </row>
+    <row r="257" spans="1:6" customFormat="1" ht="18" customHeight="1">
+      <c r="A257" s="16">
         <v>109</v>
       </c>
-      <c r="B257" s="11" t="s">
+      <c r="B257" s="16" t="s">
         <v>139</v>
       </c>
-      <c r="C257" s="11">
+      <c r="C257" s="16">
         <v>4</v>
       </c>
-      <c r="D257" s="11">
-        <v>3</v>
-      </c>
-      <c r="E257" s="11" t="s">
+      <c r="D257" s="16">
+        <v>3</v>
+      </c>
+      <c r="E257" s="16" t="s">
         <v>12</v>
       </c>
       <c r="F257" s="7" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="258" spans="1:6" customFormat="1" ht="22.5" hidden="1" customHeight="1">
-      <c r="A258" s="11"/>
-      <c r="B258" s="11"/>
-      <c r="C258" s="11"/>
-      <c r="D258" s="11"/>
-      <c r="E258" s="11"/>
+    <row r="258" spans="1:6" customFormat="1" ht="22.5" customHeight="1">
+      <c r="A258" s="16"/>
+      <c r="B258" s="16"/>
+      <c r="C258" s="16"/>
+      <c r="D258" s="16"/>
+      <c r="E258" s="16"/>
       <c r="F258" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="259" spans="1:6" customFormat="1" ht="4.5" hidden="1" customHeight="1">
-      <c r="A259" s="11"/>
-      <c r="B259" s="11"/>
-      <c r="C259" s="11"/>
-      <c r="D259" s="11"/>
-      <c r="E259" s="11"/>
+    <row r="259" spans="1:6" customFormat="1" ht="4.5" customHeight="1">
+      <c r="A259" s="16"/>
+      <c r="B259" s="16"/>
+      <c r="C259" s="16"/>
+      <c r="D259" s="16"/>
+      <c r="E259" s="16"/>
     </row>
     <row r="260" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A260" s="11">
+      <c r="A260" s="16">
         <v>110</v>
       </c>
-      <c r="B260" s="18" t="s">
+      <c r="B260" s="17" t="s">
         <v>140</v>
       </c>
-      <c r="C260" s="11">
+      <c r="C260" s="16">
         <v>1</v>
       </c>
-      <c r="D260" s="11">
+      <c r="D260" s="16">
         <v>2</v>
       </c>
-      <c r="E260" s="11" t="s">
+      <c r="E260" s="16" t="s">
         <v>121</v>
       </c>
-      <c r="F260" s="11" t="s">
+      <c r="F260" s="16" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="261" spans="1:6" customFormat="1" ht="15.75" hidden="1" customHeight="1">
-      <c r="A261" s="11"/>
-      <c r="B261" s="11"/>
-      <c r="C261" s="11"/>
-      <c r="D261" s="11"/>
-      <c r="E261" s="11"/>
-      <c r="F261" s="11"/>
+    <row r="261" spans="1:6" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A261" s="16"/>
+      <c r="B261" s="16"/>
+      <c r="C261" s="16"/>
+      <c r="D261" s="16"/>
+      <c r="E261" s="16"/>
+      <c r="F261" s="16"/>
     </row>
     <row r="262" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A262" s="11">
+      <c r="A262" s="16">
         <v>111</v>
       </c>
-      <c r="B262" s="18" t="s">
+      <c r="B262" s="17" t="s">
         <v>141</v>
       </c>
-      <c r="C262" s="11">
+      <c r="C262" s="16">
         <v>1</v>
       </c>
-      <c r="D262" s="11">
+      <c r="D262" s="16">
         <v>1</v>
       </c>
-      <c r="E262" s="11" t="s">
+      <c r="E262" s="16" t="s">
         <v>121</v>
       </c>
-      <c r="F262" s="11" t="s">
+      <c r="F262" s="16" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="263" spans="1:6" customFormat="1" ht="15.75" hidden="1" customHeight="1">
-      <c r="A263" s="11"/>
-      <c r="B263" s="11"/>
-      <c r="C263" s="11"/>
-      <c r="D263" s="11"/>
-      <c r="E263" s="11"/>
-      <c r="F263" s="11"/>
+    <row r="263" spans="1:6" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A263" s="16"/>
+      <c r="B263" s="16"/>
+      <c r="C263" s="16"/>
+      <c r="D263" s="16"/>
+      <c r="E263" s="16"/>
+      <c r="F263" s="16"/>
     </row>
     <row r="264" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A264" s="11">
+      <c r="A264" s="16">
         <v>112</v>
       </c>
-      <c r="B264" s="18" t="s">
+      <c r="B264" s="17" t="s">
         <v>142</v>
       </c>
-      <c r="C264" s="11">
+      <c r="C264" s="16">
         <v>1</v>
       </c>
-      <c r="D264" s="11">
-        <v>3</v>
-      </c>
-      <c r="E264" s="11" t="s">
+      <c r="D264" s="16">
+        <v>3</v>
+      </c>
+      <c r="E264" s="16" t="s">
         <v>121</v>
       </c>
-      <c r="F264" s="11" t="s">
+      <c r="F264" s="16" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="265" spans="1:6" customFormat="1" ht="15.75" hidden="1" customHeight="1">
-      <c r="A265" s="11"/>
-      <c r="B265" s="11"/>
-      <c r="C265" s="11"/>
-      <c r="D265" s="11"/>
-      <c r="E265" s="11"/>
-      <c r="F265" s="11"/>
+    <row r="265" spans="1:6" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A265" s="16"/>
+      <c r="B265" s="16"/>
+      <c r="C265" s="16"/>
+      <c r="D265" s="16"/>
+      <c r="E265" s="16"/>
+      <c r="F265" s="16"/>
     </row>
     <row r="266" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A266" s="11">
+      <c r="A266" s="16">
         <v>113</v>
       </c>
-      <c r="B266" s="18" t="s">
+      <c r="B266" s="17" t="s">
         <v>143</v>
       </c>
-      <c r="C266" s="11">
+      <c r="C266" s="16">
         <v>2</v>
       </c>
-      <c r="D266" s="11">
+      <c r="D266" s="16">
         <v>2</v>
       </c>
-      <c r="E266" s="11" t="s">
+      <c r="E266" s="16" t="s">
         <v>121</v>
       </c>
-      <c r="F266" s="11" t="s">
+      <c r="F266" s="16" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="267" spans="1:6" customFormat="1" ht="15.75" hidden="1" customHeight="1">
-      <c r="A267" s="11"/>
-      <c r="B267" s="11"/>
-      <c r="C267" s="11"/>
-      <c r="D267" s="11"/>
-      <c r="E267" s="11"/>
-      <c r="F267" s="11"/>
+    <row r="267" spans="1:6" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A267" s="16"/>
+      <c r="B267" s="16"/>
+      <c r="C267" s="16"/>
+      <c r="D267" s="16"/>
+      <c r="E267" s="16"/>
+      <c r="F267" s="16"/>
     </row>
     <row r="268" spans="1:6" ht="19.5" customHeight="1">
-      <c r="A268" s="11">
+      <c r="A268" s="16">
         <v>114</v>
       </c>
-      <c r="B268" s="18" t="s">
+      <c r="B268" s="17" t="s">
         <v>144</v>
       </c>
-      <c r="C268" s="11">
-        <v>3</v>
-      </c>
-      <c r="D268" s="11">
-        <v>3</v>
-      </c>
-      <c r="E268" s="11" t="s">
+      <c r="C268" s="16">
+        <v>3</v>
+      </c>
+      <c r="D268" s="16">
+        <v>3</v>
+      </c>
+      <c r="E268" s="16" t="s">
         <v>121</v>
       </c>
-      <c r="F268" s="15" t="s">
+      <c r="F268" s="13" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="269" spans="1:6" customFormat="1" ht="19.5" hidden="1" customHeight="1">
-      <c r="A269" s="11"/>
-      <c r="B269" s="11"/>
-      <c r="C269" s="11"/>
-      <c r="D269" s="11"/>
-      <c r="E269" s="11"/>
+    <row r="269" spans="1:6" customFormat="1" ht="19.5" customHeight="1">
+      <c r="A269" s="16"/>
+      <c r="B269" s="16"/>
+      <c r="C269" s="16"/>
+      <c r="D269" s="16"/>
+      <c r="E269" s="16"/>
       <c r="F269" s="7" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="270" spans="1:6" customFormat="1" ht="15.75" hidden="1" customHeight="1">
-      <c r="A270" s="11"/>
-      <c r="B270" s="11"/>
-      <c r="C270" s="11"/>
-      <c r="D270" s="11"/>
-      <c r="E270" s="11"/>
-    </row>
-    <row r="271" spans="1:6" customFormat="1" ht="15.75" hidden="1" customHeight="1">
-      <c r="A271" s="11">
+    <row r="270" spans="1:6" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A270" s="16"/>
+      <c r="B270" s="16"/>
+      <c r="C270" s="16"/>
+      <c r="D270" s="16"/>
+      <c r="E270" s="16"/>
+    </row>
+    <row r="271" spans="1:6" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A271" s="16">
         <v>115</v>
       </c>
-      <c r="B271" s="11" t="s">
+      <c r="B271" s="16" t="s">
         <v>145</v>
       </c>
-      <c r="C271" s="11">
+      <c r="C271" s="16">
         <v>4</v>
       </c>
-      <c r="D271" s="11">
+      <c r="D271" s="16">
         <v>2</v>
       </c>
-      <c r="E271" s="11" t="s">
+      <c r="E271" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="F271" s="11" t="s">
+      <c r="F271" s="16" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="272" spans="1:6" customFormat="1" ht="15.75" hidden="1" customHeight="1">
-      <c r="A272" s="11"/>
-      <c r="B272" s="11"/>
-      <c r="C272" s="11"/>
-      <c r="D272" s="11"/>
-      <c r="E272" s="11"/>
-      <c r="F272" s="11"/>
+    <row r="272" spans="1:6" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A272" s="16"/>
+      <c r="B272" s="16"/>
+      <c r="C272" s="16"/>
+      <c r="D272" s="16"/>
+      <c r="E272" s="16"/>
+      <c r="F272" s="16"/>
     </row>
     <row r="273" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A273" s="11">
+      <c r="A273" s="16">
         <v>116</v>
       </c>
-      <c r="B273" s="18" t="s">
+      <c r="B273" s="17" t="s">
         <v>146</v>
       </c>
-      <c r="C273" s="11">
-        <v>3</v>
-      </c>
-      <c r="D273" s="11">
-        <v>3</v>
-      </c>
-      <c r="E273" s="11" t="s">
+      <c r="C273" s="16">
+        <v>3</v>
+      </c>
+      <c r="D273" s="16">
+        <v>3</v>
+      </c>
+      <c r="E273" s="16" t="s">
         <v>121</v>
       </c>
-      <c r="F273" s="11" t="s">
+      <c r="F273" s="16" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="274" spans="1:6" customFormat="1" ht="15.75" hidden="1" customHeight="1">
-      <c r="A274" s="11"/>
-      <c r="B274" s="11"/>
-      <c r="C274" s="11"/>
-      <c r="D274" s="11"/>
-      <c r="E274" s="11"/>
-      <c r="F274" s="11"/>
-    </row>
-    <row r="275" spans="1:6" customFormat="1" ht="15.75" hidden="1" customHeight="1">
-      <c r="A275" s="11">
+    <row r="274" spans="1:6" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A274" s="16"/>
+      <c r="B274" s="16"/>
+      <c r="C274" s="16"/>
+      <c r="D274" s="16"/>
+      <c r="E274" s="16"/>
+      <c r="F274" s="16"/>
+    </row>
+    <row r="275" spans="1:6" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A275" s="16">
         <v>117</v>
       </c>
-      <c r="B275" s="11" t="s">
+      <c r="B275" s="16" t="s">
         <v>147</v>
       </c>
-      <c r="C275" s="11">
+      <c r="C275" s="16">
         <v>4</v>
       </c>
-      <c r="D275" s="11">
+      <c r="D275" s="16">
         <v>2</v>
       </c>
-      <c r="E275" s="11" t="s">
+      <c r="E275" s="16" t="s">
         <v>121</v>
       </c>
-      <c r="F275" s="11" t="s">
+      <c r="F275" s="16" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="276" spans="1:6" customFormat="1" ht="15.75" hidden="1" customHeight="1">
-      <c r="A276" s="11"/>
-      <c r="B276" s="11"/>
-      <c r="C276" s="11"/>
-      <c r="D276" s="11"/>
-      <c r="E276" s="11"/>
-      <c r="F276" s="11"/>
+    <row r="276" spans="1:6" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A276" s="16"/>
+      <c r="B276" s="16"/>
+      <c r="C276" s="16"/>
+      <c r="D276" s="16"/>
+      <c r="E276" s="16"/>
+      <c r="F276" s="16"/>
     </row>
     <row r="277" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A277" s="11">
+      <c r="A277" s="16">
         <v>118</v>
       </c>
-      <c r="B277" s="18" t="s">
+      <c r="B277" s="17" t="s">
         <v>148</v>
       </c>
-      <c r="C277" s="11">
+      <c r="C277" s="16">
         <v>2</v>
       </c>
-      <c r="D277" s="11">
+      <c r="D277" s="16">
         <v>1</v>
       </c>
-      <c r="E277" s="11" t="s">
+      <c r="E277" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="F277" s="11"/>
-    </row>
-    <row r="278" spans="1:6" customFormat="1" ht="15.75" hidden="1" customHeight="1">
-      <c r="A278" s="11"/>
-      <c r="B278" s="11"/>
-      <c r="C278" s="11"/>
-      <c r="D278" s="11"/>
-      <c r="E278" s="11"/>
-      <c r="F278" s="11"/>
+      <c r="F277" s="16"/>
+    </row>
+    <row r="278" spans="1:6" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A278" s="16"/>
+      <c r="B278" s="16"/>
+      <c r="C278" s="16"/>
+      <c r="D278" s="16"/>
+      <c r="E278" s="16"/>
+      <c r="F278" s="16"/>
     </row>
     <row r="279" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A279" s="11">
+      <c r="A279" s="16">
         <v>119</v>
       </c>
-      <c r="B279" s="18" t="s">
+      <c r="B279" s="17" t="s">
         <v>149</v>
       </c>
-      <c r="C279" s="11">
+      <c r="C279" s="16">
         <v>2</v>
       </c>
-      <c r="D279" s="11">
+      <c r="D279" s="16">
         <v>1</v>
       </c>
-      <c r="E279" s="11" t="s">
+      <c r="E279" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="F279" s="11"/>
-    </row>
-    <row r="280" spans="1:6" customFormat="1" ht="15.75" hidden="1" customHeight="1">
-      <c r="A280" s="11"/>
-      <c r="B280" s="11"/>
-      <c r="C280" s="11"/>
-      <c r="D280" s="11"/>
-      <c r="E280" s="11"/>
-      <c r="F280" s="11"/>
+      <c r="F279" s="16"/>
+    </row>
+    <row r="280" spans="1:6" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A280" s="16"/>
+      <c r="B280" s="16"/>
+      <c r="C280" s="16"/>
+      <c r="D280" s="16"/>
+      <c r="E280" s="16"/>
+      <c r="F280" s="16"/>
     </row>
     <row r="281" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A281" s="11">
+      <c r="A281" s="16">
         <v>120</v>
       </c>
-      <c r="B281" s="18" t="s">
+      <c r="B281" s="17" t="s">
         <v>150</v>
       </c>
-      <c r="C281" s="11">
-        <v>3</v>
-      </c>
-      <c r="D281" s="11">
+      <c r="C281" s="16">
+        <v>3</v>
+      </c>
+      <c r="D281" s="16">
         <v>1</v>
       </c>
-      <c r="E281" s="11" t="s">
+      <c r="E281" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="F281" s="11" t="s">
+      <c r="F281" s="16" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="282" spans="1:6" customFormat="1" ht="15.75" hidden="1" customHeight="1">
-      <c r="A282" s="11"/>
-      <c r="B282" s="11"/>
-      <c r="C282" s="11"/>
-      <c r="D282" s="11"/>
-      <c r="E282" s="11"/>
-      <c r="F282" s="11"/>
+    <row r="282" spans="1:6" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A282" s="16"/>
+      <c r="B282" s="16"/>
+      <c r="C282" s="16"/>
+      <c r="D282" s="16"/>
+      <c r="E282" s="16"/>
+      <c r="F282" s="16"/>
     </row>
     <row r="283" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A283" s="11">
+      <c r="A283" s="16">
         <v>121</v>
       </c>
-      <c r="B283" s="18" t="s">
+      <c r="B283" s="17" t="s">
         <v>151</v>
       </c>
-      <c r="C283" s="11">
+      <c r="C283" s="16">
         <v>2</v>
       </c>
-      <c r="D283" s="11">
+      <c r="D283" s="16">
         <v>1</v>
       </c>
-      <c r="E283" s="11" t="s">
+      <c r="E283" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="F283" s="11" t="s">
+      <c r="F283" s="16" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="284" spans="1:6" customFormat="1" ht="15.75" hidden="1" customHeight="1">
-      <c r="A284" s="11"/>
-      <c r="B284" s="11"/>
-      <c r="C284" s="11"/>
-      <c r="D284" s="11"/>
-      <c r="E284" s="11"/>
-      <c r="F284" s="11"/>
+    <row r="284" spans="1:6" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A284" s="16"/>
+      <c r="B284" s="16"/>
+      <c r="C284" s="16"/>
+      <c r="D284" s="16"/>
+      <c r="E284" s="16"/>
+      <c r="F284" s="16"/>
     </row>
     <row r="285" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A285" s="11">
+      <c r="A285" s="16">
         <v>122</v>
       </c>
-      <c r="B285" s="18" t="s">
+      <c r="B285" s="17" t="s">
         <v>152</v>
       </c>
-      <c r="C285" s="11">
-        <v>3</v>
-      </c>
-      <c r="D285" s="11">
+      <c r="C285" s="16">
+        <v>3</v>
+      </c>
+      <c r="D285" s="16">
         <v>1</v>
       </c>
-      <c r="E285" s="11" t="s">
+      <c r="E285" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="F285" s="11" t="s">
+      <c r="F285" s="16" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="286" spans="1:6" customFormat="1" ht="15.75" hidden="1" customHeight="1">
-      <c r="A286" s="11"/>
-      <c r="B286" s="11"/>
-      <c r="C286" s="11"/>
-      <c r="D286" s="11"/>
-      <c r="E286" s="11"/>
-      <c r="F286" s="11"/>
-    </row>
-    <row r="287" spans="1:6" customFormat="1" ht="15.75" hidden="1" customHeight="1">
-      <c r="A287" s="11">
+    <row r="286" spans="1:6" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A286" s="16"/>
+      <c r="B286" s="16"/>
+      <c r="C286" s="16"/>
+      <c r="D286" s="16"/>
+      <c r="E286" s="16"/>
+      <c r="F286" s="16"/>
+    </row>
+    <row r="287" spans="1:6" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A287" s="16">
         <v>123</v>
       </c>
-      <c r="B287" s="11" t="s">
+      <c r="B287" s="16" t="s">
         <v>153</v>
       </c>
-      <c r="C287" s="11">
+      <c r="C287" s="16">
         <v>4</v>
       </c>
-      <c r="D287" s="11">
+      <c r="D287" s="16">
         <v>1</v>
       </c>
-      <c r="E287" s="11" t="s">
+      <c r="E287" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="F287" s="11" t="s">
+      <c r="F287" s="16" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="288" spans="1:6" customFormat="1" ht="15.75" hidden="1" customHeight="1">
-      <c r="A288" s="11"/>
-      <c r="B288" s="11"/>
-      <c r="C288" s="11"/>
-      <c r="D288" s="11"/>
-      <c r="E288" s="11"/>
-      <c r="F288" s="11"/>
-    </row>
-    <row r="289" spans="1:6" customFormat="1" ht="15.75" hidden="1" customHeight="1">
-      <c r="A289" s="11">
+    <row r="288" spans="1:6" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A288" s="16"/>
+      <c r="B288" s="16"/>
+      <c r="C288" s="16"/>
+      <c r="D288" s="16"/>
+      <c r="E288" s="16"/>
+      <c r="F288" s="16"/>
+    </row>
+    <row r="289" spans="1:6" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A289" s="16">
         <v>124</v>
       </c>
-      <c r="B289" s="11" t="s">
+      <c r="B289" s="16" t="s">
         <v>154</v>
       </c>
-      <c r="C289" s="11">
+      <c r="C289" s="16">
         <v>4</v>
       </c>
-      <c r="D289" s="11">
+      <c r="D289" s="16">
         <v>2</v>
       </c>
-      <c r="E289" s="11" t="s">
+      <c r="E289" s="16" t="s">
         <v>121</v>
       </c>
-      <c r="F289" s="11" t="s">
+      <c r="F289" s="16" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="290" spans="1:6" customFormat="1" ht="15.75" hidden="1" customHeight="1">
-      <c r="A290" s="11"/>
-      <c r="B290" s="11"/>
-      <c r="C290" s="11"/>
-      <c r="D290" s="11"/>
-      <c r="E290" s="11"/>
-      <c r="F290" s="11"/>
+    <row r="290" spans="1:6" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A290" s="16"/>
+      <c r="B290" s="16"/>
+      <c r="C290" s="16"/>
+      <c r="D290" s="16"/>
+      <c r="E290" s="16"/>
+      <c r="F290" s="16"/>
     </row>
     <row r="291" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A291" s="11">
+      <c r="A291" s="16">
         <v>125</v>
       </c>
-      <c r="B291" s="18" t="s">
+      <c r="B291" s="17" t="s">
         <v>155</v>
       </c>
-      <c r="C291" s="11">
+      <c r="C291" s="16">
         <v>2</v>
       </c>
-      <c r="D291" s="11">
+      <c r="D291" s="16">
         <v>5</v>
       </c>
-      <c r="E291" s="11" t="s">
+      <c r="E291" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="F291" s="11" t="s">
+      <c r="F291" s="16" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="292" spans="1:6" customFormat="1" ht="15.75" hidden="1" customHeight="1">
-      <c r="A292" s="11"/>
-      <c r="B292" s="12"/>
-      <c r="C292" s="11"/>
-      <c r="D292" s="11"/>
-      <c r="E292" s="11"/>
-      <c r="F292" s="11"/>
-    </row>
-    <row r="293" spans="1:6" ht="18">
-      <c r="A293" s="15">
+    <row r="292" spans="1:6" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A292" s="16"/>
+      <c r="B292" s="18"/>
+      <c r="C292" s="16"/>
+      <c r="D292" s="16"/>
+      <c r="E292" s="16"/>
+      <c r="F292" s="16"/>
+    </row>
+    <row r="293" spans="1:6" ht="19.2">
+      <c r="A293" s="13">
         <v>126</v>
       </c>
-      <c r="B293" s="16" t="s">
+      <c r="B293" s="14" t="s">
         <v>156</v>
       </c>
-      <c r="C293" s="15">
+      <c r="C293" s="13">
         <v>1</v>
       </c>
-      <c r="D293" s="15">
+      <c r="D293" s="13">
         <v>1</v>
       </c>
-      <c r="E293" s="15"/>
-      <c r="F293" s="15"/>
+      <c r="E293" s="13"/>
+      <c r="F293" s="13"/>
     </row>
     <row r="294" spans="1:6" ht="19.5" customHeight="1">
-      <c r="A294" s="11">
+      <c r="A294" s="16">
         <v>127</v>
       </c>
-      <c r="B294" s="18" t="s">
+      <c r="B294" s="17" t="s">
         <v>157</v>
       </c>
-      <c r="C294" s="11">
-        <v>3</v>
-      </c>
-      <c r="D294" s="11">
+      <c r="C294" s="16">
+        <v>3</v>
+      </c>
+      <c r="D294" s="16">
         <v>5</v>
       </c>
-      <c r="E294" s="11" t="s">
+      <c r="E294" s="16" t="s">
         <v>158</v>
       </c>
-      <c r="F294" s="15" t="s">
+      <c r="F294" s="13" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="295" spans="1:6" customFormat="1" ht="19.5" hidden="1" customHeight="1">
-      <c r="A295" s="11"/>
-      <c r="B295" s="11"/>
-      <c r="C295" s="11"/>
-      <c r="D295" s="11"/>
-      <c r="E295" s="11"/>
+    <row r="295" spans="1:6" customFormat="1" ht="19.5" customHeight="1">
+      <c r="A295" s="16"/>
+      <c r="B295" s="16"/>
+      <c r="C295" s="16"/>
+      <c r="D295" s="16"/>
+      <c r="E295" s="16"/>
       <c r="F295" s="7" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="296" spans="1:6" customFormat="1" ht="15.75" hidden="1" customHeight="1">
-      <c r="A296" s="11"/>
-      <c r="B296" s="11"/>
-      <c r="C296" s="11"/>
-      <c r="D296" s="11"/>
-      <c r="E296" s="11"/>
-    </row>
-    <row r="297" spans="1:6" customFormat="1" ht="15.75" hidden="1" customHeight="1">
-      <c r="A297" s="11">
+    <row r="296" spans="1:6" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A296" s="16"/>
+      <c r="B296" s="16"/>
+      <c r="C296" s="16"/>
+      <c r="D296" s="16"/>
+      <c r="E296" s="16"/>
+    </row>
+    <row r="297" spans="1:6" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A297" s="16">
         <v>128</v>
       </c>
-      <c r="B297" s="11" t="s">
+      <c r="B297" s="16" t="s">
         <v>160</v>
       </c>
-      <c r="C297" s="11">
+      <c r="C297" s="16">
         <v>4</v>
       </c>
-      <c r="D297" s="11">
-        <v>3</v>
-      </c>
-      <c r="E297" s="11" t="s">
+      <c r="D297" s="16">
+        <v>3</v>
+      </c>
+      <c r="E297" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="F297" s="11"/>
-    </row>
-    <row r="298" spans="1:6" customFormat="1" ht="15.75" hidden="1" customHeight="1">
-      <c r="A298" s="11"/>
-      <c r="B298" s="11"/>
-      <c r="C298" s="11"/>
-      <c r="D298" s="11"/>
-      <c r="E298" s="11"/>
-      <c r="F298" s="11"/>
+      <c r="F297" s="16"/>
+    </row>
+    <row r="298" spans="1:6" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A298" s="16"/>
+      <c r="B298" s="16"/>
+      <c r="C298" s="16"/>
+      <c r="D298" s="16"/>
+      <c r="E298" s="16"/>
+      <c r="F298" s="16"/>
     </row>
     <row r="299" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A299" s="11">
+      <c r="A299" s="16">
         <v>129</v>
       </c>
-      <c r="B299" s="18" t="s">
+      <c r="B299" s="17" t="s">
         <v>161</v>
       </c>
-      <c r="C299" s="11">
+      <c r="C299" s="16">
         <v>2</v>
       </c>
-      <c r="D299" s="11">
+      <c r="D299" s="16">
         <v>4</v>
       </c>
-      <c r="E299" s="11" t="s">
+      <c r="E299" s="16" t="s">
         <v>121</v>
       </c>
-      <c r="F299" s="11" t="s">
+      <c r="F299" s="16" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="300" spans="1:6" customFormat="1" ht="15.75" hidden="1" customHeight="1">
-      <c r="A300" s="11"/>
-      <c r="B300" s="11"/>
-      <c r="C300" s="11"/>
-      <c r="D300" s="11"/>
-      <c r="E300" s="11"/>
-      <c r="F300" s="11"/>
-    </row>
-    <row r="301" spans="1:6" customFormat="1" ht="19.5" hidden="1" customHeight="1">
-      <c r="A301" s="11">
+    <row r="300" spans="1:6" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A300" s="16"/>
+      <c r="B300" s="16"/>
+      <c r="C300" s="16"/>
+      <c r="D300" s="16"/>
+      <c r="E300" s="16"/>
+      <c r="F300" s="16"/>
+    </row>
+    <row r="301" spans="1:6" customFormat="1" ht="19.5" customHeight="1">
+      <c r="A301" s="16">
         <v>130</v>
       </c>
-      <c r="B301" s="11" t="s">
+      <c r="B301" s="16" t="s">
         <v>162</v>
       </c>
-      <c r="C301" s="11">
+      <c r="C301" s="16">
         <v>4</v>
       </c>
-      <c r="D301" s="11">
-        <v>3</v>
-      </c>
-      <c r="E301" s="11" t="s">
+      <c r="D301" s="16">
+        <v>3</v>
+      </c>
+      <c r="E301" s="16" t="s">
         <v>7</v>
       </c>
       <c r="F301" s="7" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="302" spans="1:6" customFormat="1" ht="19.5" hidden="1" customHeight="1">
-      <c r="A302" s="11"/>
-      <c r="B302" s="11"/>
-      <c r="C302" s="11"/>
-      <c r="D302" s="11"/>
-      <c r="E302" s="11"/>
+    <row r="302" spans="1:6" customFormat="1" ht="19.5" customHeight="1">
+      <c r="A302" s="16"/>
+      <c r="B302" s="16"/>
+      <c r="C302" s="16"/>
+      <c r="D302" s="16"/>
+      <c r="E302" s="16"/>
       <c r="F302" s="7" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="303" spans="1:6" customFormat="1" ht="15.75" hidden="1" customHeight="1">
-      <c r="A303" s="11"/>
-      <c r="B303" s="11"/>
-      <c r="C303" s="11"/>
-      <c r="D303" s="11"/>
-      <c r="E303" s="11"/>
+    <row r="303" spans="1:6" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A303" s="16"/>
+      <c r="B303" s="16"/>
+      <c r="C303" s="16"/>
+      <c r="D303" s="16"/>
+      <c r="E303" s="16"/>
     </row>
     <row r="304" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A304" s="11">
+      <c r="A304" s="16">
         <v>131</v>
       </c>
-      <c r="B304" s="18" t="s">
+      <c r="B304" s="17" t="s">
         <v>163</v>
       </c>
-      <c r="C304" s="11">
-        <v>3</v>
-      </c>
-      <c r="D304" s="11">
+      <c r="C304" s="16">
+        <v>3</v>
+      </c>
+      <c r="D304" s="16">
         <v>4</v>
       </c>
-      <c r="E304" s="11" t="s">
+      <c r="E304" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="F304" s="11" t="s">
+      <c r="F304" s="16" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="305" spans="1:6" customFormat="1" ht="15.75" hidden="1" customHeight="1">
-      <c r="A305" s="11"/>
-      <c r="B305" s="11"/>
-      <c r="C305" s="11"/>
-      <c r="D305" s="11"/>
-      <c r="E305" s="11"/>
-      <c r="F305" s="11"/>
-    </row>
-    <row r="306" spans="1:6" customFormat="1" ht="15.75" hidden="1" customHeight="1">
-      <c r="A306" s="11">
+    <row r="305" spans="1:6" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A305" s="16"/>
+      <c r="B305" s="16"/>
+      <c r="C305" s="16"/>
+      <c r="D305" s="16"/>
+      <c r="E305" s="16"/>
+      <c r="F305" s="16"/>
+    </row>
+    <row r="306" spans="1:6" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A306" s="16">
         <v>132</v>
       </c>
-      <c r="B306" s="11" t="s">
+      <c r="B306" s="16" t="s">
         <v>164</v>
       </c>
-      <c r="C306" s="11">
+      <c r="C306" s="16">
         <v>4</v>
       </c>
-      <c r="D306" s="11">
-        <v>3</v>
-      </c>
-      <c r="E306" s="11" t="s">
+      <c r="D306" s="16">
+        <v>3</v>
+      </c>
+      <c r="E306" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="F306" s="11" t="s">
+      <c r="F306" s="16" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="307" spans="1:6" customFormat="1" ht="15.75" hidden="1" customHeight="1">
-      <c r="A307" s="11"/>
-      <c r="B307" s="11"/>
-      <c r="C307" s="11"/>
-      <c r="D307" s="11"/>
-      <c r="E307" s="11"/>
-      <c r="F307" s="11"/>
+    <row r="307" spans="1:6" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A307" s="16"/>
+      <c r="B307" s="16"/>
+      <c r="C307" s="16"/>
+      <c r="D307" s="16"/>
+      <c r="E307" s="16"/>
+      <c r="F307" s="16"/>
+    </row>
+    <row r="308" spans="1:6">
+      <c r="A308" s="16">
+        <v>133</v>
+      </c>
+      <c r="B308" s="16" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="309" spans="1:6">
+      <c r="A309" s="16"/>
+      <c r="B309" s="16"/>
+    </row>
+    <row r="310" spans="1:6">
+      <c r="A310" s="16">
+        <v>134</v>
+      </c>
+      <c r="B310" s="16" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="311" spans="1:6">
+      <c r="A311" s="16"/>
+      <c r="B311" s="16"/>
+    </row>
+    <row r="312" spans="1:6">
+      <c r="A312" s="16">
+        <v>135</v>
+      </c>
+      <c r="B312" s="16" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="313" spans="1:6">
+      <c r="A313" s="16"/>
+      <c r="B313" s="16"/>
+    </row>
+    <row r="314" spans="1:6">
+      <c r="A314" s="16">
+        <v>136</v>
+      </c>
+      <c r="B314" s="16" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="315" spans="1:6">
+      <c r="A315" s="16"/>
+      <c r="B315" s="16"/>
+    </row>
+    <row r="316" spans="1:6">
+      <c r="A316" s="16">
+        <v>137</v>
+      </c>
+      <c r="B316" s="16" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="317" spans="1:6">
+      <c r="A317" s="16"/>
+      <c r="B317" s="16"/>
+    </row>
+    <row r="318" spans="1:6">
+      <c r="A318" s="16">
+        <v>138</v>
+      </c>
+      <c r="B318" s="16" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="319" spans="1:6">
+      <c r="A319" s="16"/>
+      <c r="B319" s="16"/>
+    </row>
+    <row r="320" spans="1:6">
+      <c r="A320" s="16">
+        <v>139</v>
+      </c>
+      <c r="B320" s="16" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="321" spans="1:2">
+      <c r="A321" s="16"/>
+      <c r="B321" s="16"/>
+    </row>
+    <row r="322" spans="1:2">
+      <c r="A322" s="16">
+        <v>140</v>
+      </c>
+      <c r="B322" s="16" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="323" spans="1:2">
+      <c r="A323" s="16"/>
+      <c r="B323" s="16"/>
+    </row>
+    <row r="324" spans="1:2">
+      <c r="A324" s="16">
+        <v>141</v>
+      </c>
+      <c r="B324" s="16" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="325" spans="1:2">
+      <c r="A325" s="16"/>
+      <c r="B325" s="16"/>
+    </row>
+    <row r="326" spans="1:2" ht="15.6" customHeight="1">
+      <c r="A326" s="16">
+        <v>142</v>
+      </c>
+      <c r="B326" s="16" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="327" spans="1:2" ht="15.6" customHeight="1">
+      <c r="A327" s="16"/>
+      <c r="B327" s="16"/>
+    </row>
+    <row r="328" spans="1:2">
+      <c r="A328" s="16">
+        <v>143</v>
+      </c>
+      <c r="B328" s="16" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="329" spans="1:2">
+      <c r="A329" s="16"/>
+      <c r="B329" s="16"/>
+    </row>
+    <row r="330" spans="1:2">
+      <c r="A330" s="16">
+        <v>144</v>
+      </c>
+      <c r="B330" s="16" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="331" spans="1:2">
+      <c r="A331" s="16"/>
+      <c r="B331" s="16"/>
+    </row>
+    <row r="332" spans="1:2" ht="15.6" customHeight="1">
+      <c r="A332" s="16">
+        <v>145</v>
+      </c>
+      <c r="B332" s="16" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="333" spans="1:2" ht="15.6" customHeight="1">
+      <c r="A333" s="16"/>
+      <c r="B333" s="16"/>
+    </row>
+    <row r="334" spans="1:2">
+      <c r="A334" s="16">
+        <v>146</v>
+      </c>
+      <c r="B334" s="16" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="335" spans="1:2">
+      <c r="A335" s="16"/>
+      <c r="B335" s="16"/>
+    </row>
+    <row r="336" spans="1:2">
+      <c r="A336" s="16">
+        <v>147</v>
+      </c>
+      <c r="B336" s="16" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="337" spans="1:2">
+      <c r="A337" s="16"/>
+      <c r="B337" s="16"/>
+    </row>
+    <row r="338" spans="1:2">
+      <c r="A338" s="16">
+        <v>148</v>
+      </c>
+      <c r="B338" s="16" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="339" spans="1:2">
+      <c r="A339" s="16"/>
+      <c r="B339" s="16"/>
+    </row>
+    <row r="340" spans="1:2">
+      <c r="A340" s="16">
+        <v>149</v>
+      </c>
+      <c r="B340" s="16" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="341" spans="1:2">
+      <c r="A341" s="16"/>
+      <c r="B341" s="16"/>
+    </row>
+    <row r="342" spans="1:2">
+      <c r="A342" s="16">
+        <v>150</v>
+      </c>
+      <c r="B342" s="16" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="343" spans="1:2">
+      <c r="A343" s="16"/>
+      <c r="B343" s="16"/>
+    </row>
+    <row r="344" spans="1:2">
+      <c r="A344" s="16">
+        <v>151</v>
+      </c>
+      <c r="B344" s="16" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="345" spans="1:2">
+      <c r="A345" s="16"/>
+      <c r="B345" s="16"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F307">
-    <filterColumn colId="2">
-      <filters>
-        <filter val="1"/>
-        <filter val="2"/>
-        <filter val="3"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
-  <mergeCells count="744">
-    <mergeCell ref="E5:E7"/>
-    <mergeCell ref="A8:A10"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="C8:C10"/>
-    <mergeCell ref="D8:D10"/>
-    <mergeCell ref="F8:F10"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="C2:C4"/>
-    <mergeCell ref="D2:D4"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="C5:C7"/>
-    <mergeCell ref="D5:D7"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="F19:F20"/>
+  <autoFilter ref="A1:F307"/>
+  <mergeCells count="782">
+    <mergeCell ref="A344:A345"/>
+    <mergeCell ref="B308:B309"/>
+    <mergeCell ref="B310:B311"/>
+    <mergeCell ref="B312:B313"/>
+    <mergeCell ref="B314:B315"/>
+    <mergeCell ref="B316:B317"/>
+    <mergeCell ref="B318:B319"/>
+    <mergeCell ref="B320:B321"/>
+    <mergeCell ref="B322:B323"/>
+    <mergeCell ref="B324:B325"/>
+    <mergeCell ref="B326:B327"/>
+    <mergeCell ref="B328:B329"/>
+    <mergeCell ref="B330:B331"/>
+    <mergeCell ref="B332:B333"/>
+    <mergeCell ref="B334:B335"/>
+    <mergeCell ref="B336:B337"/>
+    <mergeCell ref="B338:B339"/>
+    <mergeCell ref="B340:B341"/>
+    <mergeCell ref="B342:B343"/>
+    <mergeCell ref="B344:B345"/>
+    <mergeCell ref="A326:A327"/>
+    <mergeCell ref="A328:A329"/>
+    <mergeCell ref="A330:A331"/>
+    <mergeCell ref="A332:A333"/>
+    <mergeCell ref="A334:A335"/>
+    <mergeCell ref="A336:A337"/>
+    <mergeCell ref="A338:A339"/>
+    <mergeCell ref="A340:A341"/>
+    <mergeCell ref="A342:A343"/>
+    <mergeCell ref="A308:A309"/>
+    <mergeCell ref="A310:A311"/>
+    <mergeCell ref="A312:A313"/>
+    <mergeCell ref="A314:A315"/>
+    <mergeCell ref="A316:A317"/>
+    <mergeCell ref="A318:A319"/>
+    <mergeCell ref="A320:A321"/>
+    <mergeCell ref="A322:A323"/>
+    <mergeCell ref="A324:A325"/>
+    <mergeCell ref="F304:F305"/>
+    <mergeCell ref="A306:A307"/>
+    <mergeCell ref="B306:B307"/>
+    <mergeCell ref="C306:C307"/>
+    <mergeCell ref="D306:D307"/>
+    <mergeCell ref="E306:E307"/>
+    <mergeCell ref="F306:F307"/>
+    <mergeCell ref="A301:A303"/>
+    <mergeCell ref="B301:B303"/>
+    <mergeCell ref="C301:C303"/>
+    <mergeCell ref="D301:D303"/>
+    <mergeCell ref="E301:E303"/>
+    <mergeCell ref="A304:A305"/>
+    <mergeCell ref="B304:B305"/>
+    <mergeCell ref="C304:C305"/>
+    <mergeCell ref="D304:D305"/>
+    <mergeCell ref="E304:E305"/>
+    <mergeCell ref="F297:F298"/>
+    <mergeCell ref="A299:A300"/>
+    <mergeCell ref="B299:B300"/>
+    <mergeCell ref="C299:C300"/>
+    <mergeCell ref="D299:D300"/>
+    <mergeCell ref="E299:E300"/>
+    <mergeCell ref="F299:F300"/>
+    <mergeCell ref="A294:A296"/>
+    <mergeCell ref="B294:B296"/>
+    <mergeCell ref="C294:C296"/>
+    <mergeCell ref="D294:D296"/>
+    <mergeCell ref="E294:E296"/>
+    <mergeCell ref="A297:A298"/>
+    <mergeCell ref="B297:B298"/>
+    <mergeCell ref="C297:C298"/>
+    <mergeCell ref="D297:D298"/>
+    <mergeCell ref="E297:E298"/>
+    <mergeCell ref="A291:A292"/>
+    <mergeCell ref="B291:B292"/>
+    <mergeCell ref="C291:C292"/>
+    <mergeCell ref="D291:D292"/>
+    <mergeCell ref="E291:E292"/>
+    <mergeCell ref="F291:F292"/>
+    <mergeCell ref="A289:A290"/>
+    <mergeCell ref="B289:B290"/>
+    <mergeCell ref="C289:C290"/>
+    <mergeCell ref="D289:D290"/>
+    <mergeCell ref="E289:E290"/>
+    <mergeCell ref="F289:F290"/>
+    <mergeCell ref="A287:A288"/>
+    <mergeCell ref="B287:B288"/>
+    <mergeCell ref="C287:C288"/>
+    <mergeCell ref="D287:D288"/>
+    <mergeCell ref="E287:E288"/>
+    <mergeCell ref="F287:F288"/>
+    <mergeCell ref="A285:A286"/>
+    <mergeCell ref="B285:B286"/>
+    <mergeCell ref="C285:C286"/>
+    <mergeCell ref="D285:D286"/>
+    <mergeCell ref="E285:E286"/>
+    <mergeCell ref="F285:F286"/>
+    <mergeCell ref="A283:A284"/>
+    <mergeCell ref="B283:B284"/>
+    <mergeCell ref="C283:C284"/>
+    <mergeCell ref="D283:D284"/>
+    <mergeCell ref="E283:E284"/>
+    <mergeCell ref="F283:F284"/>
+    <mergeCell ref="A281:A282"/>
+    <mergeCell ref="B281:B282"/>
+    <mergeCell ref="C281:C282"/>
+    <mergeCell ref="D281:D282"/>
+    <mergeCell ref="E281:E282"/>
+    <mergeCell ref="F281:F282"/>
+    <mergeCell ref="A279:A280"/>
+    <mergeCell ref="B279:B280"/>
+    <mergeCell ref="C279:C280"/>
+    <mergeCell ref="D279:D280"/>
+    <mergeCell ref="E279:E280"/>
+    <mergeCell ref="F279:F280"/>
+    <mergeCell ref="A277:A278"/>
+    <mergeCell ref="B277:B278"/>
+    <mergeCell ref="C277:C278"/>
+    <mergeCell ref="D277:D278"/>
+    <mergeCell ref="E277:E278"/>
+    <mergeCell ref="F277:F278"/>
+    <mergeCell ref="A275:A276"/>
+    <mergeCell ref="B275:B276"/>
+    <mergeCell ref="C275:C276"/>
+    <mergeCell ref="D275:D276"/>
+    <mergeCell ref="E275:E276"/>
+    <mergeCell ref="F275:F276"/>
+    <mergeCell ref="F271:F272"/>
+    <mergeCell ref="A273:A274"/>
+    <mergeCell ref="B273:B274"/>
+    <mergeCell ref="C273:C274"/>
+    <mergeCell ref="D273:D274"/>
+    <mergeCell ref="E273:E274"/>
+    <mergeCell ref="F273:F274"/>
+    <mergeCell ref="A268:A270"/>
+    <mergeCell ref="B268:B270"/>
+    <mergeCell ref="C268:C270"/>
+    <mergeCell ref="D268:D270"/>
+    <mergeCell ref="E268:E270"/>
+    <mergeCell ref="A271:A272"/>
+    <mergeCell ref="B271:B272"/>
+    <mergeCell ref="C271:C272"/>
+    <mergeCell ref="D271:D272"/>
+    <mergeCell ref="E271:E272"/>
+    <mergeCell ref="A266:A267"/>
+    <mergeCell ref="B266:B267"/>
+    <mergeCell ref="C266:C267"/>
+    <mergeCell ref="D266:D267"/>
+    <mergeCell ref="E266:E267"/>
+    <mergeCell ref="F266:F267"/>
+    <mergeCell ref="A264:A265"/>
+    <mergeCell ref="B264:B265"/>
+    <mergeCell ref="C264:C265"/>
+    <mergeCell ref="D264:D265"/>
+    <mergeCell ref="E264:E265"/>
+    <mergeCell ref="F264:F265"/>
+    <mergeCell ref="F260:F261"/>
+    <mergeCell ref="A262:A263"/>
+    <mergeCell ref="B262:B263"/>
+    <mergeCell ref="C262:C263"/>
+    <mergeCell ref="D262:D263"/>
+    <mergeCell ref="E262:E263"/>
+    <mergeCell ref="F262:F263"/>
+    <mergeCell ref="A257:A259"/>
+    <mergeCell ref="B257:B259"/>
+    <mergeCell ref="C257:C259"/>
+    <mergeCell ref="D257:D259"/>
+    <mergeCell ref="E257:E259"/>
+    <mergeCell ref="A260:A261"/>
+    <mergeCell ref="B260:B261"/>
+    <mergeCell ref="C260:C261"/>
+    <mergeCell ref="D260:D261"/>
+    <mergeCell ref="E260:E261"/>
+    <mergeCell ref="F253:F254"/>
+    <mergeCell ref="A255:A256"/>
+    <mergeCell ref="B255:B256"/>
+    <mergeCell ref="C255:C256"/>
+    <mergeCell ref="D255:D256"/>
+    <mergeCell ref="E255:E256"/>
+    <mergeCell ref="F255:F256"/>
+    <mergeCell ref="A250:A252"/>
+    <mergeCell ref="B250:B252"/>
+    <mergeCell ref="C250:C252"/>
+    <mergeCell ref="D250:D252"/>
+    <mergeCell ref="F250:F252"/>
+    <mergeCell ref="A253:A254"/>
+    <mergeCell ref="B253:B254"/>
+    <mergeCell ref="C253:C254"/>
+    <mergeCell ref="D253:D254"/>
+    <mergeCell ref="E253:E254"/>
+    <mergeCell ref="E245:E246"/>
+    <mergeCell ref="F245:F246"/>
+    <mergeCell ref="A247:A249"/>
+    <mergeCell ref="B247:B249"/>
+    <mergeCell ref="C247:C249"/>
+    <mergeCell ref="D247:D249"/>
+    <mergeCell ref="F247:F249"/>
+    <mergeCell ref="A242:A244"/>
+    <mergeCell ref="B242:B244"/>
+    <mergeCell ref="C242:C244"/>
+    <mergeCell ref="D242:D244"/>
+    <mergeCell ref="A245:A246"/>
+    <mergeCell ref="B245:B246"/>
+    <mergeCell ref="C245:C246"/>
+    <mergeCell ref="D245:D246"/>
+    <mergeCell ref="A240:A241"/>
+    <mergeCell ref="B240:B241"/>
+    <mergeCell ref="C240:C241"/>
+    <mergeCell ref="D240:D241"/>
+    <mergeCell ref="E240:E241"/>
+    <mergeCell ref="F240:F241"/>
+    <mergeCell ref="A238:A239"/>
+    <mergeCell ref="B238:B239"/>
+    <mergeCell ref="C238:C239"/>
+    <mergeCell ref="D238:D239"/>
+    <mergeCell ref="E238:E239"/>
+    <mergeCell ref="F238:F239"/>
+    <mergeCell ref="A236:A237"/>
+    <mergeCell ref="B236:B237"/>
+    <mergeCell ref="C236:C237"/>
+    <mergeCell ref="D236:D237"/>
+    <mergeCell ref="E236:E237"/>
+    <mergeCell ref="F236:F237"/>
+    <mergeCell ref="A234:A235"/>
+    <mergeCell ref="B234:B235"/>
+    <mergeCell ref="C234:C235"/>
+    <mergeCell ref="D234:D235"/>
+    <mergeCell ref="E234:E235"/>
+    <mergeCell ref="F234:F235"/>
+    <mergeCell ref="A232:A233"/>
+    <mergeCell ref="B232:B233"/>
+    <mergeCell ref="C232:C233"/>
+    <mergeCell ref="D232:D233"/>
+    <mergeCell ref="E232:E233"/>
+    <mergeCell ref="F232:F233"/>
+    <mergeCell ref="F227:F228"/>
+    <mergeCell ref="A229:A231"/>
+    <mergeCell ref="B229:B231"/>
+    <mergeCell ref="C229:C231"/>
+    <mergeCell ref="D229:D231"/>
+    <mergeCell ref="E229:E231"/>
+    <mergeCell ref="E224:E226"/>
+    <mergeCell ref="A227:A228"/>
+    <mergeCell ref="B227:B228"/>
+    <mergeCell ref="C227:C228"/>
+    <mergeCell ref="D227:D228"/>
+    <mergeCell ref="E227:E228"/>
+    <mergeCell ref="A220:A223"/>
+    <mergeCell ref="B220:B223"/>
+    <mergeCell ref="C220:C223"/>
+    <mergeCell ref="D220:D223"/>
+    <mergeCell ref="A224:A226"/>
+    <mergeCell ref="B224:B226"/>
+    <mergeCell ref="C224:C226"/>
+    <mergeCell ref="D224:D226"/>
+    <mergeCell ref="F216:F217"/>
+    <mergeCell ref="A218:A219"/>
+    <mergeCell ref="B218:B219"/>
+    <mergeCell ref="C218:C219"/>
+    <mergeCell ref="D218:D219"/>
+    <mergeCell ref="E218:E219"/>
+    <mergeCell ref="F218:F219"/>
+    <mergeCell ref="A213:A215"/>
+    <mergeCell ref="B213:B215"/>
+    <mergeCell ref="C213:C215"/>
+    <mergeCell ref="D213:D215"/>
+    <mergeCell ref="E213:E215"/>
+    <mergeCell ref="A216:A217"/>
+    <mergeCell ref="B216:B217"/>
+    <mergeCell ref="C216:C217"/>
+    <mergeCell ref="D216:D217"/>
+    <mergeCell ref="E216:E217"/>
+    <mergeCell ref="F208:F209"/>
+    <mergeCell ref="A210:A212"/>
+    <mergeCell ref="B210:B212"/>
+    <mergeCell ref="C210:C212"/>
+    <mergeCell ref="D210:D212"/>
+    <mergeCell ref="E210:E212"/>
+    <mergeCell ref="A205:A207"/>
+    <mergeCell ref="B205:B207"/>
+    <mergeCell ref="C205:C207"/>
+    <mergeCell ref="D205:D207"/>
+    <mergeCell ref="E205:E207"/>
+    <mergeCell ref="A208:A209"/>
+    <mergeCell ref="B208:B209"/>
+    <mergeCell ref="C208:C209"/>
+    <mergeCell ref="D208:D209"/>
+    <mergeCell ref="E208:E209"/>
+    <mergeCell ref="F200:F201"/>
+    <mergeCell ref="A202:A204"/>
+    <mergeCell ref="B202:B204"/>
+    <mergeCell ref="C202:C204"/>
+    <mergeCell ref="D202:D204"/>
+    <mergeCell ref="E202:E204"/>
+    <mergeCell ref="A197:A199"/>
+    <mergeCell ref="B197:B199"/>
+    <mergeCell ref="C197:C199"/>
+    <mergeCell ref="D197:D199"/>
+    <mergeCell ref="E197:E199"/>
+    <mergeCell ref="A200:A201"/>
+    <mergeCell ref="B200:B201"/>
+    <mergeCell ref="C200:C201"/>
+    <mergeCell ref="D200:D201"/>
+    <mergeCell ref="E200:E201"/>
+    <mergeCell ref="F193:F194"/>
+    <mergeCell ref="A195:A196"/>
+    <mergeCell ref="B195:B196"/>
+    <mergeCell ref="C195:C196"/>
+    <mergeCell ref="D195:D196"/>
+    <mergeCell ref="E195:E196"/>
+    <mergeCell ref="F195:F196"/>
+    <mergeCell ref="A190:A192"/>
+    <mergeCell ref="B190:B192"/>
+    <mergeCell ref="C190:C192"/>
+    <mergeCell ref="D190:D192"/>
+    <mergeCell ref="E190:E192"/>
+    <mergeCell ref="A193:A194"/>
+    <mergeCell ref="B193:B194"/>
+    <mergeCell ref="C193:C194"/>
+    <mergeCell ref="D193:D194"/>
+    <mergeCell ref="E193:E194"/>
+    <mergeCell ref="A188:A189"/>
+    <mergeCell ref="B188:B189"/>
+    <mergeCell ref="C188:C189"/>
+    <mergeCell ref="D188:D189"/>
+    <mergeCell ref="E188:E189"/>
+    <mergeCell ref="F188:F189"/>
+    <mergeCell ref="F184:F185"/>
+    <mergeCell ref="A186:A187"/>
+    <mergeCell ref="B186:B187"/>
+    <mergeCell ref="C186:C187"/>
+    <mergeCell ref="D186:D187"/>
+    <mergeCell ref="E186:E187"/>
+    <mergeCell ref="F186:F187"/>
+    <mergeCell ref="A181:A183"/>
+    <mergeCell ref="B181:B183"/>
+    <mergeCell ref="C181:C183"/>
+    <mergeCell ref="D181:D183"/>
+    <mergeCell ref="E181:E183"/>
+    <mergeCell ref="A184:A185"/>
+    <mergeCell ref="B184:B185"/>
+    <mergeCell ref="C184:C185"/>
+    <mergeCell ref="D184:D185"/>
+    <mergeCell ref="E184:E185"/>
+    <mergeCell ref="F177:F178"/>
+    <mergeCell ref="A179:A180"/>
+    <mergeCell ref="B179:B180"/>
+    <mergeCell ref="C179:C180"/>
+    <mergeCell ref="D179:D180"/>
+    <mergeCell ref="E179:E180"/>
+    <mergeCell ref="F179:F180"/>
+    <mergeCell ref="A174:A176"/>
+    <mergeCell ref="B174:B176"/>
+    <mergeCell ref="C174:C176"/>
+    <mergeCell ref="D174:D176"/>
+    <mergeCell ref="E174:E176"/>
+    <mergeCell ref="A177:A178"/>
+    <mergeCell ref="B177:B178"/>
+    <mergeCell ref="C177:C178"/>
+    <mergeCell ref="D177:D178"/>
+    <mergeCell ref="E177:E178"/>
+    <mergeCell ref="A172:A173"/>
+    <mergeCell ref="B172:B173"/>
+    <mergeCell ref="C172:C173"/>
+    <mergeCell ref="D172:D173"/>
+    <mergeCell ref="E172:E173"/>
+    <mergeCell ref="F172:F173"/>
+    <mergeCell ref="A170:A171"/>
+    <mergeCell ref="B170:B171"/>
+    <mergeCell ref="C170:C171"/>
+    <mergeCell ref="D170:D171"/>
+    <mergeCell ref="E170:E171"/>
+    <mergeCell ref="F170:F171"/>
+    <mergeCell ref="A168:A169"/>
+    <mergeCell ref="B168:B169"/>
+    <mergeCell ref="C168:C169"/>
+    <mergeCell ref="D168:D169"/>
+    <mergeCell ref="E168:E169"/>
+    <mergeCell ref="F168:F169"/>
+    <mergeCell ref="A166:A167"/>
+    <mergeCell ref="B166:B167"/>
+    <mergeCell ref="C166:C167"/>
+    <mergeCell ref="D166:D167"/>
+    <mergeCell ref="E166:E167"/>
+    <mergeCell ref="F166:F167"/>
+    <mergeCell ref="A164:A165"/>
+    <mergeCell ref="B164:B165"/>
+    <mergeCell ref="C164:C165"/>
+    <mergeCell ref="D164:D165"/>
+    <mergeCell ref="E164:E165"/>
+    <mergeCell ref="F164:F165"/>
+    <mergeCell ref="F160:F161"/>
+    <mergeCell ref="A162:A163"/>
+    <mergeCell ref="B162:B163"/>
+    <mergeCell ref="C162:C163"/>
+    <mergeCell ref="D162:D163"/>
+    <mergeCell ref="E162:E163"/>
+    <mergeCell ref="F162:F163"/>
+    <mergeCell ref="A157:A159"/>
+    <mergeCell ref="B157:B159"/>
+    <mergeCell ref="C157:C159"/>
+    <mergeCell ref="D157:D159"/>
+    <mergeCell ref="E157:E159"/>
+    <mergeCell ref="A160:A161"/>
+    <mergeCell ref="B160:B161"/>
+    <mergeCell ref="C160:C161"/>
+    <mergeCell ref="D160:D161"/>
+    <mergeCell ref="E160:E161"/>
+    <mergeCell ref="A155:A156"/>
+    <mergeCell ref="B155:B156"/>
+    <mergeCell ref="C155:C156"/>
+    <mergeCell ref="D155:D156"/>
+    <mergeCell ref="E155:E156"/>
+    <mergeCell ref="F155:F156"/>
+    <mergeCell ref="A153:A154"/>
+    <mergeCell ref="B153:B154"/>
+    <mergeCell ref="C153:C154"/>
+    <mergeCell ref="D153:D154"/>
+    <mergeCell ref="E153:E154"/>
+    <mergeCell ref="F153:F154"/>
+    <mergeCell ref="A151:A152"/>
+    <mergeCell ref="B151:B152"/>
+    <mergeCell ref="C151:C152"/>
+    <mergeCell ref="D151:D152"/>
+    <mergeCell ref="E151:E152"/>
+    <mergeCell ref="F151:F152"/>
+    <mergeCell ref="A149:A150"/>
+    <mergeCell ref="B149:B150"/>
+    <mergeCell ref="C149:C150"/>
+    <mergeCell ref="D149:D150"/>
+    <mergeCell ref="E149:E150"/>
+    <mergeCell ref="F149:F150"/>
+    <mergeCell ref="F145:F146"/>
+    <mergeCell ref="A147:A148"/>
+    <mergeCell ref="B147:B148"/>
+    <mergeCell ref="C147:C148"/>
+    <mergeCell ref="D147:D148"/>
+    <mergeCell ref="E147:E148"/>
+    <mergeCell ref="F147:F148"/>
+    <mergeCell ref="A142:A144"/>
+    <mergeCell ref="B142:B144"/>
+    <mergeCell ref="C142:C144"/>
+    <mergeCell ref="D142:D144"/>
+    <mergeCell ref="E142:E144"/>
+    <mergeCell ref="A145:A146"/>
+    <mergeCell ref="B145:B146"/>
+    <mergeCell ref="C145:C146"/>
+    <mergeCell ref="D145:D146"/>
+    <mergeCell ref="E145:E146"/>
+    <mergeCell ref="A140:A141"/>
+    <mergeCell ref="B140:B141"/>
+    <mergeCell ref="C140:C141"/>
+    <mergeCell ref="D140:D141"/>
+    <mergeCell ref="E140:E141"/>
+    <mergeCell ref="F140:F141"/>
+    <mergeCell ref="A138:A139"/>
+    <mergeCell ref="B138:B139"/>
+    <mergeCell ref="C138:C139"/>
+    <mergeCell ref="D138:D139"/>
+    <mergeCell ref="E138:E139"/>
+    <mergeCell ref="F138:F139"/>
+    <mergeCell ref="A130:A133"/>
+    <mergeCell ref="B130:B133"/>
+    <mergeCell ref="C130:C133"/>
+    <mergeCell ref="D130:D133"/>
+    <mergeCell ref="A134:A137"/>
+    <mergeCell ref="B134:B137"/>
+    <mergeCell ref="C134:C137"/>
+    <mergeCell ref="D134:D137"/>
+    <mergeCell ref="A128:A129"/>
+    <mergeCell ref="B128:B129"/>
+    <mergeCell ref="C128:C129"/>
+    <mergeCell ref="D128:D129"/>
+    <mergeCell ref="E128:E129"/>
+    <mergeCell ref="F128:F129"/>
+    <mergeCell ref="A126:A127"/>
+    <mergeCell ref="B126:B127"/>
+    <mergeCell ref="C126:C127"/>
+    <mergeCell ref="D126:D127"/>
+    <mergeCell ref="E126:E127"/>
+    <mergeCell ref="F126:F127"/>
+    <mergeCell ref="A124:A125"/>
+    <mergeCell ref="B124:B125"/>
+    <mergeCell ref="C124:C125"/>
+    <mergeCell ref="D124:D125"/>
+    <mergeCell ref="E124:E125"/>
+    <mergeCell ref="F124:F125"/>
+    <mergeCell ref="A122:A123"/>
+    <mergeCell ref="B122:B123"/>
+    <mergeCell ref="C122:C123"/>
+    <mergeCell ref="D122:D123"/>
+    <mergeCell ref="E122:E123"/>
+    <mergeCell ref="F122:F123"/>
+    <mergeCell ref="A120:A121"/>
+    <mergeCell ref="B120:B121"/>
+    <mergeCell ref="C120:C121"/>
+    <mergeCell ref="D120:D121"/>
+    <mergeCell ref="E120:E121"/>
+    <mergeCell ref="F120:F121"/>
+    <mergeCell ref="A114:A116"/>
+    <mergeCell ref="B114:B116"/>
+    <mergeCell ref="C114:C116"/>
+    <mergeCell ref="D114:D116"/>
+    <mergeCell ref="F114:F116"/>
+    <mergeCell ref="A117:A119"/>
+    <mergeCell ref="B117:B119"/>
+    <mergeCell ref="C117:C119"/>
+    <mergeCell ref="D117:D119"/>
+    <mergeCell ref="E117:E119"/>
+    <mergeCell ref="A112:A113"/>
+    <mergeCell ref="B112:B113"/>
+    <mergeCell ref="C112:C113"/>
+    <mergeCell ref="D112:D113"/>
+    <mergeCell ref="E112:E113"/>
+    <mergeCell ref="F112:F113"/>
+    <mergeCell ref="A110:A111"/>
+    <mergeCell ref="B110:B111"/>
+    <mergeCell ref="C110:C111"/>
+    <mergeCell ref="D110:D111"/>
+    <mergeCell ref="E110:E111"/>
+    <mergeCell ref="F110:F111"/>
+    <mergeCell ref="F106:F107"/>
+    <mergeCell ref="A108:A109"/>
+    <mergeCell ref="B108:B109"/>
+    <mergeCell ref="C108:C109"/>
+    <mergeCell ref="D108:D109"/>
+    <mergeCell ref="E108:E109"/>
+    <mergeCell ref="F108:F109"/>
+    <mergeCell ref="A102:A105"/>
+    <mergeCell ref="B102:B105"/>
+    <mergeCell ref="C102:C105"/>
+    <mergeCell ref="D102:D105"/>
+    <mergeCell ref="E102:E105"/>
+    <mergeCell ref="A106:A107"/>
+    <mergeCell ref="B106:B107"/>
+    <mergeCell ref="C106:C107"/>
+    <mergeCell ref="D106:D107"/>
+    <mergeCell ref="E106:E107"/>
+    <mergeCell ref="A96:A98"/>
+    <mergeCell ref="B96:B98"/>
+    <mergeCell ref="C96:C98"/>
+    <mergeCell ref="D96:D98"/>
+    <mergeCell ref="E96:E98"/>
+    <mergeCell ref="A99:A101"/>
+    <mergeCell ref="B99:B101"/>
+    <mergeCell ref="C99:C101"/>
+    <mergeCell ref="D99:D101"/>
+    <mergeCell ref="E99:E101"/>
+    <mergeCell ref="A94:A95"/>
+    <mergeCell ref="B94:B95"/>
+    <mergeCell ref="C94:C95"/>
+    <mergeCell ref="D94:D95"/>
+    <mergeCell ref="E94:E95"/>
+    <mergeCell ref="F94:F95"/>
+    <mergeCell ref="A92:A93"/>
+    <mergeCell ref="B92:B93"/>
+    <mergeCell ref="C92:C93"/>
+    <mergeCell ref="D92:D93"/>
+    <mergeCell ref="E92:E93"/>
+    <mergeCell ref="F92:F93"/>
+    <mergeCell ref="A90:A91"/>
+    <mergeCell ref="B90:B91"/>
+    <mergeCell ref="C90:C91"/>
+    <mergeCell ref="D90:D91"/>
+    <mergeCell ref="E90:E91"/>
+    <mergeCell ref="F90:F91"/>
+    <mergeCell ref="A88:A89"/>
+    <mergeCell ref="B88:B89"/>
+    <mergeCell ref="C88:C89"/>
+    <mergeCell ref="D88:D89"/>
+    <mergeCell ref="E88:E89"/>
+    <mergeCell ref="F88:F89"/>
+    <mergeCell ref="A86:A87"/>
+    <mergeCell ref="B86:B87"/>
+    <mergeCell ref="C86:C87"/>
+    <mergeCell ref="D86:D87"/>
+    <mergeCell ref="E86:E87"/>
+    <mergeCell ref="F86:F87"/>
+    <mergeCell ref="A84:A85"/>
+    <mergeCell ref="B84:B85"/>
+    <mergeCell ref="C84:C85"/>
+    <mergeCell ref="D84:D85"/>
+    <mergeCell ref="E84:E85"/>
+    <mergeCell ref="F84:F85"/>
+    <mergeCell ref="A82:A83"/>
+    <mergeCell ref="B82:B83"/>
+    <mergeCell ref="C82:C83"/>
+    <mergeCell ref="D82:D83"/>
+    <mergeCell ref="E82:E83"/>
+    <mergeCell ref="F82:F83"/>
+    <mergeCell ref="A80:A81"/>
+    <mergeCell ref="B80:B81"/>
+    <mergeCell ref="C80:C81"/>
+    <mergeCell ref="D80:D81"/>
+    <mergeCell ref="E80:E81"/>
+    <mergeCell ref="F80:F81"/>
+    <mergeCell ref="A78:A79"/>
+    <mergeCell ref="B78:B79"/>
+    <mergeCell ref="C78:C79"/>
+    <mergeCell ref="D78:D79"/>
+    <mergeCell ref="E78:E79"/>
+    <mergeCell ref="F78:F79"/>
+    <mergeCell ref="A76:A77"/>
+    <mergeCell ref="B76:B77"/>
+    <mergeCell ref="C76:C77"/>
+    <mergeCell ref="D76:D77"/>
+    <mergeCell ref="E76:E77"/>
+    <mergeCell ref="F76:F77"/>
+    <mergeCell ref="A74:A75"/>
+    <mergeCell ref="B74:B75"/>
+    <mergeCell ref="C74:C75"/>
+    <mergeCell ref="D74:D75"/>
+    <mergeCell ref="E74:E75"/>
+    <mergeCell ref="F74:F75"/>
+    <mergeCell ref="A72:A73"/>
+    <mergeCell ref="B72:B73"/>
+    <mergeCell ref="C72:C73"/>
+    <mergeCell ref="D72:D73"/>
+    <mergeCell ref="E72:E73"/>
+    <mergeCell ref="F72:F73"/>
+    <mergeCell ref="A65:A68"/>
+    <mergeCell ref="B65:B68"/>
+    <mergeCell ref="C65:C68"/>
+    <mergeCell ref="D65:D68"/>
+    <mergeCell ref="E65:E68"/>
+    <mergeCell ref="A69:A71"/>
+    <mergeCell ref="B69:B71"/>
+    <mergeCell ref="C69:C71"/>
+    <mergeCell ref="D69:D71"/>
+    <mergeCell ref="E69:E71"/>
+    <mergeCell ref="A63:A64"/>
+    <mergeCell ref="B63:B64"/>
+    <mergeCell ref="C63:C64"/>
+    <mergeCell ref="D63:D64"/>
+    <mergeCell ref="E63:E64"/>
+    <mergeCell ref="F63:F64"/>
+    <mergeCell ref="A61:A62"/>
+    <mergeCell ref="B61:B62"/>
+    <mergeCell ref="C61:C62"/>
+    <mergeCell ref="D61:D62"/>
+    <mergeCell ref="E61:E62"/>
+    <mergeCell ref="F61:F62"/>
+    <mergeCell ref="F56:F57"/>
+    <mergeCell ref="A58:A60"/>
+    <mergeCell ref="B58:B60"/>
+    <mergeCell ref="C58:C60"/>
+    <mergeCell ref="D58:D60"/>
+    <mergeCell ref="E58:E60"/>
+    <mergeCell ref="F50:F51"/>
+    <mergeCell ref="A52:A55"/>
+    <mergeCell ref="B52:B55"/>
+    <mergeCell ref="C52:C55"/>
+    <mergeCell ref="D52:D55"/>
+    <mergeCell ref="A56:A57"/>
+    <mergeCell ref="B56:B57"/>
+    <mergeCell ref="C56:C57"/>
+    <mergeCell ref="D56:D57"/>
+    <mergeCell ref="E56:E57"/>
+    <mergeCell ref="A46:A49"/>
+    <mergeCell ref="B46:B49"/>
+    <mergeCell ref="C46:C49"/>
+    <mergeCell ref="D46:D49"/>
+    <mergeCell ref="E46:E49"/>
+    <mergeCell ref="A50:A51"/>
+    <mergeCell ref="B50:B51"/>
+    <mergeCell ref="C50:C51"/>
+    <mergeCell ref="D50:D51"/>
+    <mergeCell ref="E50:E51"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="B44:B45"/>
+    <mergeCell ref="C44:C45"/>
+    <mergeCell ref="D44:D45"/>
+    <mergeCell ref="E44:E45"/>
+    <mergeCell ref="F44:F45"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="C42:C43"/>
+    <mergeCell ref="D42:D43"/>
+    <mergeCell ref="E42:E43"/>
+    <mergeCell ref="F42:F43"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="D40:D41"/>
+    <mergeCell ref="E40:E41"/>
+    <mergeCell ref="F40:F41"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="C38:C39"/>
+    <mergeCell ref="D38:D39"/>
+    <mergeCell ref="E38:E39"/>
+    <mergeCell ref="F38:F39"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="D36:D37"/>
+    <mergeCell ref="E36:E37"/>
+    <mergeCell ref="F36:F37"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="D34:D35"/>
+    <mergeCell ref="E34:E35"/>
+    <mergeCell ref="F34:F35"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="F32:F33"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="F30:F31"/>
     <mergeCell ref="F26:F27"/>
     <mergeCell ref="A28:A29"/>
     <mergeCell ref="B28:B29"/>
@@ -5304,683 +6246,56 @@
     <mergeCell ref="C26:C27"/>
     <mergeCell ref="D26:D27"/>
     <mergeCell ref="E26:E27"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="C32:C33"/>
-    <mergeCell ref="D32:D33"/>
-    <mergeCell ref="E32:E33"/>
-    <mergeCell ref="F32:F33"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="D30:D31"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="F30:F31"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="C36:C37"/>
-    <mergeCell ref="D36:D37"/>
-    <mergeCell ref="E36:E37"/>
-    <mergeCell ref="F36:F37"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="C34:C35"/>
-    <mergeCell ref="D34:D35"/>
-    <mergeCell ref="E34:E35"/>
-    <mergeCell ref="F34:F35"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="C40:C41"/>
-    <mergeCell ref="D40:D41"/>
-    <mergeCell ref="E40:E41"/>
-    <mergeCell ref="F40:F41"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="B38:B39"/>
-    <mergeCell ref="C38:C39"/>
-    <mergeCell ref="D38:D39"/>
-    <mergeCell ref="E38:E39"/>
-    <mergeCell ref="F38:F39"/>
-    <mergeCell ref="A44:A45"/>
-    <mergeCell ref="B44:B45"/>
-    <mergeCell ref="C44:C45"/>
-    <mergeCell ref="D44:D45"/>
-    <mergeCell ref="E44:E45"/>
-    <mergeCell ref="F44:F45"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="B42:B43"/>
-    <mergeCell ref="C42:C43"/>
-    <mergeCell ref="D42:D43"/>
-    <mergeCell ref="E42:E43"/>
-    <mergeCell ref="F42:F43"/>
-    <mergeCell ref="A46:A49"/>
-    <mergeCell ref="B46:B49"/>
-    <mergeCell ref="C46:C49"/>
-    <mergeCell ref="D46:D49"/>
-    <mergeCell ref="E46:E49"/>
-    <mergeCell ref="A50:A51"/>
-    <mergeCell ref="B50:B51"/>
-    <mergeCell ref="C50:C51"/>
-    <mergeCell ref="D50:D51"/>
-    <mergeCell ref="E50:E51"/>
-    <mergeCell ref="F56:F57"/>
-    <mergeCell ref="A58:A60"/>
-    <mergeCell ref="B58:B60"/>
-    <mergeCell ref="C58:C60"/>
-    <mergeCell ref="D58:D60"/>
-    <mergeCell ref="E58:E60"/>
-    <mergeCell ref="F50:F51"/>
-    <mergeCell ref="A52:A55"/>
-    <mergeCell ref="B52:B55"/>
-    <mergeCell ref="C52:C55"/>
-    <mergeCell ref="D52:D55"/>
-    <mergeCell ref="A56:A57"/>
-    <mergeCell ref="B56:B57"/>
-    <mergeCell ref="C56:C57"/>
-    <mergeCell ref="D56:D57"/>
-    <mergeCell ref="E56:E57"/>
-    <mergeCell ref="A63:A64"/>
-    <mergeCell ref="B63:B64"/>
-    <mergeCell ref="C63:C64"/>
-    <mergeCell ref="D63:D64"/>
-    <mergeCell ref="E63:E64"/>
-    <mergeCell ref="F63:F64"/>
-    <mergeCell ref="A61:A62"/>
-    <mergeCell ref="B61:B62"/>
-    <mergeCell ref="C61:C62"/>
-    <mergeCell ref="D61:D62"/>
-    <mergeCell ref="E61:E62"/>
-    <mergeCell ref="F61:F62"/>
-    <mergeCell ref="A65:A68"/>
-    <mergeCell ref="B65:B68"/>
-    <mergeCell ref="C65:C68"/>
-    <mergeCell ref="D65:D68"/>
-    <mergeCell ref="E65:E68"/>
-    <mergeCell ref="A69:A71"/>
-    <mergeCell ref="B69:B71"/>
-    <mergeCell ref="C69:C71"/>
-    <mergeCell ref="D69:D71"/>
-    <mergeCell ref="E69:E71"/>
-    <mergeCell ref="A74:A75"/>
-    <mergeCell ref="B74:B75"/>
-    <mergeCell ref="C74:C75"/>
-    <mergeCell ref="D74:D75"/>
-    <mergeCell ref="E74:E75"/>
-    <mergeCell ref="F74:F75"/>
-    <mergeCell ref="A72:A73"/>
-    <mergeCell ref="B72:B73"/>
-    <mergeCell ref="C72:C73"/>
-    <mergeCell ref="D72:D73"/>
-    <mergeCell ref="E72:E73"/>
-    <mergeCell ref="F72:F73"/>
-    <mergeCell ref="A78:A79"/>
-    <mergeCell ref="B78:B79"/>
-    <mergeCell ref="C78:C79"/>
-    <mergeCell ref="D78:D79"/>
-    <mergeCell ref="E78:E79"/>
-    <mergeCell ref="F78:F79"/>
-    <mergeCell ref="A76:A77"/>
-    <mergeCell ref="B76:B77"/>
-    <mergeCell ref="C76:C77"/>
-    <mergeCell ref="D76:D77"/>
-    <mergeCell ref="E76:E77"/>
-    <mergeCell ref="F76:F77"/>
-    <mergeCell ref="A82:A83"/>
-    <mergeCell ref="B82:B83"/>
-    <mergeCell ref="C82:C83"/>
-    <mergeCell ref="D82:D83"/>
-    <mergeCell ref="E82:E83"/>
-    <mergeCell ref="F82:F83"/>
-    <mergeCell ref="A80:A81"/>
-    <mergeCell ref="B80:B81"/>
-    <mergeCell ref="C80:C81"/>
-    <mergeCell ref="D80:D81"/>
-    <mergeCell ref="E80:E81"/>
-    <mergeCell ref="F80:F81"/>
-    <mergeCell ref="A86:A87"/>
-    <mergeCell ref="B86:B87"/>
-    <mergeCell ref="C86:C87"/>
-    <mergeCell ref="D86:D87"/>
-    <mergeCell ref="E86:E87"/>
-    <mergeCell ref="F86:F87"/>
-    <mergeCell ref="A84:A85"/>
-    <mergeCell ref="B84:B85"/>
-    <mergeCell ref="C84:C85"/>
-    <mergeCell ref="D84:D85"/>
-    <mergeCell ref="E84:E85"/>
-    <mergeCell ref="F84:F85"/>
-    <mergeCell ref="A90:A91"/>
-    <mergeCell ref="B90:B91"/>
-    <mergeCell ref="C90:C91"/>
-    <mergeCell ref="D90:D91"/>
-    <mergeCell ref="E90:E91"/>
-    <mergeCell ref="F90:F91"/>
-    <mergeCell ref="A88:A89"/>
-    <mergeCell ref="B88:B89"/>
-    <mergeCell ref="C88:C89"/>
-    <mergeCell ref="D88:D89"/>
-    <mergeCell ref="E88:E89"/>
-    <mergeCell ref="F88:F89"/>
-    <mergeCell ref="A94:A95"/>
-    <mergeCell ref="B94:B95"/>
-    <mergeCell ref="C94:C95"/>
-    <mergeCell ref="D94:D95"/>
-    <mergeCell ref="E94:E95"/>
-    <mergeCell ref="F94:F95"/>
-    <mergeCell ref="A92:A93"/>
-    <mergeCell ref="B92:B93"/>
-    <mergeCell ref="C92:C93"/>
-    <mergeCell ref="D92:D93"/>
-    <mergeCell ref="E92:E93"/>
-    <mergeCell ref="F92:F93"/>
-    <mergeCell ref="A96:A98"/>
-    <mergeCell ref="B96:B98"/>
-    <mergeCell ref="C96:C98"/>
-    <mergeCell ref="D96:D98"/>
-    <mergeCell ref="E96:E98"/>
-    <mergeCell ref="A99:A101"/>
-    <mergeCell ref="B99:B101"/>
-    <mergeCell ref="C99:C101"/>
-    <mergeCell ref="D99:D101"/>
-    <mergeCell ref="E99:E101"/>
-    <mergeCell ref="F106:F107"/>
-    <mergeCell ref="A108:A109"/>
-    <mergeCell ref="B108:B109"/>
-    <mergeCell ref="C108:C109"/>
-    <mergeCell ref="D108:D109"/>
-    <mergeCell ref="E108:E109"/>
-    <mergeCell ref="F108:F109"/>
-    <mergeCell ref="A102:A105"/>
-    <mergeCell ref="B102:B105"/>
-    <mergeCell ref="C102:C105"/>
-    <mergeCell ref="D102:D105"/>
-    <mergeCell ref="E102:E105"/>
-    <mergeCell ref="A106:A107"/>
-    <mergeCell ref="B106:B107"/>
-    <mergeCell ref="C106:C107"/>
-    <mergeCell ref="D106:D107"/>
-    <mergeCell ref="E106:E107"/>
-    <mergeCell ref="A112:A113"/>
-    <mergeCell ref="B112:B113"/>
-    <mergeCell ref="C112:C113"/>
-    <mergeCell ref="D112:D113"/>
-    <mergeCell ref="E112:E113"/>
-    <mergeCell ref="F112:F113"/>
-    <mergeCell ref="A110:A111"/>
-    <mergeCell ref="B110:B111"/>
-    <mergeCell ref="C110:C111"/>
-    <mergeCell ref="D110:D111"/>
-    <mergeCell ref="E110:E111"/>
-    <mergeCell ref="F110:F111"/>
-    <mergeCell ref="A114:A116"/>
-    <mergeCell ref="B114:B116"/>
-    <mergeCell ref="C114:C116"/>
-    <mergeCell ref="D114:D116"/>
-    <mergeCell ref="F114:F116"/>
-    <mergeCell ref="A117:A119"/>
-    <mergeCell ref="B117:B119"/>
-    <mergeCell ref="C117:C119"/>
-    <mergeCell ref="D117:D119"/>
-    <mergeCell ref="E117:E119"/>
-    <mergeCell ref="A122:A123"/>
-    <mergeCell ref="B122:B123"/>
-    <mergeCell ref="C122:C123"/>
-    <mergeCell ref="D122:D123"/>
-    <mergeCell ref="E122:E123"/>
-    <mergeCell ref="F122:F123"/>
-    <mergeCell ref="A120:A121"/>
-    <mergeCell ref="B120:B121"/>
-    <mergeCell ref="C120:C121"/>
-    <mergeCell ref="D120:D121"/>
-    <mergeCell ref="E120:E121"/>
-    <mergeCell ref="F120:F121"/>
-    <mergeCell ref="E128:E129"/>
-    <mergeCell ref="F128:F129"/>
-    <mergeCell ref="A126:A127"/>
-    <mergeCell ref="B126:B127"/>
-    <mergeCell ref="C126:C127"/>
-    <mergeCell ref="D126:D127"/>
-    <mergeCell ref="E126:E127"/>
-    <mergeCell ref="F126:F127"/>
-    <mergeCell ref="A124:A125"/>
-    <mergeCell ref="B124:B125"/>
-    <mergeCell ref="C124:C125"/>
-    <mergeCell ref="D124:D125"/>
-    <mergeCell ref="E124:E125"/>
-    <mergeCell ref="F124:F125"/>
-    <mergeCell ref="A130:A133"/>
-    <mergeCell ref="B130:B133"/>
-    <mergeCell ref="C130:C133"/>
-    <mergeCell ref="D130:D133"/>
-    <mergeCell ref="A134:A137"/>
-    <mergeCell ref="B134:B137"/>
-    <mergeCell ref="C134:C137"/>
-    <mergeCell ref="D134:D137"/>
-    <mergeCell ref="A128:A129"/>
-    <mergeCell ref="B128:B129"/>
-    <mergeCell ref="C128:C129"/>
-    <mergeCell ref="D128:D129"/>
-    <mergeCell ref="A140:A141"/>
-    <mergeCell ref="B140:B141"/>
-    <mergeCell ref="C140:C141"/>
-    <mergeCell ref="D140:D141"/>
-    <mergeCell ref="E140:E141"/>
-    <mergeCell ref="F140:F141"/>
-    <mergeCell ref="A138:A139"/>
-    <mergeCell ref="B138:B139"/>
-    <mergeCell ref="C138:C139"/>
-    <mergeCell ref="D138:D139"/>
-    <mergeCell ref="E138:E139"/>
-    <mergeCell ref="F138:F139"/>
-    <mergeCell ref="F145:F146"/>
-    <mergeCell ref="A147:A148"/>
-    <mergeCell ref="B147:B148"/>
-    <mergeCell ref="C147:C148"/>
-    <mergeCell ref="D147:D148"/>
-    <mergeCell ref="E147:E148"/>
-    <mergeCell ref="F147:F148"/>
-    <mergeCell ref="A142:A144"/>
-    <mergeCell ref="B142:B144"/>
-    <mergeCell ref="C142:C144"/>
-    <mergeCell ref="D142:D144"/>
-    <mergeCell ref="E142:E144"/>
-    <mergeCell ref="A145:A146"/>
-    <mergeCell ref="B145:B146"/>
-    <mergeCell ref="C145:C146"/>
-    <mergeCell ref="D145:D146"/>
-    <mergeCell ref="E145:E146"/>
-    <mergeCell ref="A151:A152"/>
-    <mergeCell ref="B151:B152"/>
-    <mergeCell ref="C151:C152"/>
-    <mergeCell ref="D151:D152"/>
-    <mergeCell ref="E151:E152"/>
-    <mergeCell ref="F151:F152"/>
-    <mergeCell ref="A149:A150"/>
-    <mergeCell ref="B149:B150"/>
-    <mergeCell ref="C149:C150"/>
-    <mergeCell ref="D149:D150"/>
-    <mergeCell ref="E149:E150"/>
-    <mergeCell ref="F149:F150"/>
-    <mergeCell ref="A155:A156"/>
-    <mergeCell ref="B155:B156"/>
-    <mergeCell ref="C155:C156"/>
-    <mergeCell ref="D155:D156"/>
-    <mergeCell ref="E155:E156"/>
-    <mergeCell ref="F155:F156"/>
-    <mergeCell ref="A153:A154"/>
-    <mergeCell ref="B153:B154"/>
-    <mergeCell ref="C153:C154"/>
-    <mergeCell ref="D153:D154"/>
-    <mergeCell ref="E153:E154"/>
-    <mergeCell ref="F153:F154"/>
-    <mergeCell ref="A157:A159"/>
-    <mergeCell ref="B157:B159"/>
-    <mergeCell ref="C157:C159"/>
-    <mergeCell ref="D157:D159"/>
-    <mergeCell ref="E157:E159"/>
-    <mergeCell ref="A160:A161"/>
-    <mergeCell ref="B160:B161"/>
-    <mergeCell ref="C160:C161"/>
-    <mergeCell ref="D160:D161"/>
-    <mergeCell ref="E160:E161"/>
-    <mergeCell ref="A164:A165"/>
-    <mergeCell ref="B164:B165"/>
-    <mergeCell ref="C164:C165"/>
-    <mergeCell ref="D164:D165"/>
-    <mergeCell ref="E164:E165"/>
-    <mergeCell ref="F164:F165"/>
-    <mergeCell ref="F160:F161"/>
-    <mergeCell ref="A162:A163"/>
-    <mergeCell ref="B162:B163"/>
-    <mergeCell ref="C162:C163"/>
-    <mergeCell ref="D162:D163"/>
-    <mergeCell ref="E162:E163"/>
-    <mergeCell ref="F162:F163"/>
-    <mergeCell ref="A168:A169"/>
-    <mergeCell ref="B168:B169"/>
-    <mergeCell ref="C168:C169"/>
-    <mergeCell ref="D168:D169"/>
-    <mergeCell ref="E168:E169"/>
-    <mergeCell ref="F168:F169"/>
-    <mergeCell ref="A166:A167"/>
-    <mergeCell ref="B166:B167"/>
-    <mergeCell ref="C166:C167"/>
-    <mergeCell ref="D166:D167"/>
-    <mergeCell ref="E166:E167"/>
-    <mergeCell ref="F166:F167"/>
-    <mergeCell ref="A172:A173"/>
-    <mergeCell ref="B172:B173"/>
-    <mergeCell ref="C172:C173"/>
-    <mergeCell ref="D172:D173"/>
-    <mergeCell ref="E172:E173"/>
-    <mergeCell ref="F172:F173"/>
-    <mergeCell ref="A170:A171"/>
-    <mergeCell ref="B170:B171"/>
-    <mergeCell ref="C170:C171"/>
-    <mergeCell ref="D170:D171"/>
-    <mergeCell ref="E170:E171"/>
-    <mergeCell ref="F170:F171"/>
-    <mergeCell ref="F177:F178"/>
-    <mergeCell ref="A179:A180"/>
-    <mergeCell ref="B179:B180"/>
-    <mergeCell ref="C179:C180"/>
-    <mergeCell ref="D179:D180"/>
-    <mergeCell ref="E179:E180"/>
-    <mergeCell ref="F179:F180"/>
-    <mergeCell ref="A174:A176"/>
-    <mergeCell ref="B174:B176"/>
-    <mergeCell ref="C174:C176"/>
-    <mergeCell ref="D174:D176"/>
-    <mergeCell ref="E174:E176"/>
-    <mergeCell ref="A177:A178"/>
-    <mergeCell ref="B177:B178"/>
-    <mergeCell ref="C177:C178"/>
-    <mergeCell ref="D177:D178"/>
-    <mergeCell ref="E177:E178"/>
-    <mergeCell ref="A181:A183"/>
-    <mergeCell ref="B181:B183"/>
-    <mergeCell ref="C181:C183"/>
-    <mergeCell ref="D181:D183"/>
-    <mergeCell ref="E181:E183"/>
-    <mergeCell ref="A184:A185"/>
-    <mergeCell ref="B184:B185"/>
-    <mergeCell ref="C184:C185"/>
-    <mergeCell ref="D184:D185"/>
-    <mergeCell ref="E184:E185"/>
-    <mergeCell ref="A188:A189"/>
-    <mergeCell ref="B188:B189"/>
-    <mergeCell ref="C188:C189"/>
-    <mergeCell ref="D188:D189"/>
-    <mergeCell ref="E188:E189"/>
-    <mergeCell ref="F188:F189"/>
-    <mergeCell ref="F184:F185"/>
-    <mergeCell ref="A186:A187"/>
-    <mergeCell ref="B186:B187"/>
-    <mergeCell ref="C186:C187"/>
-    <mergeCell ref="D186:D187"/>
-    <mergeCell ref="E186:E187"/>
-    <mergeCell ref="F186:F187"/>
-    <mergeCell ref="F193:F194"/>
-    <mergeCell ref="A195:A196"/>
-    <mergeCell ref="B195:B196"/>
-    <mergeCell ref="C195:C196"/>
-    <mergeCell ref="D195:D196"/>
-    <mergeCell ref="E195:E196"/>
-    <mergeCell ref="F195:F196"/>
-    <mergeCell ref="A190:A192"/>
-    <mergeCell ref="B190:B192"/>
-    <mergeCell ref="C190:C192"/>
-    <mergeCell ref="D190:D192"/>
-    <mergeCell ref="E190:E192"/>
-    <mergeCell ref="A193:A194"/>
-    <mergeCell ref="B193:B194"/>
-    <mergeCell ref="C193:C194"/>
-    <mergeCell ref="D193:D194"/>
-    <mergeCell ref="E193:E194"/>
-    <mergeCell ref="F200:F201"/>
-    <mergeCell ref="A202:A204"/>
-    <mergeCell ref="B202:B204"/>
-    <mergeCell ref="C202:C204"/>
-    <mergeCell ref="D202:D204"/>
-    <mergeCell ref="E202:E204"/>
-    <mergeCell ref="A197:A199"/>
-    <mergeCell ref="B197:B199"/>
-    <mergeCell ref="C197:C199"/>
-    <mergeCell ref="D197:D199"/>
-    <mergeCell ref="E197:E199"/>
-    <mergeCell ref="A200:A201"/>
-    <mergeCell ref="B200:B201"/>
-    <mergeCell ref="C200:C201"/>
-    <mergeCell ref="D200:D201"/>
-    <mergeCell ref="E200:E201"/>
-    <mergeCell ref="F208:F209"/>
-    <mergeCell ref="A210:A212"/>
-    <mergeCell ref="B210:B212"/>
-    <mergeCell ref="C210:C212"/>
-    <mergeCell ref="D210:D212"/>
-    <mergeCell ref="E210:E212"/>
-    <mergeCell ref="A205:A207"/>
-    <mergeCell ref="B205:B207"/>
-    <mergeCell ref="C205:C207"/>
-    <mergeCell ref="D205:D207"/>
-    <mergeCell ref="E205:E207"/>
-    <mergeCell ref="A208:A209"/>
-    <mergeCell ref="B208:B209"/>
-    <mergeCell ref="C208:C209"/>
-    <mergeCell ref="D208:D209"/>
-    <mergeCell ref="E208:E209"/>
-    <mergeCell ref="F216:F217"/>
-    <mergeCell ref="A218:A219"/>
-    <mergeCell ref="B218:B219"/>
-    <mergeCell ref="C218:C219"/>
-    <mergeCell ref="D218:D219"/>
-    <mergeCell ref="E218:E219"/>
-    <mergeCell ref="F218:F219"/>
-    <mergeCell ref="A213:A215"/>
-    <mergeCell ref="B213:B215"/>
-    <mergeCell ref="C213:C215"/>
-    <mergeCell ref="D213:D215"/>
-    <mergeCell ref="E213:E215"/>
-    <mergeCell ref="A216:A217"/>
-    <mergeCell ref="B216:B217"/>
-    <mergeCell ref="C216:C217"/>
-    <mergeCell ref="D216:D217"/>
-    <mergeCell ref="E216:E217"/>
-    <mergeCell ref="E224:E226"/>
-    <mergeCell ref="A227:A228"/>
-    <mergeCell ref="B227:B228"/>
-    <mergeCell ref="C227:C228"/>
-    <mergeCell ref="D227:D228"/>
-    <mergeCell ref="E227:E228"/>
-    <mergeCell ref="A220:A223"/>
-    <mergeCell ref="B220:B223"/>
-    <mergeCell ref="C220:C223"/>
-    <mergeCell ref="D220:D223"/>
-    <mergeCell ref="A224:A226"/>
-    <mergeCell ref="B224:B226"/>
-    <mergeCell ref="C224:C226"/>
-    <mergeCell ref="D224:D226"/>
-    <mergeCell ref="A232:A233"/>
-    <mergeCell ref="B232:B233"/>
-    <mergeCell ref="C232:C233"/>
-    <mergeCell ref="D232:D233"/>
-    <mergeCell ref="E232:E233"/>
-    <mergeCell ref="F232:F233"/>
-    <mergeCell ref="F227:F228"/>
-    <mergeCell ref="A229:A231"/>
-    <mergeCell ref="B229:B231"/>
-    <mergeCell ref="C229:C231"/>
-    <mergeCell ref="D229:D231"/>
-    <mergeCell ref="E229:E231"/>
-    <mergeCell ref="A236:A237"/>
-    <mergeCell ref="B236:B237"/>
-    <mergeCell ref="C236:C237"/>
-    <mergeCell ref="D236:D237"/>
-    <mergeCell ref="E236:E237"/>
-    <mergeCell ref="F236:F237"/>
-    <mergeCell ref="A234:A235"/>
-    <mergeCell ref="B234:B235"/>
-    <mergeCell ref="C234:C235"/>
-    <mergeCell ref="D234:D235"/>
-    <mergeCell ref="E234:E235"/>
-    <mergeCell ref="F234:F235"/>
-    <mergeCell ref="A240:A241"/>
-    <mergeCell ref="B240:B241"/>
-    <mergeCell ref="C240:C241"/>
-    <mergeCell ref="D240:D241"/>
-    <mergeCell ref="E240:E241"/>
-    <mergeCell ref="F240:F241"/>
-    <mergeCell ref="A238:A239"/>
-    <mergeCell ref="B238:B239"/>
-    <mergeCell ref="C238:C239"/>
-    <mergeCell ref="D238:D239"/>
-    <mergeCell ref="E238:E239"/>
-    <mergeCell ref="F238:F239"/>
-    <mergeCell ref="E245:E246"/>
-    <mergeCell ref="F245:F246"/>
-    <mergeCell ref="A247:A249"/>
-    <mergeCell ref="B247:B249"/>
-    <mergeCell ref="C247:C249"/>
-    <mergeCell ref="D247:D249"/>
-    <mergeCell ref="F247:F249"/>
-    <mergeCell ref="A242:A244"/>
-    <mergeCell ref="B242:B244"/>
-    <mergeCell ref="C242:C244"/>
-    <mergeCell ref="D242:D244"/>
-    <mergeCell ref="A245:A246"/>
-    <mergeCell ref="B245:B246"/>
-    <mergeCell ref="C245:C246"/>
-    <mergeCell ref="D245:D246"/>
-    <mergeCell ref="F253:F254"/>
-    <mergeCell ref="A255:A256"/>
-    <mergeCell ref="B255:B256"/>
-    <mergeCell ref="C255:C256"/>
-    <mergeCell ref="D255:D256"/>
-    <mergeCell ref="E255:E256"/>
-    <mergeCell ref="F255:F256"/>
-    <mergeCell ref="A250:A252"/>
-    <mergeCell ref="B250:B252"/>
-    <mergeCell ref="C250:C252"/>
-    <mergeCell ref="D250:D252"/>
-    <mergeCell ref="F250:F252"/>
-    <mergeCell ref="A253:A254"/>
-    <mergeCell ref="B253:B254"/>
-    <mergeCell ref="C253:C254"/>
-    <mergeCell ref="D253:D254"/>
-    <mergeCell ref="E253:E254"/>
-    <mergeCell ref="F260:F261"/>
-    <mergeCell ref="A262:A263"/>
-    <mergeCell ref="B262:B263"/>
-    <mergeCell ref="C262:C263"/>
-    <mergeCell ref="D262:D263"/>
-    <mergeCell ref="E262:E263"/>
-    <mergeCell ref="F262:F263"/>
-    <mergeCell ref="A257:A259"/>
-    <mergeCell ref="B257:B259"/>
-    <mergeCell ref="C257:C259"/>
-    <mergeCell ref="D257:D259"/>
-    <mergeCell ref="E257:E259"/>
-    <mergeCell ref="A260:A261"/>
-    <mergeCell ref="B260:B261"/>
-    <mergeCell ref="C260:C261"/>
-    <mergeCell ref="D260:D261"/>
-    <mergeCell ref="E260:E261"/>
-    <mergeCell ref="A266:A267"/>
-    <mergeCell ref="B266:B267"/>
-    <mergeCell ref="C266:C267"/>
-    <mergeCell ref="D266:D267"/>
-    <mergeCell ref="E266:E267"/>
-    <mergeCell ref="F266:F267"/>
-    <mergeCell ref="A264:A265"/>
-    <mergeCell ref="B264:B265"/>
-    <mergeCell ref="C264:C265"/>
-    <mergeCell ref="D264:D265"/>
-    <mergeCell ref="E264:E265"/>
-    <mergeCell ref="F264:F265"/>
-    <mergeCell ref="A268:A270"/>
-    <mergeCell ref="B268:B270"/>
-    <mergeCell ref="C268:C270"/>
-    <mergeCell ref="D268:D270"/>
-    <mergeCell ref="E268:E270"/>
-    <mergeCell ref="A271:A272"/>
-    <mergeCell ref="B271:B272"/>
-    <mergeCell ref="C271:C272"/>
-    <mergeCell ref="D271:D272"/>
-    <mergeCell ref="E271:E272"/>
-    <mergeCell ref="A275:A276"/>
-    <mergeCell ref="B275:B276"/>
-    <mergeCell ref="C275:C276"/>
-    <mergeCell ref="D275:D276"/>
-    <mergeCell ref="E275:E276"/>
-    <mergeCell ref="F275:F276"/>
-    <mergeCell ref="F271:F272"/>
-    <mergeCell ref="A273:A274"/>
-    <mergeCell ref="B273:B274"/>
-    <mergeCell ref="C273:C274"/>
-    <mergeCell ref="D273:D274"/>
-    <mergeCell ref="E273:E274"/>
-    <mergeCell ref="F273:F274"/>
-    <mergeCell ref="A279:A280"/>
-    <mergeCell ref="B279:B280"/>
-    <mergeCell ref="C279:C280"/>
-    <mergeCell ref="D279:D280"/>
-    <mergeCell ref="E279:E280"/>
-    <mergeCell ref="F279:F280"/>
-    <mergeCell ref="A277:A278"/>
-    <mergeCell ref="B277:B278"/>
-    <mergeCell ref="C277:C278"/>
-    <mergeCell ref="D277:D278"/>
-    <mergeCell ref="E277:E278"/>
-    <mergeCell ref="F277:F278"/>
-    <mergeCell ref="A283:A284"/>
-    <mergeCell ref="B283:B284"/>
-    <mergeCell ref="C283:C284"/>
-    <mergeCell ref="D283:D284"/>
-    <mergeCell ref="E283:E284"/>
-    <mergeCell ref="F283:F284"/>
-    <mergeCell ref="A281:A282"/>
-    <mergeCell ref="B281:B282"/>
-    <mergeCell ref="C281:C282"/>
-    <mergeCell ref="D281:D282"/>
-    <mergeCell ref="E281:E282"/>
-    <mergeCell ref="F281:F282"/>
-    <mergeCell ref="A287:A288"/>
-    <mergeCell ref="B287:B288"/>
-    <mergeCell ref="C287:C288"/>
-    <mergeCell ref="D287:D288"/>
-    <mergeCell ref="E287:E288"/>
-    <mergeCell ref="F287:F288"/>
-    <mergeCell ref="A285:A286"/>
-    <mergeCell ref="B285:B286"/>
-    <mergeCell ref="C285:C286"/>
-    <mergeCell ref="D285:D286"/>
-    <mergeCell ref="E285:E286"/>
-    <mergeCell ref="F285:F286"/>
-    <mergeCell ref="A291:A292"/>
-    <mergeCell ref="B291:B292"/>
-    <mergeCell ref="C291:C292"/>
-    <mergeCell ref="D291:D292"/>
-    <mergeCell ref="E291:E292"/>
-    <mergeCell ref="F291:F292"/>
-    <mergeCell ref="A289:A290"/>
-    <mergeCell ref="B289:B290"/>
-    <mergeCell ref="C289:C290"/>
-    <mergeCell ref="D289:D290"/>
-    <mergeCell ref="E289:E290"/>
-    <mergeCell ref="F289:F290"/>
-    <mergeCell ref="F297:F298"/>
-    <mergeCell ref="A299:A300"/>
-    <mergeCell ref="B299:B300"/>
-    <mergeCell ref="C299:C300"/>
-    <mergeCell ref="D299:D300"/>
-    <mergeCell ref="E299:E300"/>
-    <mergeCell ref="F299:F300"/>
-    <mergeCell ref="A294:A296"/>
-    <mergeCell ref="B294:B296"/>
-    <mergeCell ref="C294:C296"/>
-    <mergeCell ref="D294:D296"/>
-    <mergeCell ref="E294:E296"/>
-    <mergeCell ref="A297:A298"/>
-    <mergeCell ref="B297:B298"/>
-    <mergeCell ref="C297:C298"/>
-    <mergeCell ref="D297:D298"/>
-    <mergeCell ref="E297:E298"/>
-    <mergeCell ref="F304:F305"/>
-    <mergeCell ref="A306:A307"/>
-    <mergeCell ref="B306:B307"/>
-    <mergeCell ref="C306:C307"/>
-    <mergeCell ref="D306:D307"/>
-    <mergeCell ref="E306:E307"/>
-    <mergeCell ref="F306:F307"/>
-    <mergeCell ref="A301:A303"/>
-    <mergeCell ref="B301:B303"/>
-    <mergeCell ref="C301:C303"/>
-    <mergeCell ref="D301:D303"/>
-    <mergeCell ref="E301:E303"/>
-    <mergeCell ref="A304:A305"/>
-    <mergeCell ref="B304:B305"/>
-    <mergeCell ref="C304:C305"/>
-    <mergeCell ref="D304:D305"/>
-    <mergeCell ref="E304:E305"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="E5:E7"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="C8:C10"/>
+    <mergeCell ref="D8:D10"/>
+    <mergeCell ref="F8:F10"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="C2:C4"/>
+    <mergeCell ref="D2:D4"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="C5:C7"/>
+    <mergeCell ref="D5:D7"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -6001,15 +6316,15 @@
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="19" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="21"/>
   <cols>
     <col min="1" max="1" width="11" style="5"/>
-    <col min="2" max="2" width="46.1640625" customWidth="1"/>
+    <col min="2" max="2" width="46.19921875" customWidth="1"/>
     <col min="3" max="3" width="33" customWidth="1"/>
-    <col min="4" max="4" width="41.83203125" customWidth="1"/>
+    <col min="4" max="4" width="41.796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" ht="24">
+    <row r="1" spans="1:4" s="1" customFormat="1" ht="25.2">
       <c r="A1" s="3" t="s">
         <v>169</v>
       </c>
@@ -6031,7 +6346,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="3" spans="1:4" s="6" customFormat="1">
+    <row r="3" spans="1:4" s="6" customFormat="1" ht="22.2">
       <c r="A3" s="6">
         <v>9.1999999999999993</v>
       </c>
@@ -6039,7 +6354,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="4" spans="1:4" s="6" customFormat="1">
+    <row r="4" spans="1:4" s="6" customFormat="1" ht="22.2">
       <c r="A4" s="6">
         <v>9.3000000000000007</v>
       </c>
@@ -6047,7 +6362,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="5" spans="1:4" s="6" customFormat="1">
+    <row r="5" spans="1:4" s="6" customFormat="1" ht="22.2">
       <c r="A5" s="6">
         <v>9.4</v>
       </c>
@@ -6055,7 +6370,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="6" spans="1:4" s="6" customFormat="1">
+    <row r="6" spans="1:4" s="6" customFormat="1" ht="22.2">
       <c r="A6" s="6">
         <v>9.5</v>
       </c>
@@ -6063,7 +6378,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="7" spans="1:4" s="6" customFormat="1">
+    <row r="7" spans="1:4" s="6" customFormat="1" ht="22.2">
       <c r="A7" s="6">
         <v>9.6</v>
       </c>
@@ -6071,7 +6386,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="8" spans="1:4" s="6" customFormat="1">
+    <row r="8" spans="1:4" s="6" customFormat="1" ht="22.2">
       <c r="A8" s="6">
         <v>9.6999999999999993</v>
       </c>
@@ -6079,7 +6394,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="9" spans="1:4" s="6" customFormat="1">
+    <row r="9" spans="1:4" s="6" customFormat="1" ht="22.2">
       <c r="A9" s="6">
         <v>9.8000000000000007</v>
       </c>
@@ -6087,7 +6402,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="10" spans="1:4" s="6" customFormat="1">
+    <row r="10" spans="1:4" s="6" customFormat="1" ht="22.2">
       <c r="A10" s="6">
         <v>9.9</v>
       </c>
@@ -6095,7 +6410,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="11" spans="1:4" s="6" customFormat="1">
+    <row r="11" spans="1:4" s="6" customFormat="1" ht="22.2">
       <c r="A11" s="6">
         <v>9.1</v>
       </c>
@@ -6103,7 +6418,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="12" spans="1:4" s="6" customFormat="1">
+    <row r="12" spans="1:4" s="6" customFormat="1" ht="22.2">
       <c r="A12" s="6">
         <v>9.11</v>
       </c>
@@ -6111,7 +6426,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="13" spans="1:4" s="6" customFormat="1">
+    <row r="13" spans="1:4" s="6" customFormat="1" ht="22.2">
       <c r="A13" s="6">
         <v>2.2000000000000002</v>
       </c>
@@ -6122,7 +6437,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="14" spans="1:4" s="6" customFormat="1">
+    <row r="14" spans="1:4" s="6" customFormat="1" ht="22.2">
       <c r="A14" s="6">
         <v>2.5</v>
       </c>
@@ -6133,7 +6448,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="15" spans="1:4" s="6" customFormat="1">
+    <row r="15" spans="1:4" s="6" customFormat="1" ht="22.2">
       <c r="A15" s="6">
         <v>2.7</v>
       </c>
@@ -6144,7 +6459,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="16" spans="1:4" s="6" customFormat="1">
+    <row r="16" spans="1:4" s="6" customFormat="1" ht="22.2">
       <c r="A16" s="6">
         <v>3.3</v>
       </c>
@@ -6152,7 +6467,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="17" spans="1:4" s="6" customFormat="1">
+    <row r="17" spans="1:4" s="6" customFormat="1" ht="22.2">
       <c r="A17" s="6">
         <v>4.0999999999999996</v>
       </c>
@@ -6160,7 +6475,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="18" spans="1:4" s="6" customFormat="1">
+    <row r="18" spans="1:4" s="6" customFormat="1" ht="22.2">
       <c r="A18" s="6">
         <v>4.3</v>
       </c>
@@ -6168,7 +6483,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="19" spans="1:4" s="6" customFormat="1">
+    <row r="19" spans="1:4" s="6" customFormat="1" ht="22.2">
       <c r="A19" s="6">
         <v>4.5</v>
       </c>
@@ -6176,7 +6491,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="20" spans="1:4" s="6" customFormat="1">
+    <row r="20" spans="1:4" s="6" customFormat="1" ht="22.2">
       <c r="A20" s="6">
         <v>4.7</v>
       </c>
@@ -6184,7 +6499,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="21" spans="1:4" s="6" customFormat="1">
+    <row r="21" spans="1:4" s="6" customFormat="1" ht="22.2">
       <c r="A21" s="6">
         <v>4.8</v>
       </c>
@@ -6192,7 +6507,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="22" spans="1:4" s="6" customFormat="1">
+    <row r="22" spans="1:4" s="6" customFormat="1" ht="22.2">
       <c r="A22" s="6">
         <v>4.9000000000000004</v>
       </c>
@@ -6200,7 +6515,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="23" spans="1:4" s="6" customFormat="1">
+    <row r="23" spans="1:4" s="6" customFormat="1" ht="22.2">
       <c r="A23" s="6">
         <v>5.7</v>
       </c>
@@ -6208,7 +6523,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="24" spans="1:4" s="6" customFormat="1">
+    <row r="24" spans="1:4" s="6" customFormat="1" ht="22.2">
       <c r="A24" s="6">
         <v>6.4</v>
       </c>
@@ -6216,7 +6531,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="25" spans="1:4" s="6" customFormat="1">
+    <row r="25" spans="1:4" s="6" customFormat="1" ht="22.2">
       <c r="A25" s="6">
         <v>11.5</v>
       </c>
@@ -6224,7 +6539,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="26" spans="1:4" s="6" customFormat="1">
+    <row r="26" spans="1:4" s="6" customFormat="1" ht="22.2">
       <c r="A26" s="6">
         <v>11.6</v>
       </c>
@@ -6232,7 +6547,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="27" spans="1:4" s="6" customFormat="1">
+    <row r="27" spans="1:4" s="6" customFormat="1" ht="22.2">
       <c r="A27" s="6">
         <v>11.7</v>
       </c>
@@ -6240,7 +6555,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="28" spans="1:4" s="6" customFormat="1">
+    <row r="28" spans="1:4" s="6" customFormat="1" ht="22.2">
       <c r="A28" s="6">
         <v>11.8</v>
       </c>
@@ -6248,7 +6563,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="29" spans="1:4" s="6" customFormat="1">
+    <row r="29" spans="1:4" s="6" customFormat="1" ht="22.2">
       <c r="A29" s="6">
         <v>13.7</v>
       </c>
@@ -6256,7 +6571,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="30" spans="1:4" s="6" customFormat="1">
+    <row r="30" spans="1:4" s="6" customFormat="1" ht="22.2">
       <c r="A30" s="6">
         <v>17.13</v>
       </c>
@@ -6264,7 +6579,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="31" spans="1:4" s="6" customFormat="1">
+    <row r="31" spans="1:4" s="6" customFormat="1" ht="22.2">
       <c r="A31" s="6">
         <v>17.14</v>
       </c>
@@ -6272,7 +6587,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="32" spans="1:4" s="6" customFormat="1">
+    <row r="32" spans="1:4" s="6" customFormat="1" ht="22.2">
       <c r="A32" s="6">
         <v>18.399999999999999</v>
       </c>
@@ -6280,7 +6595,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="33" spans="1:4" s="6" customFormat="1">
+    <row r="33" spans="1:4" s="6" customFormat="1" ht="22.2">
       <c r="A33" s="6">
         <v>18.7</v>
       </c>
@@ -6288,7 +6603,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="34" spans="1:4" s="6" customFormat="1">
+    <row r="34" spans="1:4" s="6" customFormat="1" ht="22.2">
       <c r="A34" s="6">
         <v>18.12</v>
       </c>
@@ -6296,21 +6611,21 @@
         <v>177</v>
       </c>
     </row>
-    <row r="35" spans="1:4" s="6" customFormat="1">
+    <row r="35" spans="1:4" s="6" customFormat="1" ht="22.2">
       <c r="A35" s="6">
         <v>18.13</v>
       </c>
     </row>
-    <row r="36" spans="1:4" s="2" customFormat="1" ht="17">
+    <row r="36" spans="1:4" s="2" customFormat="1" ht="20.399999999999999">
       <c r="A36" s="4"/>
     </row>
-    <row r="37" spans="1:4" s="2" customFormat="1" ht="17">
+    <row r="37" spans="1:4" s="2" customFormat="1" ht="20.399999999999999">
       <c r="A37" s="4"/>
     </row>
-    <row r="38" spans="1:4" s="2" customFormat="1" ht="17">
+    <row r="38" spans="1:4" s="2" customFormat="1" ht="20.399999999999999">
       <c r="A38" s="4"/>
     </row>
-    <row r="39" spans="1:4" s="2" customFormat="1" ht="17">
+    <row r="39" spans="1:4" s="2" customFormat="1" ht="20.399999999999999">
       <c r="A39" s="4"/>
     </row>
   </sheetData>
@@ -6334,11 +6649,11 @@
       <selection pane="bottomLeft" activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="15.6"/>
   <cols>
     <col min="2" max="2" width="19.5" customWidth="1"/>
-    <col min="4" max="4" width="16.6640625" customWidth="1"/>
-    <col min="5" max="5" width="78.6640625" customWidth="1"/>
+    <col min="4" max="4" width="16.69921875" customWidth="1"/>
+    <col min="5" max="5" width="78.69921875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="9" customFormat="1">

--- a/Leetcode.xlsx
+++ b/Leetcode.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="955" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="964" uniqueCount="242">
   <si>
     <t>Id</t>
   </si>
@@ -780,6 +780,42 @@
   </si>
   <si>
     <t>Subsets</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Search for a Range</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>4H</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>3M</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>4M</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>3M</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>3M</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>3M</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>4M</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>3M</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1323,8 +1359,8 @@
   <dimension ref="A1:G347"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A324" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A218" sqref="A218:B219"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D331" sqref="D331"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1836,8 +1872,8 @@
       <c r="B38" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="C38" s="19">
-        <v>3</v>
+      <c r="C38" s="19" t="s">
+        <v>237</v>
       </c>
       <c r="D38" s="19">
         <v>3</v>
@@ -1993,8 +2029,8 @@
       <c r="B50" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="C50" s="19">
-        <v>3</v>
+      <c r="C50" s="19" t="s">
+        <v>238</v>
       </c>
       <c r="D50" s="19">
         <v>4</v>
@@ -2375,14 +2411,14 @@
       <c r="F79" s="19"/>
     </row>
     <row r="80" spans="1:6" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A80" s="19">
+      <c r="A80" s="25">
         <v>34</v>
       </c>
-      <c r="B80" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="C80" s="19">
-        <v>4</v>
+      <c r="B80" s="25" t="s">
+        <v>233</v>
+      </c>
+      <c r="C80" s="19" t="s">
+        <v>236</v>
       </c>
       <c r="D80" s="19">
         <v>3</v>
@@ -2395,8 +2431,8 @@
       </c>
     </row>
     <row r="81" spans="1:7" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A81" s="19"/>
-      <c r="B81" s="19"/>
+      <c r="A81" s="25"/>
+      <c r="B81" s="25"/>
       <c r="C81" s="19"/>
       <c r="D81" s="19"/>
       <c r="E81" s="19"/>
@@ -2517,8 +2553,8 @@
       <c r="B90" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="C90" s="19">
-        <v>3</v>
+      <c r="C90" s="19" t="s">
+        <v>235</v>
       </c>
       <c r="D90" s="19">
         <v>3</v>
@@ -2547,8 +2583,8 @@
       <c r="B92" s="25" t="s">
         <v>64</v>
       </c>
-      <c r="C92" s="19">
-        <v>4</v>
+      <c r="C92" s="19" t="s">
+        <v>234</v>
       </c>
       <c r="D92" s="19">
         <v>2</v>
@@ -3705,8 +3741,8 @@
     <row r="181" spans="1:6" ht="19.5" customHeight="1">
       <c r="A181" s="26"/>
       <c r="B181" s="27"/>
-      <c r="C181" s="17">
-        <v>3</v>
+      <c r="C181" s="17" t="s">
+        <v>239</v>
       </c>
       <c r="D181" s="17">
         <v>4</v>
@@ -4082,8 +4118,8 @@
       <c r="B210" s="25" t="s">
         <v>116</v>
       </c>
-      <c r="C210" s="19">
-        <v>4</v>
+      <c r="C210" s="19" t="s">
+        <v>240</v>
       </c>
       <c r="D210" s="19">
         <v>2</v>
@@ -4187,8 +4223,8 @@
       <c r="B218" s="25" t="s">
         <v>119</v>
       </c>
-      <c r="C218" s="19">
-        <v>3</v>
+      <c r="C218" s="19" t="s">
+        <v>238</v>
       </c>
       <c r="D218" s="19">
         <v>3</v>
@@ -5334,8 +5370,8 @@
       <c r="B304" s="22" t="s">
         <v>163</v>
       </c>
-      <c r="C304" s="19">
-        <v>3</v>
+      <c r="C304" s="19" t="s">
+        <v>241</v>
       </c>
       <c r="D304" s="19">
         <v>4</v>

--- a/Leetcode.xlsx
+++ b/Leetcode.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="964" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="973" uniqueCount="250">
   <si>
     <t>Id</t>
   </si>
@@ -818,12 +818,44 @@
     <t>3M</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
+  <si>
+    <t>2M</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>binary search</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>5M</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>3M</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1E</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>FindMinimumInRotatedSortedArray</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>3M</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2M</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -927,6 +959,11 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="15"/>
+      <color theme="1"/>
+      <name val="Georgia"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -974,7 +1011,7 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1009,6 +1046,9 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="普通" xfId="0" builtinId="0"/>
@@ -1356,11 +1396,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G347"/>
+  <dimension ref="A1:G349"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D331" sqref="D331"/>
+      <pane ySplit="1" topLeftCell="A168" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C188" sqref="C188:C189"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2161,14 +2201,14 @@
       <c r="E60" s="19"/>
     </row>
     <row r="61" spans="1:6" ht="38" customHeight="1">
-      <c r="A61" s="19">
+      <c r="A61" s="25">
         <v>26</v>
       </c>
-      <c r="B61" s="19" t="s">
+      <c r="B61" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="C61" s="19">
-        <v>1</v>
+      <c r="C61" s="19" t="s">
+        <v>246</v>
       </c>
       <c r="D61" s="19">
         <v>3</v>
@@ -2181,8 +2221,8 @@
       </c>
     </row>
     <row r="62" spans="1:6" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A62" s="19"/>
-      <c r="B62" s="19"/>
+      <c r="A62" s="25"/>
+      <c r="B62" s="25"/>
       <c r="C62" s="19"/>
       <c r="D62" s="19"/>
       <c r="E62" s="19"/>
@@ -2383,14 +2423,14 @@
       <c r="F77" s="19"/>
     </row>
     <row r="78" spans="1:6" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A78" s="19">
+      <c r="A78" s="25">
         <v>33</v>
       </c>
-      <c r="B78" s="19" t="s">
+      <c r="B78" s="25" t="s">
         <v>56</v>
       </c>
-      <c r="C78" s="19">
-        <v>4</v>
+      <c r="C78" s="19" t="s">
+        <v>234</v>
       </c>
       <c r="D78" s="19">
         <v>3</v>
@@ -2403,8 +2443,8 @@
       </c>
     </row>
     <row r="79" spans="1:6" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A79" s="19"/>
-      <c r="B79" s="19"/>
+      <c r="A79" s="25"/>
+      <c r="B79" s="25"/>
       <c r="C79" s="19"/>
       <c r="D79" s="19"/>
       <c r="E79" s="19"/>
@@ -2439,14 +2479,14 @@
       <c r="F81" s="19"/>
     </row>
     <row r="82" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A82" s="19">
+      <c r="A82" s="25">
         <v>35</v>
       </c>
-      <c r="B82" s="19" t="s">
+      <c r="B82" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="C82" s="19">
-        <v>2</v>
+      <c r="C82" s="19" t="s">
+        <v>242</v>
       </c>
       <c r="D82" s="19">
         <v>2</v>
@@ -2454,11 +2494,13 @@
       <c r="E82" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="F82" s="19"/>
+      <c r="F82" s="19" t="s">
+        <v>243</v>
+      </c>
     </row>
     <row r="83" spans="1:7" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A83" s="19"/>
-      <c r="B83" s="19"/>
+      <c r="A83" s="25"/>
+      <c r="B83" s="25"/>
       <c r="C83" s="19"/>
       <c r="D83" s="19"/>
       <c r="E83" s="19"/>
@@ -3614,14 +3656,14 @@
       <c r="F171" s="19"/>
     </row>
     <row r="172" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A172" s="19">
+      <c r="A172" s="25">
         <v>74</v>
       </c>
-      <c r="B172" s="19" t="s">
+      <c r="B172" s="25" t="s">
         <v>100</v>
       </c>
-      <c r="C172" s="19">
-        <v>3</v>
+      <c r="C172" s="19" t="s">
+        <v>245</v>
       </c>
       <c r="D172" s="19">
         <v>3</v>
@@ -3634,8 +3676,8 @@
       </c>
     </row>
     <row r="173" spans="1:6" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A173" s="19"/>
-      <c r="B173" s="19"/>
+      <c r="A173" s="25"/>
+      <c r="B173" s="25"/>
       <c r="C173" s="19"/>
       <c r="D173" s="19"/>
       <c r="E173" s="19"/>
@@ -3800,14 +3842,14 @@
       <c r="F185" s="19"/>
     </row>
     <row r="186" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A186" s="19">
+      <c r="A186" s="25">
         <v>80</v>
       </c>
-      <c r="B186" s="19" t="s">
+      <c r="B186" s="25" t="s">
         <v>106</v>
       </c>
-      <c r="C186" s="19">
-        <v>2</v>
+      <c r="C186" s="19" t="s">
+        <v>249</v>
       </c>
       <c r="D186" s="19">
         <v>2</v>
@@ -3820,22 +3862,22 @@
       </c>
     </row>
     <row r="187" spans="1:6" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A187" s="19"/>
-      <c r="B187" s="19"/>
+      <c r="A187" s="25"/>
+      <c r="B187" s="25"/>
       <c r="C187" s="19"/>
       <c r="D187" s="19"/>
       <c r="E187" s="19"/>
       <c r="F187" s="19"/>
     </row>
     <row r="188" spans="1:6" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A188" s="19">
+      <c r="A188" s="25">
         <v>81</v>
       </c>
-      <c r="B188" s="19" t="s">
+      <c r="B188" s="25" t="s">
         <v>107</v>
       </c>
-      <c r="C188" s="19">
-        <v>5</v>
+      <c r="C188" s="19" t="s">
+        <v>244</v>
       </c>
       <c r="D188" s="19">
         <v>3</v>
@@ -3848,8 +3890,8 @@
       </c>
     </row>
     <row r="189" spans="1:6" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A189" s="19"/>
-      <c r="B189" s="19"/>
+      <c r="A189" s="25"/>
+      <c r="B189" s="25"/>
       <c r="C189" s="19"/>
       <c r="D189" s="19"/>
       <c r="E189" s="19"/>
@@ -5426,10 +5468,12 @@
       <c r="B308" s="19" t="s">
         <v>206</v>
       </c>
+      <c r="C308" s="20"/>
     </row>
     <row r="309" spans="1:6">
       <c r="A309" s="19"/>
       <c r="B309" s="19"/>
+      <c r="C309" s="20"/>
     </row>
     <row r="310" spans="1:6">
       <c r="A310" s="19">
@@ -5438,10 +5482,12 @@
       <c r="B310" s="19" t="s">
         <v>207</v>
       </c>
+      <c r="C310" s="20"/>
     </row>
     <row r="311" spans="1:6">
       <c r="A311" s="19"/>
       <c r="B311" s="19"/>
+      <c r="C311" s="20"/>
     </row>
     <row r="312" spans="1:6">
       <c r="A312" s="19">
@@ -5450,10 +5496,12 @@
       <c r="B312" s="19" t="s">
         <v>208</v>
       </c>
+      <c r="C312" s="20"/>
     </row>
     <row r="313" spans="1:6">
       <c r="A313" s="19"/>
       <c r="B313" s="19"/>
+      <c r="C313" s="20"/>
     </row>
     <row r="314" spans="1:6">
       <c r="A314" s="19">
@@ -5462,10 +5510,12 @@
       <c r="B314" s="19" t="s">
         <v>209</v>
       </c>
+      <c r="C314" s="20"/>
     </row>
     <row r="315" spans="1:6">
       <c r="A315" s="19"/>
       <c r="B315" s="19"/>
+      <c r="C315" s="20"/>
     </row>
     <row r="316" spans="1:6">
       <c r="A316" s="19">
@@ -5474,10 +5524,12 @@
       <c r="B316" s="19" t="s">
         <v>210</v>
       </c>
+      <c r="C316" s="20"/>
     </row>
     <row r="317" spans="1:6">
       <c r="A317" s="19"/>
       <c r="B317" s="19"/>
+      <c r="C317" s="20"/>
     </row>
     <row r="318" spans="1:6">
       <c r="A318" s="19">
@@ -5486,10 +5538,12 @@
       <c r="B318" s="19" t="s">
         <v>211</v>
       </c>
+      <c r="C318" s="20"/>
     </row>
     <row r="319" spans="1:6">
       <c r="A319" s="19"/>
       <c r="B319" s="19"/>
+      <c r="C319" s="20"/>
     </row>
     <row r="320" spans="1:6">
       <c r="A320" s="19">
@@ -5498,170 +5552,237 @@
       <c r="B320" s="19" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="321" spans="1:2">
+      <c r="C320" s="20"/>
+    </row>
+    <row r="321" spans="1:3">
       <c r="A321" s="19"/>
       <c r="B321" s="19"/>
-    </row>
-    <row r="322" spans="1:2">
+      <c r="C321" s="20"/>
+    </row>
+    <row r="322" spans="1:3">
       <c r="A322" s="19">
         <v>140</v>
       </c>
       <c r="B322" s="19" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="323" spans="1:2">
+      <c r="C322" s="20"/>
+    </row>
+    <row r="323" spans="1:3">
       <c r="A323" s="19"/>
       <c r="B323" s="19"/>
-    </row>
-    <row r="324" spans="1:2">
+      <c r="C323" s="20"/>
+    </row>
+    <row r="324" spans="1:3">
       <c r="A324" s="19">
         <v>141</v>
       </c>
       <c r="B324" s="19" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="325" spans="1:2">
+      <c r="C324" s="20"/>
+    </row>
+    <row r="325" spans="1:3">
       <c r="A325" s="19"/>
       <c r="B325" s="19"/>
-    </row>
-    <row r="326" spans="1:2" ht="15.5" customHeight="1">
+      <c r="C325" s="20"/>
+    </row>
+    <row r="326" spans="1:3" ht="15.5" customHeight="1">
       <c r="A326" s="19">
         <v>142</v>
       </c>
       <c r="B326" s="19" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="327" spans="1:2" ht="15.5" customHeight="1">
+      <c r="C326" s="20"/>
+    </row>
+    <row r="327" spans="1:3" ht="15.5" customHeight="1">
       <c r="A327" s="19"/>
       <c r="B327" s="19"/>
-    </row>
-    <row r="328" spans="1:2">
+      <c r="C327" s="20"/>
+    </row>
+    <row r="328" spans="1:3">
       <c r="A328" s="19">
         <v>143</v>
       </c>
       <c r="B328" s="19" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="329" spans="1:2">
+      <c r="C328" s="20"/>
+    </row>
+    <row r="329" spans="1:3">
       <c r="A329" s="19"/>
       <c r="B329" s="19"/>
-    </row>
-    <row r="330" spans="1:2">
+      <c r="C329" s="20"/>
+    </row>
+    <row r="330" spans="1:3">
       <c r="A330" s="19">
         <v>144</v>
       </c>
       <c r="B330" s="19" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="331" spans="1:2">
+      <c r="C330" s="20"/>
+    </row>
+    <row r="331" spans="1:3">
       <c r="A331" s="19"/>
       <c r="B331" s="19"/>
-    </row>
-    <row r="332" spans="1:2" ht="15.5" customHeight="1">
+      <c r="C331" s="20"/>
+    </row>
+    <row r="332" spans="1:3" ht="15.5" customHeight="1">
       <c r="A332" s="19">
         <v>145</v>
       </c>
       <c r="B332" s="19" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="333" spans="1:2" ht="15.5" customHeight="1">
+      <c r="C332" s="20"/>
+    </row>
+    <row r="333" spans="1:3" ht="15.5" customHeight="1">
       <c r="A333" s="19"/>
       <c r="B333" s="19"/>
-    </row>
-    <row r="334" spans="1:2">
+      <c r="C333" s="20"/>
+    </row>
+    <row r="334" spans="1:3">
       <c r="A334" s="19">
         <v>146</v>
       </c>
       <c r="B334" s="19" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="335" spans="1:2">
+      <c r="C334" s="20"/>
+    </row>
+    <row r="335" spans="1:3">
       <c r="A335" s="19"/>
       <c r="B335" s="19"/>
-    </row>
-    <row r="336" spans="1:2">
+      <c r="C335" s="20"/>
+    </row>
+    <row r="336" spans="1:3">
       <c r="A336" s="19">
         <v>147</v>
       </c>
       <c r="B336" s="19" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="337" spans="1:2">
+      <c r="C336" s="20"/>
+    </row>
+    <row r="337" spans="1:3">
       <c r="A337" s="19"/>
       <c r="B337" s="19"/>
-    </row>
-    <row r="338" spans="1:2">
+      <c r="C337" s="20"/>
+    </row>
+    <row r="338" spans="1:3">
       <c r="A338" s="19">
         <v>148</v>
       </c>
       <c r="B338" s="19" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="339" spans="1:2">
+      <c r="C338" s="20"/>
+    </row>
+    <row r="339" spans="1:3">
       <c r="A339" s="19"/>
       <c r="B339" s="19"/>
-    </row>
-    <row r="340" spans="1:2">
+      <c r="C339" s="20"/>
+    </row>
+    <row r="340" spans="1:3">
       <c r="A340" s="19">
         <v>149</v>
       </c>
       <c r="B340" s="19" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="341" spans="1:2">
+      <c r="C340" s="20"/>
+    </row>
+    <row r="341" spans="1:3">
       <c r="A341" s="19"/>
       <c r="B341" s="19"/>
-    </row>
-    <row r="342" spans="1:2">
+      <c r="C341" s="20"/>
+    </row>
+    <row r="342" spans="1:3">
       <c r="A342" s="19">
         <v>150</v>
       </c>
       <c r="B342" s="19" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="343" spans="1:2">
+      <c r="C342" s="20"/>
+    </row>
+    <row r="343" spans="1:3">
       <c r="A343" s="19"/>
       <c r="B343" s="19"/>
-    </row>
-    <row r="344" spans="1:2">
+      <c r="C343" s="20"/>
+    </row>
+    <row r="344" spans="1:3">
       <c r="A344" s="19">
         <v>151</v>
       </c>
       <c r="B344" s="19" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="345" spans="1:2">
+      <c r="C344" s="20"/>
+    </row>
+    <row r="345" spans="1:3">
       <c r="A345" s="19"/>
       <c r="B345" s="19"/>
-    </row>
-    <row r="346" spans="1:2">
+      <c r="C345" s="20"/>
+    </row>
+    <row r="346" spans="1:3">
       <c r="A346" s="19">
         <v>152</v>
       </c>
       <c r="B346" s="19" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="347" spans="1:2">
+      <c r="C346" s="20"/>
+    </row>
+    <row r="347" spans="1:3">
       <c r="A347" s="19"/>
       <c r="B347" s="19"/>
+      <c r="C347" s="20"/>
+    </row>
+    <row r="348" spans="1:3">
+      <c r="A348" s="25">
+        <v>153</v>
+      </c>
+      <c r="B348" s="25" t="s">
+        <v>247</v>
+      </c>
+      <c r="C348" s="28" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="349" spans="1:3">
+      <c r="A349" s="25"/>
+      <c r="B349" s="25"/>
+      <c r="C349" s="28"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:F307"/>
-  <mergeCells count="771">
+  <mergeCells count="794">
+    <mergeCell ref="A348:A349"/>
+    <mergeCell ref="B348:B349"/>
+    <mergeCell ref="C308:C309"/>
+    <mergeCell ref="C310:C311"/>
+    <mergeCell ref="C312:C313"/>
+    <mergeCell ref="C314:C315"/>
+    <mergeCell ref="C316:C317"/>
+    <mergeCell ref="C318:C319"/>
+    <mergeCell ref="C320:C321"/>
+    <mergeCell ref="C322:C323"/>
+    <mergeCell ref="C324:C325"/>
+    <mergeCell ref="C326:C327"/>
+    <mergeCell ref="C328:C329"/>
+    <mergeCell ref="C330:C331"/>
+    <mergeCell ref="C332:C333"/>
+    <mergeCell ref="C334:C335"/>
+    <mergeCell ref="C336:C337"/>
+    <mergeCell ref="C338:C339"/>
+    <mergeCell ref="C340:C341"/>
+    <mergeCell ref="C342:C343"/>
+    <mergeCell ref="C344:C345"/>
+    <mergeCell ref="C346:C347"/>
+    <mergeCell ref="C348:C349"/>
     <mergeCell ref="E5:E7"/>
     <mergeCell ref="A8:A10"/>
     <mergeCell ref="B8:B10"/>
